--- a/Manufacturing/V2/XMP16-V2-BOM.xlsx
+++ b/Manufacturing/V2/XMP16-V2-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="12255" windowHeight="6045"/>
@@ -12,9 +12,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$372</definedName>
+    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$388</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="614">
   <si>
     <t>ref</t>
   </si>
@@ -1824,16 +1824,67 @@
   </si>
   <si>
     <t>Supplied direct from XMOS</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>LED-C0</t>
+  </si>
+  <si>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>R102</t>
+  </si>
+  <si>
+    <t>R103</t>
+  </si>
+  <si>
+    <t>R104</t>
+  </si>
+  <si>
+    <t>R105</t>
+  </si>
+  <si>
+    <t>R106</t>
+  </si>
+  <si>
+    <t>R107</t>
+  </si>
+  <si>
+    <t>R108</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1878,13 +1929,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1939,17 +1983,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1972,7 +2011,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1980,11 +2019,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
@@ -2007,11 +2045,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -2021,7 +2058,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -2034,18 +2071,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -2140,7 +2176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2175,7 +2210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2351,14 +2385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F372"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -2366,40 +2400,40 @@
     <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+    <row r="1" spans="1:6">
+      <c r="C1" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="53">
+      <c r="D1" s="50"/>
+      <c r="E1" s="52">
         <v>41127</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" s="51" t="s">
         <v>594</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
+    <row r="4" spans="1:6">
+      <c r="B4" s="51"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="20" t="s">
         <v>595</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="23" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2419,7 +2453,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2439,7 +2473,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2459,7 +2493,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2479,7 +2513,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2499,7 +2533,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2519,7 +2553,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +2573,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2593,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17.25" customHeight="1">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2613,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2599,7 +2633,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="17.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2619,7 +2653,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="17.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2639,7 +2673,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="17.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2659,7 +2693,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="17.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +2713,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="17.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2699,7 +2733,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="17.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2719,7 +2753,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="17.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2739,7 +2773,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="17.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2759,7 +2793,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="17.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2779,7 +2813,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="17.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2799,7 +2833,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="17.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2819,7 +2853,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="17.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2873,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="17.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2859,7 +2893,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="17.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2879,7 +2913,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="17.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -2899,7 +2933,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="17.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2919,7 +2953,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="17.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2939,7 +2973,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="17.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2959,7 +2993,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="17.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2979,7 +3013,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="17.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2999,7 +3033,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="17.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3019,7 +3053,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="17.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -3039,7 +3073,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="17.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3059,7 +3093,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="17.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3079,7 +3113,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="17.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -3099,7 +3133,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="17.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -3119,7 +3153,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="17.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3139,7 +3173,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="17.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -3159,7 +3193,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="17.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -3179,7 +3213,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="17.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -3199,7 +3233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="17.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -3219,7 +3253,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="17.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -3239,7 +3273,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="17.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -3259,7 +3293,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="17.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3279,7 +3313,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="17.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -3299,7 +3333,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="17.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -3319,7 +3353,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="17.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -3339,7 +3373,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="17.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3359,7 +3393,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="17.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -3379,7 +3413,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="17.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3399,7 +3433,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="17.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -3419,7 +3453,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="17.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -3439,7 +3473,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="17.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -3459,7 +3493,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="17.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3479,7 +3513,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="17.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -3499,7 +3533,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="17.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -3519,7 +3553,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="17.25">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -3539,7 +3573,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="17.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -3559,7 +3593,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="17.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -3579,7 +3613,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="17.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -3599,7 +3633,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="17.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3619,7 +3653,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="17.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -3639,7 +3673,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="17.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -3659,7 +3693,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="17.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -3679,7 +3713,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="17.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -3699,7 +3733,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="17.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -3719,7 +3753,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="17.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3739,7 +3773,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="17.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -3759,7 +3793,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="17.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -3779,7 +3813,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="17.25">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -3799,7 +3833,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="17.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -3819,7 +3853,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="17.25">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -3839,7 +3873,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="17.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="17.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -3879,7 +3913,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="17.25">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -3899,7 +3933,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="17.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -3919,7 +3953,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="17.25">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -3939,7 +3973,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="17.25">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -3959,7 +3993,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="17.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -3979,7 +4013,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="17.25">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -3999,7 +4033,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="17.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4019,7 +4053,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="17.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -4039,7 +4073,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="17.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -4059,7 +4093,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="17.25">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -4079,7 +4113,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="17.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -4099,7 +4133,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="17.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4119,7 +4153,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="17.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -4139,7 +4173,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="17.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -4159,7 +4193,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="17.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -4179,7 +4213,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="17.25">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -4199,7 +4233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="17.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -4219,7 +4253,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="17.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -4239,7 +4273,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="17.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -4259,7 +4293,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="17.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -4279,7 +4313,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="17.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -4299,7 +4333,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="17.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4319,7 +4353,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="17.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -4339,7 +4373,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="17.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -4359,7 +4393,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="17.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -4379,7 +4413,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="17.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -4399,7 +4433,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="17.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -4419,7 +4453,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="17.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -4439,7 +4473,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="17.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -4459,7 +4493,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="17.25">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -4479,7 +4513,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="17.25">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -4499,7 +4533,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="17.25">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -4519,7 +4553,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="17.25">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -4539,7 +4573,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="17.25">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -4559,7 +4593,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="17.25">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -4579,7 +4613,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="17.25">
       <c r="A118" t="s">
         <v>111</v>
       </c>
@@ -4599,7 +4633,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="17.25">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -4619,7 +4653,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="17.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -4639,7 +4673,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="17.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -4659,7 +4693,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="17.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -4679,7 +4713,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="17.25">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -4699,7 +4733,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="17.25">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -4719,7 +4753,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="17.25">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -4739,7 +4773,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="17.25">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -4759,7 +4793,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="17.25">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -4779,7 +4813,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="17.25">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -4799,7 +4833,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="17.25">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -4819,7 +4853,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="17.25">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -4839,7 +4873,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="17.25">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -4859,7 +4893,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="17.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -4879,7 +4913,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="17.25">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -4899,7 +4933,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="17.25">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -4919,7 +4953,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="17.25">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -4939,7 +4973,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="17.25">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -4959,7 +4993,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="17.25">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -4979,7 +5013,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="17.25">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -4999,7 +5033,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="17.25">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -5019,7 +5053,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="17.25">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -5039,7 +5073,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="17.25">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -5059,7 +5093,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="17.25">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -5079,7 +5113,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="17.25">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -5099,7 +5133,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="17.25">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -5119,7 +5153,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="17.25">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -5139,7 +5173,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="17.25">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -5159,7 +5193,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="17.25">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -5179,7 +5213,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="17.25">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -5199,7 +5233,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="17.25">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -5219,7 +5253,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="17.25">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -5239,7 +5273,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="17.25">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -5259,7 +5293,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="17.25">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -5279,7 +5313,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="17.25">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -5299,375 +5333,375 @@
         <v>528</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
+    <row r="154" spans="1:6" ht="17.25">
+      <c r="A154" t="s">
+        <v>597</v>
+      </c>
+      <c r="B154" t="s">
+        <v>605</v>
+      </c>
+      <c r="C154" t="s">
+        <v>212</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F154" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25">
+      <c r="A155" t="s">
+        <v>598</v>
+      </c>
+      <c r="B155" t="s">
+        <v>605</v>
+      </c>
+      <c r="C155" t="s">
+        <v>212</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F155" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.25">
+      <c r="A156" t="s">
+        <v>599</v>
+      </c>
+      <c r="B156" t="s">
+        <v>605</v>
+      </c>
+      <c r="C156" t="s">
+        <v>212</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F156" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="17.25">
+      <c r="A157" t="s">
+        <v>600</v>
+      </c>
+      <c r="B157" t="s">
+        <v>605</v>
+      </c>
+      <c r="C157" t="s">
+        <v>212</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F157" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17.25">
+      <c r="A158" t="s">
+        <v>601</v>
+      </c>
+      <c r="B158" t="s">
+        <v>605</v>
+      </c>
+      <c r="C158" t="s">
+        <v>212</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F158" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25">
+      <c r="A159" t="s">
+        <v>602</v>
+      </c>
+      <c r="B159" t="s">
+        <v>605</v>
+      </c>
+      <c r="C159" t="s">
+        <v>212</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F159" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.25">
+      <c r="A160" t="s">
+        <v>603</v>
+      </c>
+      <c r="B160" t="s">
+        <v>605</v>
+      </c>
+      <c r="C160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F160" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="17.25">
+      <c r="A161" t="s">
+        <v>604</v>
+      </c>
+      <c r="B161" t="s">
+        <v>605</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F161" s="48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B154" s="20" t="s">
+      <c r="B162" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C162" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="20" t="s">
+    <row r="163" spans="1:6">
+      <c r="A163" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B155" s="20" t="s">
+      <c r="B163" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C163" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
+    <row r="164" spans="1:6">
+      <c r="A164" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B156" s="20" t="s">
+      <c r="B164" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C164" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
+    <row r="165" spans="1:6">
+      <c r="A165" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B157" s="20" t="s">
+      <c r="B165" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C165" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
+    <row r="166" spans="1:6">
+      <c r="A166" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B166" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C166" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="20" t="s">
+    <row r="167" spans="1:6">
+      <c r="A167" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B167" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C167" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="168" spans="1:6" ht="17.25">
+      <c r="A168" t="s">
         <v>157</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B168" t="s">
         <v>158</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C168" t="s">
         <v>159</v>
       </c>
-      <c r="D160" t="s">
-        <v>454</v>
-      </c>
-      <c r="E160" s="3" t="s">
+      <c r="D168" t="s">
+        <v>454</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F160" s="17" t="s">
+      <c r="F168" s="17" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="169" spans="1:6" ht="17.25">
+      <c r="A169" t="s">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B169" t="s">
         <v>158</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C169" t="s">
         <v>161</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D169" t="s">
         <v>455</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E169" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F161" s="17" t="s">
+      <c r="F169" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="170" spans="1:6" ht="17.25">
+      <c r="A170" t="s">
         <v>162</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B170" t="s">
         <v>158</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C170" t="s">
         <v>161</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D170" t="s">
         <v>455</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E170" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F162" s="17" t="s">
+      <c r="F170" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="171" spans="1:6" ht="17.25">
+      <c r="A171" t="s">
         <v>163</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B171" t="s">
         <v>158</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C171" t="s">
         <v>161</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D171" t="s">
         <v>455</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E171" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F163" s="17" t="s">
+      <c r="F171" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="172" spans="1:6" ht="17.25">
+      <c r="A172" t="s">
         <v>164</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B172" t="s">
         <v>158</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C172" t="s">
         <v>161</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D172" t="s">
         <v>455</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F164" s="17" t="s">
+      <c r="F172" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="173" spans="1:6" ht="17.25">
+      <c r="A173" t="s">
         <v>165</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B173" t="s">
         <v>158</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C173" t="s">
         <v>161</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D173" t="s">
         <v>455</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E173" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F165" s="17" t="s">
+      <c r="F173" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="174" spans="1:6" ht="17.25">
+      <c r="A174" t="s">
         <v>166</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B174" t="s">
         <v>167</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C174" t="s">
         <v>168</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D174" t="s">
         <v>536</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E174" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F166" s="17" t="s">
+      <c r="F174" s="17" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="175" spans="1:6" ht="17.25">
+      <c r="A175" t="s">
         <v>169</v>
-      </c>
-      <c r="B167" t="s">
-        <v>170</v>
-      </c>
-      <c r="C167" t="s">
-        <v>449</v>
-      </c>
-      <c r="D167" t="s">
-        <v>540</v>
-      </c>
-      <c r="E167" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="F167" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>171</v>
-      </c>
-      <c r="B168" t="s">
-        <v>170</v>
-      </c>
-      <c r="C168" t="s">
-        <v>449</v>
-      </c>
-      <c r="D168" t="s">
-        <v>540</v>
-      </c>
-      <c r="E168" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="F168" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" t="s">
-        <v>449</v>
-      </c>
-      <c r="D169" t="s">
-        <v>540</v>
-      </c>
-      <c r="E169" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>173</v>
-      </c>
-      <c r="B170" t="s">
-        <v>174</v>
-      </c>
-      <c r="C170" t="s">
-        <v>175</v>
-      </c>
-      <c r="D170" t="s">
-        <v>591</v>
-      </c>
-      <c r="E170" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="F170" s="49" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>176</v>
-      </c>
-      <c r="B171" t="s">
-        <v>170</v>
-      </c>
-      <c r="C171" t="s">
-        <v>449</v>
-      </c>
-      <c r="D171" t="s">
-        <v>540</v>
-      </c>
-      <c r="E171" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="F171" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>177</v>
-      </c>
-      <c r="B172" t="s">
-        <v>170</v>
-      </c>
-      <c r="C172" t="s">
-        <v>449</v>
-      </c>
-      <c r="D172" t="s">
-        <v>540</v>
-      </c>
-      <c r="E172" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="F172" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>178</v>
-      </c>
-      <c r="B173" t="s">
-        <v>170</v>
-      </c>
-      <c r="C173" t="s">
-        <v>449</v>
-      </c>
-      <c r="D173" t="s">
-        <v>540</v>
-      </c>
-      <c r="E173" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="F173" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>179</v>
-      </c>
-      <c r="B174" t="s">
-        <v>170</v>
-      </c>
-      <c r="C174" t="s">
-        <v>449</v>
-      </c>
-      <c r="D174" t="s">
-        <v>540</v>
-      </c>
-      <c r="E174" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="F174" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>180</v>
       </c>
       <c r="B175" t="s">
         <v>170</v>
@@ -5678,16 +5712,16 @@
       <c r="D175" t="s">
         <v>540</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="F175" s="22" t="s">
+      <c r="F175" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="17.25">
       <c r="A176" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
         <v>170</v>
@@ -5698,16 +5732,16 @@
       <c r="D176" t="s">
         <v>540</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="F176" s="22" t="s">
+      <c r="F176" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="17.25">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B177" t="s">
         <v>170</v>
@@ -5718,275 +5752,323 @@
       <c r="D177" t="s">
         <v>540</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="F177" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="17.25">
       <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" t="s">
+        <v>174</v>
+      </c>
+      <c r="C178" t="s">
+        <v>175</v>
+      </c>
+      <c r="D178" t="s">
+        <v>591</v>
+      </c>
+      <c r="E178" s="49" t="s">
+        <v>590</v>
+      </c>
+      <c r="F178" s="48" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="17.25">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" t="s">
+        <v>449</v>
+      </c>
+      <c r="D179" t="s">
+        <v>540</v>
+      </c>
+      <c r="E179" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17.25">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>170</v>
+      </c>
+      <c r="C180" t="s">
+        <v>449</v>
+      </c>
+      <c r="D180" t="s">
+        <v>540</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17.25">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181" t="s">
+        <v>449</v>
+      </c>
+      <c r="D181" t="s">
+        <v>540</v>
+      </c>
+      <c r="E181" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="17.25">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>170</v>
+      </c>
+      <c r="C182" t="s">
+        <v>449</v>
+      </c>
+      <c r="D182" t="s">
+        <v>540</v>
+      </c>
+      <c r="E182" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="17.25">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" t="s">
+        <v>449</v>
+      </c>
+      <c r="D183" t="s">
+        <v>540</v>
+      </c>
+      <c r="E183" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F183" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="17.25">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>170</v>
+      </c>
+      <c r="C184" t="s">
+        <v>449</v>
+      </c>
+      <c r="D184" t="s">
+        <v>540</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F184" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17.25">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C185" t="s">
+        <v>449</v>
+      </c>
+      <c r="D185" t="s">
+        <v>540</v>
+      </c>
+      <c r="E185" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
         <v>183</v>
       </c>
-      <c r="B178" s="20" t="s">
+      <c r="B186" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C186" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B179" s="20" t="s">
+      <c r="B187" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C187" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
         <v>188</v>
       </c>
-      <c r="B180" s="20" t="s">
+      <c r="B188" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C188" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="189" spans="1:6" ht="17.25">
+      <c r="A189" t="s">
         <v>191</v>
       </c>
-      <c r="B181" s="21" t="s">
+      <c r="B189" t="s">
         <v>192</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C189" t="s">
         <v>185</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D189" t="s">
         <v>591</v>
       </c>
-      <c r="E181" s="50" t="s">
+      <c r="E189" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="F181" s="49" t="s">
+      <c r="F189" s="48" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
         <v>193</v>
       </c>
-      <c r="B182" s="20" t="s">
+      <c r="B190" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C190" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="20" t="s">
+      <c r="B191" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C191" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
         <v>198</v>
       </c>
-      <c r="B184" s="20" t="s">
+      <c r="B192" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C184" s="20" t="s">
+      <c r="C192" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
         <v>200</v>
       </c>
-      <c r="B185" s="20" t="s">
+      <c r="B193" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C185" s="20" t="s">
+      <c r="C193" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
         <v>202</v>
       </c>
-      <c r="B186" s="20" t="s">
+      <c r="B194" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C194" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
         <v>205</v>
       </c>
-      <c r="B187" s="20" t="s">
+      <c r="B195" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C195" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
         <v>206</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B196" t="s">
         <v>207</v>
       </c>
-      <c r="C188" t="s">
-        <v>212</v>
-      </c>
-      <c r="E188" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C196" t="s">
+        <v>212</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
         <v>208</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B197" t="s">
         <v>209</v>
       </c>
-      <c r="C189" t="s">
-        <v>212</v>
-      </c>
-      <c r="E189" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C197" t="s">
+        <v>212</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
         <v>210</v>
-      </c>
-      <c r="B190" t="s">
-        <v>211</v>
-      </c>
-      <c r="C190" t="s">
-        <v>212</v>
-      </c>
-      <c r="E190" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>213</v>
-      </c>
-      <c r="B191" t="s">
-        <v>211</v>
-      </c>
-      <c r="C191" t="s">
-        <v>212</v>
-      </c>
-      <c r="E191" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>214</v>
-      </c>
-      <c r="B192" t="s">
-        <v>215</v>
-      </c>
-      <c r="C192" t="s">
-        <v>212</v>
-      </c>
-      <c r="E192" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>216</v>
-      </c>
-      <c r="B193" t="s">
-        <v>217</v>
-      </c>
-      <c r="C193" t="s">
-        <v>212</v>
-      </c>
-      <c r="E193" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>218</v>
-      </c>
-      <c r="B194" t="s">
-        <v>219</v>
-      </c>
-      <c r="C194" t="s">
-        <v>212</v>
-      </c>
-      <c r="E194" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>220</v>
-      </c>
-      <c r="B195" t="s">
-        <v>221</v>
-      </c>
-      <c r="C195" t="s">
-        <v>212</v>
-      </c>
-      <c r="E195" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>222</v>
-      </c>
-      <c r="B196" t="s">
-        <v>211</v>
-      </c>
-      <c r="C196" t="s">
-        <v>212</v>
-      </c>
-      <c r="E196" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>223</v>
-      </c>
-      <c r="B197" t="s">
-        <v>211</v>
-      </c>
-      <c r="C197" t="s">
-        <v>212</v>
-      </c>
-      <c r="E197" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>224</v>
       </c>
       <c r="B198" t="s">
         <v>211</v>
@@ -5994,13 +6076,13 @@
       <c r="C198" t="s">
         <v>212</v>
       </c>
-      <c r="E198" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B199" t="s">
         <v>211</v>
@@ -6008,293 +6090,293 @@
       <c r="C199" t="s">
         <v>212</v>
       </c>
-      <c r="E199" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
+        <v>214</v>
+      </c>
+      <c r="B200" t="s">
+        <v>215</v>
+      </c>
+      <c r="C200" t="s">
+        <v>212</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>216</v>
+      </c>
+      <c r="B201" t="s">
+        <v>217</v>
+      </c>
+      <c r="C201" t="s">
+        <v>212</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>218</v>
+      </c>
+      <c r="B202" t="s">
+        <v>219</v>
+      </c>
+      <c r="C202" t="s">
+        <v>212</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>220</v>
+      </c>
+      <c r="B203" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" t="s">
+        <v>212</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>222</v>
+      </c>
+      <c r="B204" t="s">
+        <v>211</v>
+      </c>
+      <c r="C204" t="s">
+        <v>212</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205" t="s">
+        <v>211</v>
+      </c>
+      <c r="C205" t="s">
+        <v>212</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" t="s">
+        <v>212</v>
+      </c>
+      <c r="E206" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207" t="s">
+        <v>212</v>
+      </c>
+      <c r="E207" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
         <v>226</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B208" t="s">
         <v>211</v>
       </c>
-      <c r="C200" t="s">
-        <v>212</v>
-      </c>
-      <c r="E200" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C208" t="s">
+        <v>212</v>
+      </c>
+      <c r="E208" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
         <v>227</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B209" t="s">
         <v>211</v>
       </c>
-      <c r="C201" t="s">
-        <v>212</v>
-      </c>
-      <c r="E201" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C209" t="s">
+        <v>212</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
         <v>228</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B210" t="s">
         <v>211</v>
       </c>
-      <c r="C202" t="s">
-        <v>212</v>
-      </c>
-      <c r="E202" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
         <v>229</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B211" t="s">
         <v>211</v>
       </c>
-      <c r="C203" t="s">
-        <v>212</v>
-      </c>
-      <c r="E203" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C211" t="s">
+        <v>212</v>
+      </c>
+      <c r="E211" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
         <v>230</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B212" t="s">
         <v>221</v>
       </c>
-      <c r="C204" t="s">
-        <v>212</v>
-      </c>
-      <c r="E204" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="C212" t="s">
+        <v>212</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
         <v>231</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B213" t="s">
         <v>232</v>
       </c>
-      <c r="C205" t="s">
-        <v>212</v>
-      </c>
-      <c r="E205" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C213" t="s">
+        <v>212</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
         <v>233</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B214" t="s">
         <v>217</v>
       </c>
-      <c r="C206" t="s">
-        <v>212</v>
-      </c>
-      <c r="E206" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="C214" t="s">
+        <v>212</v>
+      </c>
+      <c r="E214" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
         <v>234</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B215" t="s">
         <v>221</v>
       </c>
-      <c r="C207" t="s">
-        <v>212</v>
-      </c>
-      <c r="E207" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="C215" t="s">
+        <v>212</v>
+      </c>
+      <c r="E215" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
         <v>235</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B216" t="s">
         <v>221</v>
       </c>
-      <c r="C208" t="s">
-        <v>212</v>
-      </c>
-      <c r="E208" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="C216" t="s">
+        <v>212</v>
+      </c>
+      <c r="E216" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
         <v>236</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B217" t="s">
         <v>221</v>
       </c>
-      <c r="C209" t="s">
-        <v>212</v>
-      </c>
-      <c r="E209" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="C217" t="s">
+        <v>212</v>
+      </c>
+      <c r="E217" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
         <v>237</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B218" t="s">
         <v>221</v>
       </c>
-      <c r="C210" t="s">
-        <v>212</v>
-      </c>
-      <c r="E210" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="C218" t="s">
+        <v>212</v>
+      </c>
+      <c r="E218" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
         <v>238</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B219" t="s">
         <v>221</v>
       </c>
-      <c r="C211" t="s">
-        <v>212</v>
-      </c>
-      <c r="E211" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="C219" t="s">
+        <v>212</v>
+      </c>
+      <c r="E219" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
         <v>239</v>
-      </c>
-      <c r="B212" t="s">
-        <v>211</v>
-      </c>
-      <c r="C212" t="s">
-        <v>212</v>
-      </c>
-      <c r="E212" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>240</v>
-      </c>
-      <c r="B213" t="s">
-        <v>211</v>
-      </c>
-      <c r="C213" t="s">
-        <v>212</v>
-      </c>
-      <c r="E213" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>241</v>
-      </c>
-      <c r="B214" t="s">
-        <v>242</v>
-      </c>
-      <c r="C214" t="s">
-        <v>212</v>
-      </c>
-      <c r="E214" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>243</v>
-      </c>
-      <c r="B215" t="s">
-        <v>242</v>
-      </c>
-      <c r="C215" t="s">
-        <v>212</v>
-      </c>
-      <c r="E215" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>244</v>
-      </c>
-      <c r="B216" t="s">
-        <v>211</v>
-      </c>
-      <c r="C216" t="s">
-        <v>212</v>
-      </c>
-      <c r="E216" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>245</v>
-      </c>
-      <c r="B217" t="s">
-        <v>211</v>
-      </c>
-      <c r="C217" t="s">
-        <v>212</v>
-      </c>
-      <c r="E217" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>246</v>
-      </c>
-      <c r="B218" t="s">
-        <v>211</v>
-      </c>
-      <c r="C218" t="s">
-        <v>212</v>
-      </c>
-      <c r="E218" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>247</v>
-      </c>
-      <c r="B219" t="s">
-        <v>211</v>
-      </c>
-      <c r="C219" t="s">
-        <v>212</v>
-      </c>
-      <c r="E219" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>248</v>
       </c>
       <c r="B220" t="s">
         <v>211</v>
@@ -6302,13 +6384,13 @@
       <c r="C220" t="s">
         <v>212</v>
       </c>
-      <c r="E220" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B221" t="s">
         <v>211</v>
@@ -6316,41 +6398,41 @@
       <c r="C221" t="s">
         <v>212</v>
       </c>
-      <c r="E221" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B222" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C222" t="s">
         <v>212</v>
       </c>
-      <c r="E222" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B223" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C223" t="s">
         <v>212</v>
       </c>
-      <c r="E223" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B224" t="s">
         <v>211</v>
@@ -6358,13 +6440,13 @@
       <c r="C224" t="s">
         <v>212</v>
       </c>
-      <c r="E224" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B225" t="s">
         <v>211</v>
@@ -6372,13 +6454,13 @@
       <c r="C225" t="s">
         <v>212</v>
       </c>
-      <c r="E225" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B226" t="s">
         <v>211</v>
@@ -6386,13 +6468,13 @@
       <c r="C226" t="s">
         <v>212</v>
       </c>
-      <c r="E226" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B227" t="s">
         <v>211</v>
@@ -6400,13 +6482,13 @@
       <c r="C227" t="s">
         <v>212</v>
       </c>
-      <c r="E227" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B228" t="s">
         <v>211</v>
@@ -6414,153 +6496,153 @@
       <c r="C228" t="s">
         <v>212</v>
       </c>
-      <c r="E228" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
+        <v>249</v>
+      </c>
+      <c r="B229" t="s">
+        <v>211</v>
+      </c>
+      <c r="C229" t="s">
+        <v>212</v>
+      </c>
+      <c r="E229" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>250</v>
+      </c>
+      <c r="B230" t="s">
+        <v>211</v>
+      </c>
+      <c r="C230" t="s">
+        <v>212</v>
+      </c>
+      <c r="E230" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>251</v>
+      </c>
+      <c r="B231" t="s">
+        <v>211</v>
+      </c>
+      <c r="C231" t="s">
+        <v>212</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>252</v>
+      </c>
+      <c r="B232" t="s">
+        <v>211</v>
+      </c>
+      <c r="C232" t="s">
+        <v>212</v>
+      </c>
+      <c r="E232" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>253</v>
+      </c>
+      <c r="B233" t="s">
+        <v>211</v>
+      </c>
+      <c r="C233" t="s">
+        <v>212</v>
+      </c>
+      <c r="E233" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>254</v>
+      </c>
+      <c r="B234" t="s">
+        <v>211</v>
+      </c>
+      <c r="C234" t="s">
+        <v>212</v>
+      </c>
+      <c r="E234" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>255</v>
+      </c>
+      <c r="B235" t="s">
+        <v>211</v>
+      </c>
+      <c r="C235" t="s">
+        <v>212</v>
+      </c>
+      <c r="E235" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>256</v>
+      </c>
+      <c r="B236" t="s">
+        <v>211</v>
+      </c>
+      <c r="C236" t="s">
+        <v>212</v>
+      </c>
+      <c r="E236" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
         <v>257</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B237" t="s">
         <v>258</v>
       </c>
-      <c r="C229" t="s">
-        <v>212</v>
-      </c>
-      <c r="E229" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="C237" t="s">
+        <v>212</v>
+      </c>
+      <c r="E237" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
         <v>259</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B238" t="s">
         <v>217</v>
       </c>
-      <c r="C230" t="s">
-        <v>212</v>
-      </c>
-      <c r="E230" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="C238" t="s">
+        <v>212</v>
+      </c>
+      <c r="E238" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
         <v>260</v>
-      </c>
-      <c r="B231" t="s">
-        <v>261</v>
-      </c>
-      <c r="C231" t="s">
-        <v>212</v>
-      </c>
-      <c r="E231" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>262</v>
-      </c>
-      <c r="B232" t="s">
-        <v>261</v>
-      </c>
-      <c r="C232" t="s">
-        <v>212</v>
-      </c>
-      <c r="E232" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>263</v>
-      </c>
-      <c r="B233" t="s">
-        <v>261</v>
-      </c>
-      <c r="C233" t="s">
-        <v>212</v>
-      </c>
-      <c r="E233" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>264</v>
-      </c>
-      <c r="B234" t="s">
-        <v>261</v>
-      </c>
-      <c r="C234" t="s">
-        <v>212</v>
-      </c>
-      <c r="E234" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>265</v>
-      </c>
-      <c r="B235" t="s">
-        <v>266</v>
-      </c>
-      <c r="C235" t="s">
-        <v>212</v>
-      </c>
-      <c r="E235" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>267</v>
-      </c>
-      <c r="B236" t="s">
-        <v>261</v>
-      </c>
-      <c r="C236" t="s">
-        <v>212</v>
-      </c>
-      <c r="E236" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>268</v>
-      </c>
-      <c r="B237" t="s">
-        <v>261</v>
-      </c>
-      <c r="C237" t="s">
-        <v>212</v>
-      </c>
-      <c r="E237" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>269</v>
-      </c>
-      <c r="B238" t="s">
-        <v>261</v>
-      </c>
-      <c r="C238" t="s">
-        <v>212</v>
-      </c>
-      <c r="E238" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>270</v>
       </c>
       <c r="B239" t="s">
         <v>261</v>
@@ -6568,69 +6650,69 @@
       <c r="C239" t="s">
         <v>212</v>
       </c>
-      <c r="E239" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B240" t="s">
+        <v>261</v>
+      </c>
+      <c r="C240" t="s">
+        <v>212</v>
+      </c>
+      <c r="E240" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>263</v>
+      </c>
+      <c r="B241" t="s">
+        <v>261</v>
+      </c>
+      <c r="C241" t="s">
+        <v>212</v>
+      </c>
+      <c r="E241" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>264</v>
+      </c>
+      <c r="B242" t="s">
+        <v>261</v>
+      </c>
+      <c r="C242" t="s">
+        <v>212</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>265</v>
+      </c>
+      <c r="B243" t="s">
         <v>266</v>
       </c>
-      <c r="C240" t="s">
-        <v>212</v>
-      </c>
-      <c r="E240" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>272</v>
-      </c>
-      <c r="B241" t="s">
-        <v>211</v>
-      </c>
-      <c r="C241" t="s">
-        <v>212</v>
-      </c>
-      <c r="E241" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>273</v>
-      </c>
-      <c r="B242" t="s">
-        <v>258</v>
-      </c>
-      <c r="C242" t="s">
-        <v>212</v>
-      </c>
-      <c r="E242" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>274</v>
-      </c>
-      <c r="B243" t="s">
-        <v>217</v>
-      </c>
       <c r="C243" t="s">
         <v>212</v>
       </c>
-      <c r="E243" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B244" t="s">
         <v>261</v>
@@ -6638,13 +6720,13 @@
       <c r="C244" t="s">
         <v>212</v>
       </c>
-      <c r="E244" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B245" t="s">
         <v>261</v>
@@ -6652,13 +6734,13 @@
       <c r="C245" t="s">
         <v>212</v>
       </c>
-      <c r="E245" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B246" t="s">
         <v>261</v>
@@ -6666,13 +6748,13 @@
       <c r="C246" t="s">
         <v>212</v>
       </c>
-      <c r="E246" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B247" t="s">
         <v>261</v>
@@ -6680,13 +6762,13 @@
       <c r="C247" t="s">
         <v>212</v>
       </c>
-      <c r="E247" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B248" t="s">
         <v>266</v>
@@ -6694,55 +6776,55 @@
       <c r="C248" t="s">
         <v>212</v>
       </c>
-      <c r="E248" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C249" t="s">
         <v>212</v>
       </c>
-      <c r="E249" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B250" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C250" t="s">
         <v>212</v>
       </c>
-      <c r="E250" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B251" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C251" t="s">
         <v>212</v>
       </c>
-      <c r="E251" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B252" t="s">
         <v>261</v>
@@ -6750,69 +6832,69 @@
       <c r="C252" t="s">
         <v>212</v>
       </c>
-      <c r="E252" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B253" t="s">
+        <v>261</v>
+      </c>
+      <c r="C253" t="s">
+        <v>212</v>
+      </c>
+      <c r="E253" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>277</v>
+      </c>
+      <c r="B254" t="s">
+        <v>261</v>
+      </c>
+      <c r="C254" t="s">
+        <v>212</v>
+      </c>
+      <c r="E254" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>278</v>
+      </c>
+      <c r="B255" t="s">
+        <v>261</v>
+      </c>
+      <c r="C255" t="s">
+        <v>212</v>
+      </c>
+      <c r="E255" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>279</v>
+      </c>
+      <c r="B256" t="s">
         <v>266</v>
       </c>
-      <c r="C253" t="s">
-        <v>212</v>
-      </c>
-      <c r="E253" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>285</v>
-      </c>
-      <c r="B254" t="s">
-        <v>211</v>
-      </c>
-      <c r="C254" t="s">
-        <v>212</v>
-      </c>
-      <c r="E254" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>286</v>
-      </c>
-      <c r="B255" t="s">
-        <v>258</v>
-      </c>
-      <c r="C255" t="s">
-        <v>212</v>
-      </c>
-      <c r="E255" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>287</v>
-      </c>
-      <c r="B256" t="s">
-        <v>217</v>
-      </c>
       <c r="C256" t="s">
         <v>212</v>
       </c>
-      <c r="E256" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B257" t="s">
         <v>261</v>
@@ -6820,13 +6902,13 @@
       <c r="C257" t="s">
         <v>212</v>
       </c>
-      <c r="E257" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B258" t="s">
         <v>261</v>
@@ -6834,13 +6916,13 @@
       <c r="C258" t="s">
         <v>212</v>
       </c>
-      <c r="E258" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B259" t="s">
         <v>261</v>
@@ -6848,13 +6930,13 @@
       <c r="C259" t="s">
         <v>212</v>
       </c>
-      <c r="E259" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B260" t="s">
         <v>261</v>
@@ -6862,13 +6944,13 @@
       <c r="C260" t="s">
         <v>212</v>
       </c>
-      <c r="E260" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B261" t="s">
         <v>266</v>
@@ -6876,55 +6958,55 @@
       <c r="C261" t="s">
         <v>212</v>
       </c>
-      <c r="E261" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C262" t="s">
         <v>212</v>
       </c>
-      <c r="E262" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C263" t="s">
         <v>212</v>
       </c>
-      <c r="E263" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B264" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C264" t="s">
         <v>212</v>
       </c>
-      <c r="E264" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B265" t="s">
         <v>261</v>
@@ -6932,69 +7014,69 @@
       <c r="C265" t="s">
         <v>212</v>
       </c>
-      <c r="E265" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B266" t="s">
+        <v>261</v>
+      </c>
+      <c r="C266" t="s">
+        <v>212</v>
+      </c>
+      <c r="E266" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>290</v>
+      </c>
+      <c r="B267" t="s">
+        <v>261</v>
+      </c>
+      <c r="C267" t="s">
+        <v>212</v>
+      </c>
+      <c r="E267" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>291</v>
+      </c>
+      <c r="B268" t="s">
+        <v>261</v>
+      </c>
+      <c r="C268" t="s">
+        <v>212</v>
+      </c>
+      <c r="E268" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>292</v>
+      </c>
+      <c r="B269" t="s">
         <v>266</v>
       </c>
-      <c r="C266" t="s">
-        <v>212</v>
-      </c>
-      <c r="E266" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>298</v>
-      </c>
-      <c r="B267" t="s">
-        <v>211</v>
-      </c>
-      <c r="C267" t="s">
-        <v>212</v>
-      </c>
-      <c r="E267" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>299</v>
-      </c>
-      <c r="B268" t="s">
-        <v>258</v>
-      </c>
-      <c r="C268" t="s">
-        <v>212</v>
-      </c>
-      <c r="E268" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>300</v>
-      </c>
-      <c r="B269" t="s">
-        <v>217</v>
-      </c>
       <c r="C269" t="s">
         <v>212</v>
       </c>
-      <c r="E269" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B270" t="s">
         <v>261</v>
@@ -7002,13 +7084,13 @@
       <c r="C270" t="s">
         <v>212</v>
       </c>
-      <c r="E270" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B271" t="s">
         <v>261</v>
@@ -7016,13 +7098,13 @@
       <c r="C271" t="s">
         <v>212</v>
       </c>
-      <c r="E271" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B272" t="s">
         <v>261</v>
@@ -7030,13 +7112,13 @@
       <c r="C272" t="s">
         <v>212</v>
       </c>
-      <c r="E272" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E272" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B273" t="s">
         <v>261</v>
@@ -7044,13 +7126,13 @@
       <c r="C273" t="s">
         <v>212</v>
       </c>
-      <c r="E273" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E273" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B274" t="s">
         <v>266</v>
@@ -7058,55 +7140,55 @@
       <c r="C274" t="s">
         <v>212</v>
       </c>
-      <c r="E274" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E274" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B275" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C275" t="s">
         <v>212</v>
       </c>
-      <c r="E275" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E275" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B276" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C276" t="s">
         <v>212</v>
       </c>
-      <c r="E276" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E276" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B277" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C277" t="s">
         <v>212</v>
       </c>
-      <c r="E277" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E277" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B278" t="s">
         <v>261</v>
@@ -7114,41 +7196,41 @@
       <c r="C278" t="s">
         <v>212</v>
       </c>
-      <c r="E278" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E278" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B279" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C279" t="s">
         <v>212</v>
       </c>
-      <c r="E279" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E279" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B280" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="C280" t="s">
         <v>212</v>
       </c>
-      <c r="E280" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E280" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B281" t="s">
         <v>261</v>
@@ -7156,534 +7238,438 @@
       <c r="C281" t="s">
         <v>212</v>
       </c>
-      <c r="E281" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E281" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
+        <v>305</v>
+      </c>
+      <c r="B282" t="s">
+        <v>266</v>
+      </c>
+      <c r="C282" t="s">
+        <v>212</v>
+      </c>
+      <c r="E282" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>306</v>
+      </c>
+      <c r="B283" t="s">
+        <v>261</v>
+      </c>
+      <c r="C283" t="s">
+        <v>212</v>
+      </c>
+      <c r="E283" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>307</v>
+      </c>
+      <c r="B284" t="s">
+        <v>261</v>
+      </c>
+      <c r="C284" t="s">
+        <v>212</v>
+      </c>
+      <c r="E284" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>308</v>
+      </c>
+      <c r="B285" t="s">
+        <v>261</v>
+      </c>
+      <c r="C285" t="s">
+        <v>212</v>
+      </c>
+      <c r="E285" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>309</v>
+      </c>
+      <c r="B286" t="s">
+        <v>261</v>
+      </c>
+      <c r="C286" t="s">
+        <v>212</v>
+      </c>
+      <c r="E286" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>310</v>
+      </c>
+      <c r="B287" t="s">
+        <v>266</v>
+      </c>
+      <c r="C287" t="s">
+        <v>212</v>
+      </c>
+      <c r="E287" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>311</v>
+      </c>
+      <c r="B288" t="s">
+        <v>312</v>
+      </c>
+      <c r="C288" t="s">
+        <v>212</v>
+      </c>
+      <c r="E288" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>313</v>
+      </c>
+      <c r="B289" t="s">
+        <v>261</v>
+      </c>
+      <c r="C289" t="s">
+        <v>212</v>
+      </c>
+      <c r="E289" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
         <v>314</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B290" t="s">
         <v>315</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C290" t="s">
         <v>316</v>
       </c>
-      <c r="E282" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="E290" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
         <v>317</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B291" t="s">
         <v>315</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C291" t="s">
         <v>316</v>
       </c>
-      <c r="E283" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="E291" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
         <v>318</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B292" t="s">
         <v>315</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C292" t="s">
         <v>316</v>
       </c>
-      <c r="E284" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="E292" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
         <v>319</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B293" t="s">
         <v>315</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C293" t="s">
         <v>316</v>
       </c>
-      <c r="E285" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="E293" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
         <v>320</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B294" t="s">
         <v>315</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C294" t="s">
         <v>316</v>
       </c>
-      <c r="E286" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="E294" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
         <v>321</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B295" t="s">
         <v>221</v>
       </c>
-      <c r="C287" t="s">
-        <v>212</v>
-      </c>
-      <c r="E287" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="C295" t="s">
+        <v>212</v>
+      </c>
+      <c r="E295" s="24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>606</v>
+      </c>
+      <c r="B296" t="s">
+        <v>261</v>
+      </c>
+      <c r="C296" t="s">
+        <v>212</v>
+      </c>
+      <c r="E296" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>607</v>
+      </c>
+      <c r="B297" t="s">
+        <v>261</v>
+      </c>
+      <c r="C297" t="s">
+        <v>212</v>
+      </c>
+      <c r="E297" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>608</v>
+      </c>
+      <c r="B298" t="s">
+        <v>261</v>
+      </c>
+      <c r="C298" t="s">
+        <v>212</v>
+      </c>
+      <c r="E298" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>609</v>
+      </c>
+      <c r="B299" t="s">
+        <v>261</v>
+      </c>
+      <c r="C299" t="s">
+        <v>212</v>
+      </c>
+      <c r="E299" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>610</v>
+      </c>
+      <c r="B300" t="s">
+        <v>261</v>
+      </c>
+      <c r="C300" t="s">
+        <v>212</v>
+      </c>
+      <c r="E300" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>611</v>
+      </c>
+      <c r="B301" t="s">
+        <v>261</v>
+      </c>
+      <c r="C301" t="s">
+        <v>212</v>
+      </c>
+      <c r="E301" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>612</v>
+      </c>
+      <c r="B302" t="s">
+        <v>261</v>
+      </c>
+      <c r="C302" t="s">
+        <v>212</v>
+      </c>
+      <c r="E302" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>613</v>
+      </c>
+      <c r="B303" t="s">
+        <v>261</v>
+      </c>
+      <c r="C303" t="s">
+        <v>212</v>
+      </c>
+      <c r="E303" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="17.25">
+      <c r="A304" t="s">
         <v>322</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B304" t="s">
         <v>542</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C304" t="s">
         <v>324</v>
       </c>
-      <c r="E288" s="26" t="s">
+      <c r="E304" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="F288" s="27" t="s">
+      <c r="F304" s="26" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row r="305" spans="1:6" ht="17.25">
+      <c r="A305" t="s">
         <v>325</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B305" t="s">
         <v>326</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C305" t="s">
         <v>327</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D305" t="s">
         <v>549</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E305" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F289" s="44" t="s">
+      <c r="F305" s="43" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row r="306" spans="1:6" ht="17.25">
+      <c r="A306" t="s">
         <v>328</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B306" t="s">
         <v>329</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C306" t="s">
         <v>330</v>
       </c>
-      <c r="E290" s="30" t="s">
+      <c r="E306" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="F290" s="32" t="s">
+      <c r="F306" s="31" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="307" spans="1:6" ht="15.75">
+      <c r="A307" t="s">
         <v>331</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B307" t="s">
         <v>332</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C307" t="s">
         <v>333</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D307" t="s">
         <v>552</v>
       </c>
-      <c r="E291" s="33" t="s">
+      <c r="E307" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="F291" s="34" t="s">
+      <c r="F307" s="33" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="308" spans="1:6" ht="17.25">
+      <c r="A308" t="s">
         <v>334</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B308" t="s">
         <v>335</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C308" t="s">
         <v>336</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D308" t="s">
         <v>555</v>
       </c>
-      <c r="E292" s="35" t="s">
+      <c r="E308" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="F292" s="36" t="s">
+      <c r="F308" s="35" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="309" spans="1:6" ht="17.25">
+      <c r="A309" t="s">
         <v>337</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B309" t="s">
         <v>323</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C309" t="s">
         <v>324</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D309" t="s">
         <v>556</v>
       </c>
-      <c r="E293" s="28" t="s">
+      <c r="E309" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="F293" s="29" t="s">
+      <c r="F309" s="28" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="310" spans="1:6" ht="17.25">
+      <c r="A310" t="s">
         <v>338</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B310" t="s">
         <v>326</v>
-      </c>
-      <c r="C294" t="s">
-        <v>327</v>
-      </c>
-      <c r="D294" t="s">
-        <v>549</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F294" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>339</v>
-      </c>
-      <c r="B295" t="s">
-        <v>326</v>
-      </c>
-      <c r="C295" t="s">
-        <v>327</v>
-      </c>
-      <c r="D295" t="s">
-        <v>549</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F295" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>340</v>
-      </c>
-      <c r="B296" t="s">
-        <v>326</v>
-      </c>
-      <c r="C296" t="s">
-        <v>327</v>
-      </c>
-      <c r="D296" t="s">
-        <v>549</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F296" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>341</v>
-      </c>
-      <c r="B297" t="s">
-        <v>326</v>
-      </c>
-      <c r="C297" t="s">
-        <v>327</v>
-      </c>
-      <c r="D297" t="s">
-        <v>549</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F297" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>342</v>
-      </c>
-      <c r="B298" t="s">
-        <v>343</v>
-      </c>
-      <c r="C298" t="s">
-        <v>344</v>
-      </c>
-      <c r="D298" t="s">
-        <v>487</v>
-      </c>
-      <c r="E298" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="F298" s="39" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>345</v>
-      </c>
-      <c r="B299" t="s">
-        <v>346</v>
-      </c>
-      <c r="C299" t="s">
-        <v>327</v>
-      </c>
-      <c r="D299" t="s">
-        <v>555</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F299" s="38" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>347</v>
-      </c>
-      <c r="B300" t="s">
-        <v>346</v>
-      </c>
-      <c r="C300" t="s">
-        <v>327</v>
-      </c>
-      <c r="D300" t="s">
-        <v>555</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F300" s="38" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>348</v>
-      </c>
-      <c r="B301" t="s">
-        <v>346</v>
-      </c>
-      <c r="C301" t="s">
-        <v>327</v>
-      </c>
-      <c r="D301" t="s">
-        <v>555</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F301" s="38" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>349</v>
-      </c>
-      <c r="B302" t="s">
-        <v>346</v>
-      </c>
-      <c r="C302" t="s">
-        <v>327</v>
-      </c>
-      <c r="D302" t="s">
-        <v>555</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F302" s="38" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>350</v>
-      </c>
-      <c r="B303" t="s">
-        <v>335</v>
-      </c>
-      <c r="C303" t="s">
-        <v>336</v>
-      </c>
-      <c r="D303" t="s">
-        <v>555</v>
-      </c>
-      <c r="E303" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="F303" s="39" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>351</v>
-      </c>
-      <c r="B304" t="s">
-        <v>352</v>
-      </c>
-      <c r="C304" t="s">
-        <v>353</v>
-      </c>
-      <c r="D304" t="s">
-        <v>563</v>
-      </c>
-      <c r="E304" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="F304" s="41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>354</v>
-      </c>
-      <c r="B305" t="s">
-        <v>355</v>
-      </c>
-      <c r="C305" t="s">
-        <v>356</v>
-      </c>
-      <c r="D305" t="s">
-        <v>565</v>
-      </c>
-      <c r="E305" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="F305" s="43" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>357</v>
-      </c>
-      <c r="B306" t="s">
-        <v>326</v>
-      </c>
-      <c r="C306" t="s">
-        <v>327</v>
-      </c>
-      <c r="D306" t="s">
-        <v>549</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F306" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>358</v>
-      </c>
-      <c r="B307" t="s">
-        <v>359</v>
-      </c>
-      <c r="C307" t="s">
-        <v>327</v>
-      </c>
-      <c r="D307" t="s">
-        <v>549</v>
-      </c>
-      <c r="E307" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="F307" s="46" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>360</v>
-      </c>
-      <c r="B308" t="s">
-        <v>326</v>
-      </c>
-      <c r="C308" t="s">
-        <v>327</v>
-      </c>
-      <c r="D308" t="s">
-        <v>549</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F308" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>361</v>
-      </c>
-      <c r="B309" t="s">
-        <v>326</v>
-      </c>
-      <c r="C309" t="s">
-        <v>327</v>
-      </c>
-      <c r="D309" t="s">
-        <v>549</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F309" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>362</v>
-      </c>
-      <c r="B310" t="s">
-        <v>359</v>
       </c>
       <c r="C310" t="s">
         <v>327</v>
@@ -7691,16 +7677,16 @@
       <c r="D310" t="s">
         <v>549</v>
       </c>
-      <c r="E310" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="F310" s="46" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E310" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F310" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="17.25">
       <c r="A311" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B311" t="s">
         <v>326</v>
@@ -7714,253 +7700,253 @@
       <c r="E311" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F311" s="31" t="s">
+      <c r="F311" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="17.25">
       <c r="A312" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B312" t="s">
-        <v>571</v>
+        <v>326</v>
       </c>
       <c r="C312" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D312" t="s">
-        <v>568</v>
-      </c>
-      <c r="E312" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F312" s="47" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F312" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="17.25">
       <c r="A313" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B313" t="s">
-        <v>571</v>
+        <v>326</v>
       </c>
       <c r="C313" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D313" t="s">
-        <v>568</v>
-      </c>
-      <c r="E313" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F313" s="47" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F313" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="17.25">
       <c r="A314" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="B314" t="s">
-        <v>571</v>
+        <v>343</v>
       </c>
       <c r="C314" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="D314" t="s">
-        <v>568</v>
-      </c>
-      <c r="E314" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F314" s="47" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="E314" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="F314" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="17.25">
       <c r="A315" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="B315" t="s">
-        <v>571</v>
+        <v>346</v>
       </c>
       <c r="C315" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D315" t="s">
-        <v>568</v>
-      </c>
-      <c r="E315" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F315" s="47" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F315" s="37" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="17.25">
       <c r="A316" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B316" t="s">
-        <v>571</v>
+        <v>346</v>
       </c>
       <c r="C316" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D316" t="s">
-        <v>568</v>
-      </c>
-      <c r="E316" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F316" s="47" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F316" s="37" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="17.25">
       <c r="A317" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B317" t="s">
-        <v>571</v>
+        <v>346</v>
       </c>
       <c r="C317" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D317" t="s">
-        <v>568</v>
-      </c>
-      <c r="E317" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F317" s="47" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F317" s="37" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="17.25">
       <c r="A318" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B318" t="s">
-        <v>571</v>
+        <v>346</v>
       </c>
       <c r="C318" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D318" t="s">
-        <v>568</v>
-      </c>
-      <c r="E318" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F318" s="47" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F318" s="37" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="17.25">
       <c r="A319" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B319" t="s">
-        <v>571</v>
+        <v>335</v>
       </c>
       <c r="C319" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="D319" t="s">
-        <v>568</v>
-      </c>
-      <c r="E319" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F319" s="47" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="E319" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="F319" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="17.25">
       <c r="A320" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="B320" t="s">
-        <v>571</v>
+        <v>352</v>
       </c>
       <c r="C320" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D320" t="s">
-        <v>568</v>
-      </c>
-      <c r="E320" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F320" s="47" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="E320" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="F320" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="17.25">
       <c r="A321" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B321" t="s">
-        <v>571</v>
+        <v>355</v>
       </c>
       <c r="C321" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D321" t="s">
-        <v>568</v>
-      </c>
-      <c r="E321" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F321" s="47" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="E321" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F321" s="42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="17.25">
       <c r="A322" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="B322" t="s">
-        <v>571</v>
+        <v>326</v>
       </c>
       <c r="C322" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D322" t="s">
-        <v>568</v>
-      </c>
-      <c r="E322" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F322" s="47" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F322" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="17.25">
       <c r="A323" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B323" t="s">
-        <v>571</v>
+        <v>359</v>
       </c>
       <c r="C323" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D323" t="s">
-        <v>568</v>
-      </c>
-      <c r="E323" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F323" s="47" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="E323" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F323" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="17.25">
       <c r="A324" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B324" t="s">
         <v>326</v>
@@ -7974,13 +7960,13 @@
       <c r="E324" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F324" s="31" t="s">
+      <c r="F324" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="17.25">
       <c r="A325" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B325" t="s">
         <v>326</v>
@@ -7994,293 +7980,293 @@
       <c r="E325" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F325" s="31" t="s">
+      <c r="F325" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="17.25">
       <c r="A326" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B326" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C326" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D326" t="s">
-        <v>563</v>
-      </c>
-      <c r="E326" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="F326" s="41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="B327" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C327" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D327" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="E327" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F327" s="24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="B328" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C328" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D328" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="E328" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F328" s="24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="E326" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F326" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="17.25">
+      <c r="A327" t="s">
+        <v>363</v>
+      </c>
+      <c r="B327" t="s">
+        <v>326</v>
+      </c>
+      <c r="C327" t="s">
+        <v>327</v>
+      </c>
+      <c r="D327" t="s">
+        <v>549</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F327" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15.75">
+      <c r="A328" t="s">
+        <v>364</v>
+      </c>
+      <c r="B328" t="s">
+        <v>571</v>
+      </c>
+      <c r="C328" t="s">
+        <v>365</v>
+      </c>
+      <c r="D328" t="s">
+        <v>568</v>
+      </c>
+      <c r="E328" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F328" s="46" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="15.75">
       <c r="A329" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B329" t="s">
-        <v>326</v>
+        <v>571</v>
       </c>
       <c r="C329" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="D329" t="s">
-        <v>549</v>
-      </c>
-      <c r="E329" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F329" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E329" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F329" s="46" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15.75">
       <c r="A330" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B330" t="s">
-        <v>326</v>
+        <v>571</v>
       </c>
       <c r="C330" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="D330" t="s">
-        <v>549</v>
-      </c>
-      <c r="E330" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F330" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E330" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F330" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15.75">
       <c r="A331" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B331" t="s">
-        <v>352</v>
+        <v>571</v>
       </c>
       <c r="C331" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D331" t="s">
-        <v>563</v>
-      </c>
-      <c r="E331" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="F331" s="41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="B332" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C332" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D332" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="E332" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F332" s="24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="B333" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C333" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D333" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="E333" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F333" s="24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E331" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F331" s="46" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="15.75">
+      <c r="A332" t="s">
+        <v>369</v>
+      </c>
+      <c r="B332" t="s">
+        <v>571</v>
+      </c>
+      <c r="C332" t="s">
+        <v>365</v>
+      </c>
+      <c r="D332" t="s">
+        <v>568</v>
+      </c>
+      <c r="E332" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F332" s="46" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="15.75">
+      <c r="A333" t="s">
+        <v>370</v>
+      </c>
+      <c r="B333" t="s">
+        <v>571</v>
+      </c>
+      <c r="C333" t="s">
+        <v>365</v>
+      </c>
+      <c r="D333" t="s">
+        <v>568</v>
+      </c>
+      <c r="E333" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F333" s="46" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15.75">
       <c r="A334" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B334" t="s">
-        <v>326</v>
+        <v>571</v>
       </c>
       <c r="C334" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="D334" t="s">
-        <v>549</v>
-      </c>
-      <c r="E334" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F334" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E334" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F334" s="46" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15.75">
       <c r="A335" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B335" t="s">
-        <v>326</v>
+        <v>571</v>
       </c>
       <c r="C335" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="D335" t="s">
-        <v>549</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F335" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E335" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F335" s="46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15.75">
       <c r="A336" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B336" t="s">
-        <v>352</v>
+        <v>571</v>
       </c>
       <c r="C336" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D336" t="s">
-        <v>563</v>
-      </c>
-      <c r="E336" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="F336" s="41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B337" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C337" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D337" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="E337" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F337" s="24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="B338" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C338" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D338" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="E338" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F338" s="24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E336" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F336" s="46" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15.75">
+      <c r="A337" t="s">
+        <v>374</v>
+      </c>
+      <c r="B337" t="s">
+        <v>571</v>
+      </c>
+      <c r="C337" t="s">
+        <v>365</v>
+      </c>
+      <c r="D337" t="s">
+        <v>568</v>
+      </c>
+      <c r="E337" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F337" s="46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15.75">
+      <c r="A338" t="s">
+        <v>375</v>
+      </c>
+      <c r="B338" t="s">
+        <v>571</v>
+      </c>
+      <c r="C338" t="s">
+        <v>365</v>
+      </c>
+      <c r="D338" t="s">
+        <v>568</v>
+      </c>
+      <c r="E338" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F338" s="46" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15.75">
       <c r="A339" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B339" t="s">
-        <v>326</v>
+        <v>571</v>
       </c>
       <c r="C339" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="D339" t="s">
-        <v>549</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F339" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E339" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F339" s="46" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="17.25">
       <c r="A340" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B340" t="s">
         <v>326</v>
@@ -8294,395 +8280,715 @@
       <c r="E340" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F340" s="31" t="s">
+      <c r="F340" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="17.25">
       <c r="A341" t="s">
+        <v>378</v>
+      </c>
+      <c r="B341" t="s">
+        <v>326</v>
+      </c>
+      <c r="C341" t="s">
+        <v>327</v>
+      </c>
+      <c r="D341" t="s">
+        <v>549</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F341" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="17.25">
+      <c r="A342" t="s">
+        <v>379</v>
+      </c>
+      <c r="B342" t="s">
+        <v>352</v>
+      </c>
+      <c r="C342" t="s">
+        <v>353</v>
+      </c>
+      <c r="D342" t="s">
+        <v>563</v>
+      </c>
+      <c r="E342" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="F342" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B343" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C343" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D343" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E343" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F343" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B344" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D344" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E344" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F344" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="17.25">
+      <c r="A345" t="s">
+        <v>384</v>
+      </c>
+      <c r="B345" t="s">
+        <v>326</v>
+      </c>
+      <c r="C345" t="s">
+        <v>327</v>
+      </c>
+      <c r="D345" t="s">
+        <v>549</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F345" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="17.25">
+      <c r="A346" t="s">
+        <v>385</v>
+      </c>
+      <c r="B346" t="s">
+        <v>326</v>
+      </c>
+      <c r="C346" t="s">
+        <v>327</v>
+      </c>
+      <c r="D346" t="s">
+        <v>549</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F346" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="17.25">
+      <c r="A347" t="s">
+        <v>386</v>
+      </c>
+      <c r="B347" t="s">
+        <v>352</v>
+      </c>
+      <c r="C347" t="s">
+        <v>353</v>
+      </c>
+      <c r="D347" t="s">
+        <v>563</v>
+      </c>
+      <c r="E347" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="F347" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B348" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C348" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D348" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E348" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F348" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D349" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E349" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F349" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="17.25">
+      <c r="A350" t="s">
+        <v>389</v>
+      </c>
+      <c r="B350" t="s">
+        <v>326</v>
+      </c>
+      <c r="C350" t="s">
+        <v>327</v>
+      </c>
+      <c r="D350" t="s">
+        <v>549</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F350" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="17.25">
+      <c r="A351" t="s">
+        <v>390</v>
+      </c>
+      <c r="B351" t="s">
+        <v>326</v>
+      </c>
+      <c r="C351" t="s">
+        <v>327</v>
+      </c>
+      <c r="D351" t="s">
+        <v>549</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F351" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="17.25">
+      <c r="A352" t="s">
+        <v>391</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+      <c r="C352" t="s">
+        <v>353</v>
+      </c>
+      <c r="D352" t="s">
+        <v>563</v>
+      </c>
+      <c r="E352" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="F352" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B353" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C353" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D353" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E353" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F353" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B354" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C354" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D354" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E354" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F354" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="17.25">
+      <c r="A355" t="s">
+        <v>394</v>
+      </c>
+      <c r="B355" t="s">
+        <v>326</v>
+      </c>
+      <c r="C355" t="s">
+        <v>327</v>
+      </c>
+      <c r="D355" t="s">
+        <v>549</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F355" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="17.25">
+      <c r="A356" t="s">
+        <v>395</v>
+      </c>
+      <c r="B356" t="s">
+        <v>326</v>
+      </c>
+      <c r="C356" t="s">
+        <v>327</v>
+      </c>
+      <c r="D356" t="s">
+        <v>549</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F356" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="17.25">
+      <c r="A357" t="s">
         <v>396</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B357" t="s">
         <v>352</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C357" t="s">
         <v>353</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D357" t="s">
         <v>563</v>
       </c>
-      <c r="E341" s="40" t="s">
+      <c r="E357" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F341" s="41" t="s">
+      <c r="F357" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="24" t="s">
+    <row r="358" spans="1:6">
+      <c r="A358" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="B342" s="24" t="s">
+      <c r="B358" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C342" s="24" t="s">
+      <c r="C358" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D342" s="24" t="s">
+      <c r="D358" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E342" s="24" t="s">
+      <c r="E358" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F342" s="24" t="s">
+      <c r="F358" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="24" t="s">
+    <row r="359" spans="1:6">
+      <c r="A359" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B343" s="24" t="s">
+      <c r="B359" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C343" s="24" t="s">
+      <c r="C359" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D343" s="24" t="s">
+      <c r="D359" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E343" s="24" t="s">
+      <c r="E359" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F343" s="24" t="s">
+      <c r="F359" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    <row r="360" spans="1:6" ht="17.25">
+      <c r="A360" t="s">
         <v>399</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B360" t="s">
         <v>400</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C360" t="s">
         <v>588</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D360" t="s">
         <v>586</v>
       </c>
-      <c r="E344" s="50" t="s">
+      <c r="E360" s="49" t="s">
         <v>587</v>
       </c>
-      <c r="F344" s="49" t="s">
+      <c r="F360" s="48" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
         <v>401</v>
       </c>
-      <c r="B345" s="20" t="s">
+      <c r="B361" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="C345" s="20" t="s">
+      <c r="C361" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
         <v>404</v>
       </c>
-      <c r="B346" s="20" t="s">
+      <c r="B362" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="C346" s="20" t="s">
+      <c r="C362" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
         <v>406</v>
       </c>
-      <c r="B347" s="20" t="s">
+      <c r="B363" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C347" s="20" t="s">
+      <c r="C363" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
         <v>408</v>
       </c>
-      <c r="B348" s="20" t="s">
+      <c r="B364" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C348" s="20" t="s">
+      <c r="C364" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
         <v>410</v>
       </c>
-      <c r="B349" s="20" t="s">
+      <c r="B365" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="C349" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>413</v>
-      </c>
-      <c r="B350" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C350" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>415</v>
-      </c>
-      <c r="B351" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="C351" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>417</v>
-      </c>
-      <c r="B352" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C352" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>419</v>
-      </c>
-      <c r="B353" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C353" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>421</v>
-      </c>
-      <c r="B354" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C354" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>422</v>
-      </c>
-      <c r="B355" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C355" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>423</v>
-      </c>
-      <c r="B356" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="C356" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>425</v>
-      </c>
-      <c r="B357" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="C357" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>426</v>
-      </c>
-      <c r="B358" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C358" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>427</v>
-      </c>
-      <c r="B359" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="C359" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>429</v>
-      </c>
-      <c r="B360" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C360" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>430</v>
-      </c>
-      <c r="B361" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="C361" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>432</v>
-      </c>
-      <c r="B362" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C362" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>433</v>
-      </c>
-      <c r="B363" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="C363" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>434</v>
-      </c>
-      <c r="B364" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C364" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>435</v>
-      </c>
-      <c r="B365" s="20" t="s">
-        <v>203</v>
       </c>
       <c r="C365" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C366" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>415</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C367" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>437</v>
-      </c>
-      <c r="B367" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C367" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="C369" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
+        <v>421</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C370" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>422</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>423</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>425</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C373" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>426</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C374" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>427</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>429</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>430</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C377" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>432</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>433</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C379" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>434</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C380" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>435</v>
+      </c>
+      <c r="B381" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C381" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>436</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C382" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>437</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C383" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>439</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C384" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>441</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C385" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
         <v>443</v>
       </c>
-      <c r="B370" s="20" t="s">
+      <c r="B386" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="C370" s="20" t="s">
+      <c r="C386" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
         <v>445</v>
       </c>
-      <c r="B371" s="20" t="s">
+      <c r="B387" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="C371" s="20" t="s">
+      <c r="C387" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
         <v>447</v>
       </c>
-      <c r="B372" s="20" t="s">
+      <c r="B388" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="C372" s="20" t="s">
+      <c r="C388" s="20" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8831,99 +9137,107 @@
     <hyperlink ref="F151" r:id="rId141" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F152" r:id="rId142" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F153" r:id="rId143" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
-    <hyperlink ref="F160" r:id="rId144"/>
-    <hyperlink ref="F161" r:id="rId145"/>
-    <hyperlink ref="F162" r:id="rId146"/>
-    <hyperlink ref="F163" r:id="rId147"/>
-    <hyperlink ref="F164" r:id="rId148"/>
-    <hyperlink ref="F165" r:id="rId149"/>
-    <hyperlink ref="F166" r:id="rId150"/>
-    <hyperlink ref="F167" r:id="rId151"/>
-    <hyperlink ref="F168" r:id="rId152"/>
-    <hyperlink ref="F169" r:id="rId153"/>
-    <hyperlink ref="F171" r:id="rId154"/>
-    <hyperlink ref="F172" r:id="rId155"/>
-    <hyperlink ref="F173" r:id="rId156"/>
-    <hyperlink ref="F174" r:id="rId157"/>
-    <hyperlink ref="F175" r:id="rId158"/>
-    <hyperlink ref="F176" r:id="rId159"/>
-    <hyperlink ref="F177" r:id="rId160"/>
-    <hyperlink ref="F288" r:id="rId161"/>
-    <hyperlink ref="F293" r:id="rId162"/>
-    <hyperlink ref="F290" r:id="rId163"/>
-    <hyperlink ref="F294" r:id="rId164"/>
-    <hyperlink ref="F295" r:id="rId165"/>
-    <hyperlink ref="F296" r:id="rId166"/>
-    <hyperlink ref="F297" r:id="rId167"/>
-    <hyperlink ref="F306" r:id="rId168"/>
-    <hyperlink ref="F308" r:id="rId169"/>
-    <hyperlink ref="F309" r:id="rId170"/>
-    <hyperlink ref="F311" r:id="rId171"/>
-    <hyperlink ref="F324" r:id="rId172"/>
-    <hyperlink ref="F325" r:id="rId173"/>
-    <hyperlink ref="F329" r:id="rId174"/>
-    <hyperlink ref="F330" r:id="rId175"/>
-    <hyperlink ref="F334" r:id="rId176"/>
-    <hyperlink ref="F335" r:id="rId177"/>
-    <hyperlink ref="F339" r:id="rId178"/>
-    <hyperlink ref="F340" r:id="rId179"/>
-    <hyperlink ref="F291" r:id="rId180"/>
-    <hyperlink ref="F292" r:id="rId181"/>
-    <hyperlink ref="F298" r:id="rId182"/>
-    <hyperlink ref="F299" r:id="rId183"/>
-    <hyperlink ref="F300" r:id="rId184"/>
-    <hyperlink ref="F301" r:id="rId185"/>
-    <hyperlink ref="F302" r:id="rId186"/>
-    <hyperlink ref="F303" r:id="rId187"/>
-    <hyperlink ref="F304" r:id="rId188"/>
-    <hyperlink ref="F326" r:id="rId189"/>
-    <hyperlink ref="F331" r:id="rId190"/>
-    <hyperlink ref="F336" r:id="rId191"/>
-    <hyperlink ref="F341" r:id="rId192"/>
-    <hyperlink ref="F305" r:id="rId193"/>
-    <hyperlink ref="F307" r:id="rId194"/>
-    <hyperlink ref="F310" r:id="rId195"/>
-    <hyperlink ref="F289" r:id="rId196"/>
-    <hyperlink ref="F312" r:id="rId197"/>
-    <hyperlink ref="F313" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F314" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F315" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F316" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F317" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F318" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F319" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F320" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F321" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F322" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F323" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F344" r:id="rId209"/>
-    <hyperlink ref="F170" r:id="rId210"/>
-    <hyperlink ref="F181" r:id="rId211"/>
+    <hyperlink ref="F168" r:id="rId144"/>
+    <hyperlink ref="F169" r:id="rId145"/>
+    <hyperlink ref="F170" r:id="rId146"/>
+    <hyperlink ref="F171" r:id="rId147"/>
+    <hyperlink ref="F172" r:id="rId148"/>
+    <hyperlink ref="F173" r:id="rId149"/>
+    <hyperlink ref="F174" r:id="rId150"/>
+    <hyperlink ref="F175" r:id="rId151"/>
+    <hyperlink ref="F176" r:id="rId152"/>
+    <hyperlink ref="F177" r:id="rId153"/>
+    <hyperlink ref="F179" r:id="rId154"/>
+    <hyperlink ref="F180" r:id="rId155"/>
+    <hyperlink ref="F181" r:id="rId156"/>
+    <hyperlink ref="F182" r:id="rId157"/>
+    <hyperlink ref="F183" r:id="rId158"/>
+    <hyperlink ref="F184" r:id="rId159"/>
+    <hyperlink ref="F185" r:id="rId160"/>
+    <hyperlink ref="F304" r:id="rId161"/>
+    <hyperlink ref="F309" r:id="rId162"/>
+    <hyperlink ref="F306" r:id="rId163"/>
+    <hyperlink ref="F310" r:id="rId164"/>
+    <hyperlink ref="F311" r:id="rId165"/>
+    <hyperlink ref="F312" r:id="rId166"/>
+    <hyperlink ref="F313" r:id="rId167"/>
+    <hyperlink ref="F322" r:id="rId168"/>
+    <hyperlink ref="F324" r:id="rId169"/>
+    <hyperlink ref="F325" r:id="rId170"/>
+    <hyperlink ref="F327" r:id="rId171"/>
+    <hyperlink ref="F340" r:id="rId172"/>
+    <hyperlink ref="F341" r:id="rId173"/>
+    <hyperlink ref="F345" r:id="rId174"/>
+    <hyperlink ref="F346" r:id="rId175"/>
+    <hyperlink ref="F350" r:id="rId176"/>
+    <hyperlink ref="F351" r:id="rId177"/>
+    <hyperlink ref="F355" r:id="rId178"/>
+    <hyperlink ref="F356" r:id="rId179"/>
+    <hyperlink ref="F307" r:id="rId180"/>
+    <hyperlink ref="F308" r:id="rId181"/>
+    <hyperlink ref="F314" r:id="rId182"/>
+    <hyperlink ref="F315" r:id="rId183"/>
+    <hyperlink ref="F316" r:id="rId184"/>
+    <hyperlink ref="F317" r:id="rId185"/>
+    <hyperlink ref="F318" r:id="rId186"/>
+    <hyperlink ref="F319" r:id="rId187"/>
+    <hyperlink ref="F320" r:id="rId188"/>
+    <hyperlink ref="F342" r:id="rId189"/>
+    <hyperlink ref="F347" r:id="rId190"/>
+    <hyperlink ref="F352" r:id="rId191"/>
+    <hyperlink ref="F357" r:id="rId192"/>
+    <hyperlink ref="F321" r:id="rId193"/>
+    <hyperlink ref="F323" r:id="rId194"/>
+    <hyperlink ref="F326" r:id="rId195"/>
+    <hyperlink ref="F305" r:id="rId196"/>
+    <hyperlink ref="F328" r:id="rId197"/>
+    <hyperlink ref="F329" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F330" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F331" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F332" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F333" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F334" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F335" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F336" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F337" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F338" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F339" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F360" r:id="rId209"/>
+    <hyperlink ref="F178" r:id="rId210"/>
+    <hyperlink ref="F189" r:id="rId211"/>
+    <hyperlink ref="F154" r:id="rId212" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F155" r:id="rId213" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F156" r:id="rId214" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F157" r:id="rId215" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F158" r:id="rId216" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F159" r:id="rId217" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F160" r:id="rId218" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F161" r:id="rId219" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId212"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId220"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Manufacturing/V2/XMP16-V2-BOM.xlsx
+++ b/Manufacturing/V2/XMP16-V2-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="12255" windowHeight="6045"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$388</definedName>
+    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$391</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="617">
   <si>
     <t>ref</t>
   </si>
@@ -1875,16 +1875,25 @@
   </si>
   <si>
     <t>R108</t>
+  </si>
+  <si>
+    <t>R109</t>
+  </si>
+  <si>
+    <t>R110</t>
+  </si>
+  <si>
+    <t>U58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2176,6 +2185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2210,6 +2220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2385,14 +2396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F388"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363:F363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -2400,7 +2411,7 @@
     <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="50" t="s">
         <v>452</v>
       </c>
@@ -2409,31 +2420,31 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
         <v>594</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="51"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>595</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2464,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25">
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2473,7 +2484,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25">
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2504,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25">
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2513,7 +2524,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25">
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25">
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2553,7 +2564,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25">
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2573,7 +2584,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25">
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2604,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" customHeight="1">
+    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2613,7 +2624,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25">
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2633,7 +2644,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25">
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2653,7 +2664,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25">
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25">
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2693,7 +2704,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25">
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2713,7 +2724,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25">
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2733,7 +2744,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25">
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2753,7 +2764,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25">
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2773,7 +2784,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25">
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2793,7 +2804,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25">
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2813,7 +2824,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25">
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2833,7 +2844,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25">
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2853,7 +2864,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25">
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25">
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25">
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2913,7 +2924,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25">
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -2933,7 +2944,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25">
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2953,7 +2964,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25">
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25">
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2993,7 +3004,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25">
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3013,7 +3024,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25">
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -3033,7 +3044,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25">
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3053,7 +3064,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25">
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -3073,7 +3084,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25">
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25">
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +3124,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25">
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -3133,7 +3144,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25">
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -3153,7 +3164,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25">
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25">
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -3193,7 +3204,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25">
+    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -3213,7 +3224,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25">
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -3233,7 +3244,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25">
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25">
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25">
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -3293,7 +3304,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25">
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3324,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25">
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -3333,7 +3344,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25">
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -3353,7 +3364,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25">
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -3373,7 +3384,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25">
+    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3393,7 +3404,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25">
+    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -3413,7 +3424,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25">
+    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3433,7 +3444,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25">
+    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -3453,7 +3464,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25">
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -3473,7 +3484,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25">
+    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -3493,7 +3504,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25">
+    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3513,7 +3524,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25">
+    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -3533,7 +3544,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25">
+    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25">
+    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -3573,7 +3584,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25">
+    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -3593,7 +3604,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25">
+    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25">
+    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -3633,7 +3644,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25">
+    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3653,7 +3664,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25">
+    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25">
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -3693,7 +3704,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25">
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -3713,7 +3724,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25">
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -3733,7 +3744,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25">
+    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25">
+    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3773,7 +3784,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25">
+    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -3793,7 +3804,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25">
+    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -3813,7 +3824,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25">
+    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25">
+    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -3853,7 +3864,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25">
+    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25">
+    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -3893,7 +3904,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25">
+    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -3913,7 +3924,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25">
+    <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -3933,7 +3944,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25">
+    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -3953,7 +3964,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25">
+    <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -3973,7 +3984,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25">
+    <row r="86" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -3993,7 +4004,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25">
+    <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25">
+    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -4033,7 +4044,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25">
+    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4053,7 +4064,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25">
+    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -4073,7 +4084,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25">
+    <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -4093,7 +4104,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25">
+    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -4113,7 +4124,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25">
+    <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -4133,7 +4144,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25">
+    <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4153,7 +4164,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25">
+    <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -4173,7 +4184,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25">
+    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -4193,7 +4204,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25">
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -4213,7 +4224,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25">
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -4233,7 +4244,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25">
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -4253,7 +4264,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25">
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -4273,7 +4284,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25">
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -4293,7 +4304,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25">
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -4313,7 +4324,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25">
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25">
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4353,7 +4364,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25">
+    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -4373,7 +4384,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25">
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25">
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -4413,7 +4424,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25">
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -4433,7 +4444,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25">
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -4453,7 +4464,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25">
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -4473,7 +4484,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25">
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -4493,7 +4504,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25">
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -4513,7 +4524,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25">
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25">
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -4553,7 +4564,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25">
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -4573,7 +4584,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25">
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -4593,7 +4604,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.25">
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -4613,7 +4624,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25">
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>111</v>
       </c>
@@ -4633,7 +4644,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25">
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -4653,7 +4664,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25">
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25">
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -4693,7 +4704,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.25">
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -4713,7 +4724,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.25">
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -4733,7 +4744,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.25">
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -4753,7 +4764,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.25">
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -4773,7 +4784,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.25">
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -4793,7 +4804,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.25">
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.25">
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -4833,7 +4844,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.25">
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -4853,7 +4864,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.25">
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -4873,7 +4884,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.25">
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -4893,7 +4904,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.25">
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -4913,7 +4924,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.25">
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -4933,7 +4944,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.25">
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -4953,7 +4964,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.25">
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -4973,7 +4984,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.25">
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -4993,7 +5004,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.25">
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -5013,7 +5024,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.25">
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -5033,7 +5044,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.25">
+    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -5053,7 +5064,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17.25">
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="17.25">
+    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -5093,7 +5104,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17.25">
+    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -5113,7 +5124,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17.25">
+    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -5133,7 +5144,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17.25">
+    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -5153,7 +5164,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="17.25">
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -5173,7 +5184,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="17.25">
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -5193,7 +5204,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="17.25">
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -5213,7 +5224,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="17.25">
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -5233,7 +5244,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="17.25">
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -5253,7 +5264,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="17.25">
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -5273,7 +5284,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="17.25">
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -5293,7 +5304,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="17.25">
+    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -5313,7 +5324,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="17.25">
+    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -5333,7 +5344,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="17.25">
+    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>597</v>
       </c>
@@ -5353,7 +5364,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="17.25">
+    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>598</v>
       </c>
@@ -5373,7 +5384,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="17.25">
+    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>599</v>
       </c>
@@ -5393,7 +5404,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="17.25">
+    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>600</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="17.25">
+    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>601</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="17.25">
+    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>602</v>
       </c>
@@ -5453,7 +5464,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="17.25">
+    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>603</v>
       </c>
@@ -5473,7 +5484,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="17.25">
+    <row r="161" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>604</v>
       </c>
@@ -5493,7 +5504,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
         <v>149</v>
       </c>
@@ -5504,7 +5515,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="20" t="s">
         <v>152</v>
       </c>
@@ -5515,7 +5526,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="20" t="s">
         <v>153</v>
       </c>
@@ -5526,7 +5537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
         <v>154</v>
       </c>
@@ -5537,7 +5548,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="20" t="s">
         <v>155</v>
       </c>
@@ -5548,7 +5559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="20" t="s">
         <v>156</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="17.25">
+    <row r="168" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>157</v>
       </c>
@@ -5579,7 +5590,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="17.25">
+    <row r="169" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="17.25">
+    <row r="170" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>162</v>
       </c>
@@ -5619,7 +5630,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="17.25">
+    <row r="171" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -5639,7 +5650,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="17.25">
+    <row r="172" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>164</v>
       </c>
@@ -5659,7 +5670,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="17.25">
+    <row r="173" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -5679,7 +5690,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="17.25">
+    <row r="174" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>166</v>
       </c>
@@ -5699,7 +5710,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="17.25">
+    <row r="175" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="17.25">
+    <row r="176" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -5739,7 +5750,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="17.25">
+    <row r="177" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -5759,7 +5770,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="17.25">
+    <row r="178" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -5779,7 +5790,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="17.25">
+    <row r="179" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -5799,7 +5810,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="17.25">
+    <row r="180" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="17.25">
+    <row r="181" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -5839,7 +5850,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="17.25">
+    <row r="182" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -5859,7 +5870,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="17.25">
+    <row r="183" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -5879,7 +5890,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="17.25">
+    <row r="184" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -5899,7 +5910,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17.25">
+    <row r="185" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -5919,7 +5930,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -5930,7 +5941,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -5941,7 +5952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -5952,7 +5963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="17.25">
+    <row r="189" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -5983,7 +5994,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -5994,7 +6005,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -6005,7 +6016,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -6016,7 +6027,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -6027,7 +6038,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>205</v>
       </c>
@@ -6038,7 +6049,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>206</v>
       </c>
@@ -6052,7 +6063,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>208</v>
       </c>
@@ -6066,7 +6077,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -6080,7 +6091,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -6094,7 +6105,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -6108,7 +6119,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -6122,7 +6133,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -6136,7 +6147,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>220</v>
       </c>
@@ -6150,7 +6161,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>222</v>
       </c>
@@ -6164,7 +6175,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>223</v>
       </c>
@@ -6178,7 +6189,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>224</v>
       </c>
@@ -6192,7 +6203,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>225</v>
       </c>
@@ -6206,7 +6217,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -6220,7 +6231,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>227</v>
       </c>
@@ -6234,7 +6245,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>228</v>
       </c>
@@ -6248,7 +6259,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>229</v>
       </c>
@@ -6262,7 +6273,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -6276,7 +6287,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>231</v>
       </c>
@@ -6290,7 +6301,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>233</v>
       </c>
@@ -6304,7 +6315,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>234</v>
       </c>
@@ -6318,7 +6329,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>235</v>
       </c>
@@ -6332,7 +6343,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>236</v>
       </c>
@@ -6346,7 +6357,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>237</v>
       </c>
@@ -6360,7 +6371,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>238</v>
       </c>
@@ -6374,7 +6385,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>239</v>
       </c>
@@ -6388,7 +6399,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>240</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>241</v>
       </c>
@@ -6416,7 +6427,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>243</v>
       </c>
@@ -6430,7 +6441,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -6444,7 +6455,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>245</v>
       </c>
@@ -6458,7 +6469,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>246</v>
       </c>
@@ -6472,7 +6483,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>247</v>
       </c>
@@ -6486,7 +6497,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>248</v>
       </c>
@@ -6500,7 +6511,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>249</v>
       </c>
@@ -6514,7 +6525,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -6528,7 +6539,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>251</v>
       </c>
@@ -6542,7 +6553,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -6556,7 +6567,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -6570,7 +6581,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>254</v>
       </c>
@@ -6584,7 +6595,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>255</v>
       </c>
@@ -6598,7 +6609,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>256</v>
       </c>
@@ -6612,7 +6623,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>257</v>
       </c>
@@ -6626,7 +6637,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -6640,7 +6651,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -6654,7 +6665,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>262</v>
       </c>
@@ -6668,7 +6679,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>263</v>
       </c>
@@ -6682,7 +6693,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>264</v>
       </c>
@@ -6696,7 +6707,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>265</v>
       </c>
@@ -6710,7 +6721,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -6724,7 +6735,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -6738,7 +6749,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -6752,7 +6763,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -6766,7 +6777,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -6780,7 +6791,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -6794,7 +6805,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -6808,7 +6819,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -6822,7 +6833,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -6836,7 +6847,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -6864,7 +6875,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -6878,7 +6889,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -6892,7 +6903,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -6906,7 +6917,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -6920,7 +6931,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -6934,7 +6945,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -6948,7 +6959,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -6962,7 +6973,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -6976,7 +6987,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -6990,7 +7001,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -7004,7 +7015,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -7018,7 +7029,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -7046,7 +7057,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -7060,7 +7071,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -7074,7 +7085,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -7088,7 +7099,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -7102,7 +7113,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -7116,7 +7127,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -7130,7 +7141,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -7144,7 +7155,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -7158,7 +7169,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -7172,7 +7183,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -7186,7 +7197,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -7200,7 +7211,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -7214,7 +7225,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -7228,7 +7239,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -7242,7 +7253,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -7256,7 +7267,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -7270,7 +7281,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>307</v>
       </c>
@@ -7284,7 +7295,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>308</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>309</v>
       </c>
@@ -7312,7 +7323,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>310</v>
       </c>
@@ -7326,7 +7337,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>311</v>
       </c>
@@ -7340,7 +7351,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>313</v>
       </c>
@@ -7354,7 +7365,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>314</v>
       </c>
@@ -7368,7 +7379,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>317</v>
       </c>
@@ -7382,7 +7393,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>318</v>
       </c>
@@ -7396,7 +7407,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>319</v>
       </c>
@@ -7410,7 +7421,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>320</v>
       </c>
@@ -7424,7 +7435,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -7438,7 +7449,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>606</v>
       </c>
@@ -7452,7 +7463,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>607</v>
       </c>
@@ -7466,7 +7477,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>608</v>
       </c>
@@ -7480,7 +7491,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>609</v>
       </c>
@@ -7494,7 +7505,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>610</v>
       </c>
@@ -7508,7 +7519,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>611</v>
       </c>
@@ -7522,7 +7533,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>612</v>
       </c>
@@ -7536,7 +7547,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>613</v>
       </c>
@@ -7550,163 +7561,151 @@
         <v>541</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="17.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>614</v>
+      </c>
+      <c r="B304" t="s">
+        <v>211</v>
+      </c>
+      <c r="C304" t="s">
+        <v>212</v>
+      </c>
+      <c r="E304" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>615</v>
+      </c>
+      <c r="B305" t="s">
+        <v>211</v>
+      </c>
+      <c r="C305" t="s">
+        <v>212</v>
+      </c>
+      <c r="E305" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>322</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B306" t="s">
         <v>542</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C306" t="s">
         <v>324</v>
       </c>
-      <c r="E304" s="25" t="s">
+      <c r="E306" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="F304" s="26" t="s">
+      <c r="F306" s="26" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="17.25">
-      <c r="A305" t="s">
+    <row r="307" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>325</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B307" t="s">
         <v>326</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C307" t="s">
         <v>327</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D307" t="s">
         <v>549</v>
       </c>
-      <c r="E305" s="3" t="s">
+      <c r="E307" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F305" s="43" t="s">
+      <c r="F307" s="43" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="17.25">
-      <c r="A306" t="s">
+    <row r="308" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>328</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B308" t="s">
         <v>329</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C308" t="s">
         <v>330</v>
       </c>
-      <c r="E306" s="29" t="s">
+      <c r="E308" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="F306" s="31" t="s">
+      <c r="F308" s="31" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75">
-      <c r="A307" t="s">
+    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>331</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B309" t="s">
         <v>332</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C309" t="s">
         <v>333</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D309" t="s">
         <v>552</v>
       </c>
-      <c r="E307" s="32" t="s">
+      <c r="E309" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="F307" s="33" t="s">
+      <c r="F309" s="33" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="17.25">
-      <c r="A308" t="s">
+    <row r="310" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>334</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B310" t="s">
         <v>335</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C310" t="s">
         <v>336</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D310" t="s">
         <v>555</v>
       </c>
-      <c r="E308" s="34" t="s">
+      <c r="E310" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="F308" s="35" t="s">
+      <c r="F310" s="35" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="17.25">
-      <c r="A309" t="s">
+    <row r="311" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>337</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B311" t="s">
         <v>323</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C311" t="s">
         <v>324</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D311" t="s">
         <v>556</v>
       </c>
-      <c r="E309" s="27" t="s">
+      <c r="E311" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="F309" s="28" t="s">
+      <c r="F311" s="28" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="17.25">
-      <c r="A310" t="s">
+    <row r="312" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>338</v>
-      </c>
-      <c r="B310" t="s">
-        <v>326</v>
-      </c>
-      <c r="C310" t="s">
-        <v>327</v>
-      </c>
-      <c r="D310" t="s">
-        <v>549</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F310" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="17.25">
-      <c r="A311" t="s">
-        <v>339</v>
-      </c>
-      <c r="B311" t="s">
-        <v>326</v>
-      </c>
-      <c r="C311" t="s">
-        <v>327</v>
-      </c>
-      <c r="D311" t="s">
-        <v>549</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F311" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" ht="17.25">
-      <c r="A312" t="s">
-        <v>340</v>
       </c>
       <c r="B312" t="s">
         <v>326</v>
@@ -7724,9 +7723,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="17.25">
+    <row r="313" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B313" t="s">
         <v>326</v>
@@ -7744,69 +7743,69 @@
         <v>547</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="17.25">
+    <row r="314" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B314" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C314" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D314" t="s">
-        <v>487</v>
-      </c>
-      <c r="E314" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="F314" s="38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" ht="17.25">
+        <v>549</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F314" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B315" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C315" t="s">
         <v>327</v>
       </c>
       <c r="D315" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F315" s="37" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" ht="17.25">
+        <v>548</v>
+      </c>
+      <c r="F315" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B316" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C316" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D316" t="s">
-        <v>555</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F316" s="37" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" ht="17.25">
+        <v>487</v>
+      </c>
+      <c r="E316" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="F316" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B317" t="s">
         <v>346</v>
@@ -7824,9 +7823,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="17.25">
+    <row r="318" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B318" t="s">
         <v>346</v>
@@ -7844,109 +7843,109 @@
         <v>560</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="17.25">
+    <row r="319" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C319" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D319" t="s">
         <v>555</v>
       </c>
-      <c r="E319" s="36" t="s">
+      <c r="E319" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F319" s="37" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>349</v>
+      </c>
+      <c r="B320" t="s">
+        <v>346</v>
+      </c>
+      <c r="C320" t="s">
+        <v>327</v>
+      </c>
+      <c r="D320" t="s">
+        <v>555</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F320" s="37" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>350</v>
+      </c>
+      <c r="B321" t="s">
+        <v>335</v>
+      </c>
+      <c r="C321" t="s">
+        <v>336</v>
+      </c>
+      <c r="D321" t="s">
+        <v>555</v>
+      </c>
+      <c r="E321" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="F319" s="38" t="s">
+      <c r="F321" s="38" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="17.25">
-      <c r="A320" t="s">
+    <row r="322" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>351</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B322" t="s">
         <v>352</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C322" t="s">
         <v>353</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D322" t="s">
         <v>563</v>
       </c>
-      <c r="E320" s="39" t="s">
+      <c r="E322" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F320" s="40" t="s">
+      <c r="F322" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="17.25">
-      <c r="A321" t="s">
+    <row r="323" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>354</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B323" t="s">
         <v>355</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C323" t="s">
         <v>356</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D323" t="s">
         <v>565</v>
       </c>
-      <c r="E321" s="41" t="s">
+      <c r="E323" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="F321" s="42" t="s">
+      <c r="F323" s="42" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="17.25">
-      <c r="A322" t="s">
+    <row r="324" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>357</v>
-      </c>
-      <c r="B322" t="s">
-        <v>326</v>
-      </c>
-      <c r="C322" t="s">
-        <v>327</v>
-      </c>
-      <c r="D322" t="s">
-        <v>549</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F322" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" ht="17.25">
-      <c r="A323" t="s">
-        <v>358</v>
-      </c>
-      <c r="B323" t="s">
-        <v>359</v>
-      </c>
-      <c r="C323" t="s">
-        <v>327</v>
-      </c>
-      <c r="D323" t="s">
-        <v>549</v>
-      </c>
-      <c r="E323" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="F323" s="45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" ht="17.25">
-      <c r="A324" t="s">
-        <v>360</v>
       </c>
       <c r="B324" t="s">
         <v>326</v>
@@ -7964,12 +7963,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="17.25">
+    <row r="325" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C325" t="s">
         <v>327</v>
@@ -7977,19 +7976,19 @@
       <c r="D325" t="s">
         <v>549</v>
       </c>
-      <c r="E325" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F325" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="17.25">
+      <c r="E325" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F325" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B326" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C326" t="s">
         <v>327</v>
@@ -7997,16 +7996,16 @@
       <c r="D326" t="s">
         <v>549</v>
       </c>
-      <c r="E326" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="F326" s="45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="17.25">
+      <c r="E326" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F326" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B327" t="s">
         <v>326</v>
@@ -8024,49 +8023,49 @@
         <v>547</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15.75">
+    <row r="328" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>362</v>
+      </c>
+      <c r="B328" t="s">
+        <v>359</v>
+      </c>
+      <c r="C328" t="s">
+        <v>327</v>
+      </c>
+      <c r="D328" t="s">
+        <v>549</v>
+      </c>
+      <c r="E328" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F328" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>363</v>
+      </c>
+      <c r="B329" t="s">
+        <v>326</v>
+      </c>
+      <c r="C329" t="s">
+        <v>327</v>
+      </c>
+      <c r="D329" t="s">
+        <v>549</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F329" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>364</v>
-      </c>
-      <c r="B328" t="s">
-        <v>571</v>
-      </c>
-      <c r="C328" t="s">
-        <v>365</v>
-      </c>
-      <c r="D328" t="s">
-        <v>568</v>
-      </c>
-      <c r="E328" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F328" s="46" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" ht="15.75">
-      <c r="A329" t="s">
-        <v>366</v>
-      </c>
-      <c r="B329" t="s">
-        <v>571</v>
-      </c>
-      <c r="C329" t="s">
-        <v>365</v>
-      </c>
-      <c r="D329" t="s">
-        <v>568</v>
-      </c>
-      <c r="E329" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F329" s="46" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="15.75">
-      <c r="A330" t="s">
-        <v>367</v>
       </c>
       <c r="B330" t="s">
         <v>571</v>
@@ -8081,12 +8080,12 @@
         <v>569</v>
       </c>
       <c r="F330" s="46" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="15.75">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B331" t="s">
         <v>571</v>
@@ -8101,12 +8100,12 @@
         <v>569</v>
       </c>
       <c r="F331" s="46" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="15.75">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B332" t="s">
         <v>571</v>
@@ -8121,12 +8120,12 @@
         <v>569</v>
       </c>
       <c r="F332" s="46" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="15.75">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B333" t="s">
         <v>571</v>
@@ -8141,12 +8140,12 @@
         <v>569</v>
       </c>
       <c r="F333" s="46" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="15.75">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B334" t="s">
         <v>571</v>
@@ -8161,12 +8160,12 @@
         <v>569</v>
       </c>
       <c r="F334" s="46" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="15.75">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B335" t="s">
         <v>571</v>
@@ -8181,12 +8180,12 @@
         <v>569</v>
       </c>
       <c r="F335" s="46" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="15.75">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B336" t="s">
         <v>571</v>
@@ -8201,12 +8200,12 @@
         <v>569</v>
       </c>
       <c r="F336" s="46" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" ht="15.75">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B337" t="s">
         <v>571</v>
@@ -8221,12 +8220,12 @@
         <v>569</v>
       </c>
       <c r="F337" s="46" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" ht="15.75">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B338" t="s">
         <v>571</v>
@@ -8241,12 +8240,12 @@
         <v>569</v>
       </c>
       <c r="F338" s="46" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="15.75">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B339" t="s">
         <v>571</v>
@@ -8261,542 +8260,569 @@
         <v>569</v>
       </c>
       <c r="F339" s="46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>375</v>
+      </c>
+      <c r="B340" t="s">
+        <v>571</v>
+      </c>
+      <c r="C340" t="s">
+        <v>365</v>
+      </c>
+      <c r="D340" t="s">
+        <v>568</v>
+      </c>
+      <c r="E340" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F340" s="46" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>376</v>
+      </c>
+      <c r="B341" t="s">
+        <v>571</v>
+      </c>
+      <c r="C341" t="s">
+        <v>365</v>
+      </c>
+      <c r="D341" t="s">
+        <v>568</v>
+      </c>
+      <c r="E341" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F341" s="46" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="17.25">
-      <c r="A340" t="s">
+    <row r="342" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>377</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B342" t="s">
         <v>326</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C342" t="s">
         <v>327</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D342" t="s">
         <v>549</v>
       </c>
-      <c r="E340" s="3" t="s">
+      <c r="E342" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F340" s="30" t="s">
+      <c r="F342" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="17.25">
-      <c r="A341" t="s">
+    <row r="343" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>378</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B343" t="s">
         <v>326</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C343" t="s">
         <v>327</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D343" t="s">
         <v>549</v>
       </c>
-      <c r="E341" s="3" t="s">
+      <c r="E343" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F341" s="30" t="s">
+      <c r="F343" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="17.25">
-      <c r="A342" t="s">
+    <row r="344" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>379</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B344" t="s">
         <v>352</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C344" t="s">
         <v>353</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D344" t="s">
         <v>563</v>
       </c>
-      <c r="E342" s="39" t="s">
+      <c r="E344" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F342" s="40" t="s">
+      <c r="F344" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="23" t="s">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="B343" s="23" t="s">
+      <c r="B345" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C343" s="23" t="s">
+      <c r="C345" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D343" s="23" t="s">
+      <c r="D345" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E343" s="23" t="s">
+      <c r="E345" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F343" s="23" t="s">
+      <c r="F345" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="23" t="s">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B344" s="23" t="s">
+      <c r="B346" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C344" s="23" t="s">
+      <c r="C346" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D344" s="23" t="s">
+      <c r="D346" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E344" s="23" t="s">
+      <c r="E346" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F344" s="23" t="s">
+      <c r="F346" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="17.25">
-      <c r="A345" t="s">
+    <row r="347" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>384</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B347" t="s">
         <v>326</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C347" t="s">
         <v>327</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D347" t="s">
         <v>549</v>
       </c>
-      <c r="E345" s="3" t="s">
+      <c r="E347" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F345" s="30" t="s">
+      <c r="F347" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="17.25">
-      <c r="A346" t="s">
+    <row r="348" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>385</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B348" t="s">
         <v>326</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C348" t="s">
         <v>327</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D348" t="s">
         <v>549</v>
       </c>
-      <c r="E346" s="3" t="s">
+      <c r="E348" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F346" s="30" t="s">
+      <c r="F348" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="17.25">
-      <c r="A347" t="s">
+    <row r="349" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>386</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B349" t="s">
         <v>352</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C349" t="s">
         <v>353</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D349" t="s">
         <v>563</v>
       </c>
-      <c r="E347" s="39" t="s">
+      <c r="E349" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F347" s="40" t="s">
+      <c r="F349" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="23" t="s">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B348" s="23" t="s">
+      <c r="B350" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C348" s="23" t="s">
+      <c r="C350" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D348" s="23" t="s">
+      <c r="D350" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E348" s="23" t="s">
+      <c r="E350" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F348" s="23" t="s">
+      <c r="F350" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="23" t="s">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B349" s="23" t="s">
+      <c r="B351" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C349" s="23" t="s">
+      <c r="C351" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D349" s="23" t="s">
+      <c r="D351" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E349" s="23" t="s">
+      <c r="E351" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F349" s="23" t="s">
+      <c r="F351" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="17.25">
-      <c r="A350" t="s">
+    <row r="352" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>389</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B352" t="s">
         <v>326</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C352" t="s">
         <v>327</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D352" t="s">
         <v>549</v>
       </c>
-      <c r="E350" s="3" t="s">
+      <c r="E352" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F350" s="30" t="s">
+      <c r="F352" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="17.25">
-      <c r="A351" t="s">
+    <row r="353" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>390</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B353" t="s">
         <v>326</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C353" t="s">
         <v>327</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D353" t="s">
         <v>549</v>
       </c>
-      <c r="E351" s="3" t="s">
+      <c r="E353" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F351" s="30" t="s">
+      <c r="F353" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="17.25">
-      <c r="A352" t="s">
+    <row r="354" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>391</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B354" t="s">
         <v>352</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C354" t="s">
         <v>353</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D354" t="s">
         <v>563</v>
       </c>
-      <c r="E352" s="39" t="s">
+      <c r="E354" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F352" s="40" t="s">
+      <c r="F354" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="23" t="s">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B353" s="23" t="s">
+      <c r="B355" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C353" s="23" t="s">
+      <c r="C355" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D353" s="23" t="s">
+      <c r="D355" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E353" s="23" t="s">
+      <c r="E355" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F353" s="23" t="s">
+      <c r="F355" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="23" t="s">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B354" s="23" t="s">
+      <c r="B356" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C354" s="23" t="s">
+      <c r="C356" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D354" s="23" t="s">
+      <c r="D356" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E354" s="23" t="s">
+      <c r="E356" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F354" s="23" t="s">
+      <c r="F356" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="17.25">
-      <c r="A355" t="s">
+    <row r="357" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>394</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B357" t="s">
         <v>326</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C357" t="s">
         <v>327</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D357" t="s">
         <v>549</v>
       </c>
-      <c r="E355" s="3" t="s">
+      <c r="E357" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F355" s="30" t="s">
+      <c r="F357" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="17.25">
-      <c r="A356" t="s">
+    <row r="358" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>395</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B358" t="s">
         <v>326</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C358" t="s">
         <v>327</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D358" t="s">
         <v>549</v>
       </c>
-      <c r="E356" s="3" t="s">
+      <c r="E358" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F356" s="30" t="s">
+      <c r="F358" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="17.25">
-      <c r="A357" t="s">
+    <row r="359" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>396</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B359" t="s">
         <v>352</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C359" t="s">
         <v>353</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D359" t="s">
         <v>563</v>
       </c>
-      <c r="E357" s="39" t="s">
+      <c r="E359" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F357" s="40" t="s">
+      <c r="F359" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="23" t="s">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="B358" s="23" t="s">
+      <c r="B360" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C358" s="23" t="s">
+      <c r="C360" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D358" s="23" t="s">
+      <c r="D360" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E358" s="23" t="s">
+      <c r="E360" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F358" s="23" t="s">
+      <c r="F360" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="23" t="s">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B359" s="23" t="s">
+      <c r="B361" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C359" s="23" t="s">
+      <c r="C361" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D359" s="23" t="s">
+      <c r="D361" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E359" s="23" t="s">
+      <c r="E361" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F359" s="23" t="s">
+      <c r="F361" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="17.25">
-      <c r="A360" t="s">
+    <row r="362" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>399</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B362" t="s">
         <v>400</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C362" t="s">
         <v>588</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D362" t="s">
         <v>586</v>
       </c>
-      <c r="E360" s="49" t="s">
+      <c r="E362" s="49" t="s">
         <v>587</v>
       </c>
-      <c r="F360" s="48" t="s">
+      <c r="F362" s="48" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
-      <c r="A361" t="s">
+    <row r="363" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>616</v>
+      </c>
+      <c r="B363" t="s">
+        <v>326</v>
+      </c>
+      <c r="C363" t="s">
+        <v>327</v>
+      </c>
+      <c r="D363" t="s">
+        <v>549</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F363" s="48" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>401</v>
       </c>
-      <c r="B361" s="20" t="s">
+      <c r="B364" s="20" t="s">
         <v>402</v>
-      </c>
-      <c r="C361" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" t="s">
-        <v>404</v>
-      </c>
-      <c r="B362" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C362" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" t="s">
-        <v>406</v>
-      </c>
-      <c r="B363" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="C363" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" t="s">
-        <v>408</v>
-      </c>
-      <c r="B364" s="20" t="s">
-        <v>409</v>
       </c>
       <c r="C364" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C365" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C366" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C368" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C369" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C370" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B371" s="20" t="s">
         <v>418</v>
@@ -8805,108 +8831,108 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C373" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C374" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C375" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="C376" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C377" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B378" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>429</v>
+      </c>
+      <c r="B379" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="C378" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" t="s">
-        <v>433</v>
-      </c>
-      <c r="B379" s="20" t="s">
-        <v>411</v>
       </c>
       <c r="C379" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>203</v>
+        <v>431</v>
       </c>
       <c r="C380" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B381" s="20" t="s">
         <v>203</v>
@@ -8915,80 +8941,113 @@
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C382" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>434</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C383" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>435</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C384" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>436</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C385" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>437</v>
       </c>
-      <c r="B383" s="20" t="s">
+      <c r="B386" s="20" t="s">
         <v>438</v>
-      </c>
-      <c r="C383" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" t="s">
-        <v>439</v>
-      </c>
-      <c r="B384" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="C384" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385" t="s">
-        <v>441</v>
-      </c>
-      <c r="B385" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="C385" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" t="s">
-        <v>443</v>
-      </c>
-      <c r="B386" s="20" t="s">
-        <v>444</v>
       </c>
       <c r="C386" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C387" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>441</v>
+      </c>
+      <c r="B388" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C388" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>443</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C389" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>445</v>
+      </c>
+      <c r="B390" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C390" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>447</v>
       </c>
-      <c r="B388" s="20" t="s">
+      <c r="B391" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="C388" s="20" t="s">
+      <c r="C391" s="20" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9154,55 +9213,55 @@
     <hyperlink ref="F183" r:id="rId158"/>
     <hyperlink ref="F184" r:id="rId159"/>
     <hyperlink ref="F185" r:id="rId160"/>
-    <hyperlink ref="F304" r:id="rId161"/>
-    <hyperlink ref="F309" r:id="rId162"/>
-    <hyperlink ref="F306" r:id="rId163"/>
-    <hyperlink ref="F310" r:id="rId164"/>
-    <hyperlink ref="F311" r:id="rId165"/>
-    <hyperlink ref="F312" r:id="rId166"/>
-    <hyperlink ref="F313" r:id="rId167"/>
-    <hyperlink ref="F322" r:id="rId168"/>
-    <hyperlink ref="F324" r:id="rId169"/>
-    <hyperlink ref="F325" r:id="rId170"/>
-    <hyperlink ref="F327" r:id="rId171"/>
-    <hyperlink ref="F340" r:id="rId172"/>
-    <hyperlink ref="F341" r:id="rId173"/>
-    <hyperlink ref="F345" r:id="rId174"/>
-    <hyperlink ref="F346" r:id="rId175"/>
-    <hyperlink ref="F350" r:id="rId176"/>
-    <hyperlink ref="F351" r:id="rId177"/>
-    <hyperlink ref="F355" r:id="rId178"/>
-    <hyperlink ref="F356" r:id="rId179"/>
-    <hyperlink ref="F307" r:id="rId180"/>
-    <hyperlink ref="F308" r:id="rId181"/>
-    <hyperlink ref="F314" r:id="rId182"/>
-    <hyperlink ref="F315" r:id="rId183"/>
-    <hyperlink ref="F316" r:id="rId184"/>
-    <hyperlink ref="F317" r:id="rId185"/>
-    <hyperlink ref="F318" r:id="rId186"/>
-    <hyperlink ref="F319" r:id="rId187"/>
-    <hyperlink ref="F320" r:id="rId188"/>
-    <hyperlink ref="F342" r:id="rId189"/>
-    <hyperlink ref="F347" r:id="rId190"/>
-    <hyperlink ref="F352" r:id="rId191"/>
-    <hyperlink ref="F357" r:id="rId192"/>
-    <hyperlink ref="F321" r:id="rId193"/>
-    <hyperlink ref="F323" r:id="rId194"/>
-    <hyperlink ref="F326" r:id="rId195"/>
-    <hyperlink ref="F305" r:id="rId196"/>
-    <hyperlink ref="F328" r:id="rId197"/>
-    <hyperlink ref="F329" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F330" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F331" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F332" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F333" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F334" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F335" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F336" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F337" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F338" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F339" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F360" r:id="rId209"/>
+    <hyperlink ref="F306" r:id="rId161"/>
+    <hyperlink ref="F311" r:id="rId162"/>
+    <hyperlink ref="F308" r:id="rId163"/>
+    <hyperlink ref="F312" r:id="rId164"/>
+    <hyperlink ref="F313" r:id="rId165"/>
+    <hyperlink ref="F314" r:id="rId166"/>
+    <hyperlink ref="F315" r:id="rId167"/>
+    <hyperlink ref="F324" r:id="rId168"/>
+    <hyperlink ref="F326" r:id="rId169"/>
+    <hyperlink ref="F327" r:id="rId170"/>
+    <hyperlink ref="F329" r:id="rId171"/>
+    <hyperlink ref="F342" r:id="rId172"/>
+    <hyperlink ref="F343" r:id="rId173"/>
+    <hyperlink ref="F347" r:id="rId174"/>
+    <hyperlink ref="F348" r:id="rId175"/>
+    <hyperlink ref="F352" r:id="rId176"/>
+    <hyperlink ref="F353" r:id="rId177"/>
+    <hyperlink ref="F357" r:id="rId178"/>
+    <hyperlink ref="F358" r:id="rId179"/>
+    <hyperlink ref="F309" r:id="rId180"/>
+    <hyperlink ref="F310" r:id="rId181"/>
+    <hyperlink ref="F316" r:id="rId182"/>
+    <hyperlink ref="F317" r:id="rId183"/>
+    <hyperlink ref="F318" r:id="rId184"/>
+    <hyperlink ref="F319" r:id="rId185"/>
+    <hyperlink ref="F320" r:id="rId186"/>
+    <hyperlink ref="F321" r:id="rId187"/>
+    <hyperlink ref="F322" r:id="rId188"/>
+    <hyperlink ref="F344" r:id="rId189"/>
+    <hyperlink ref="F349" r:id="rId190"/>
+    <hyperlink ref="F354" r:id="rId191"/>
+    <hyperlink ref="F359" r:id="rId192"/>
+    <hyperlink ref="F323" r:id="rId193"/>
+    <hyperlink ref="F325" r:id="rId194"/>
+    <hyperlink ref="F328" r:id="rId195"/>
+    <hyperlink ref="F307" r:id="rId196"/>
+    <hyperlink ref="F330" r:id="rId197"/>
+    <hyperlink ref="F331" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F332" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F333" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F334" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F335" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F336" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F337" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F338" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F339" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F340" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F341" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F362" r:id="rId209"/>
     <hyperlink ref="F178" r:id="rId210"/>
     <hyperlink ref="F189" r:id="rId211"/>
     <hyperlink ref="F154" r:id="rId212" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
@@ -9213,31 +9272,32 @@
     <hyperlink ref="F159" r:id="rId217" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F160" r:id="rId218" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F161" r:id="rId219" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
+    <hyperlink ref="F363" r:id="rId220"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId220"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId221"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Manufacturing/V2/XMP16-V2-BOM.xlsx
+++ b/Manufacturing/V2/XMP16-V2-BOM.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$391</definedName>
+    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$395</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="625">
   <si>
     <t>ref</t>
   </si>
@@ -1884,6 +1884,30 @@
   </si>
   <si>
     <t>U58</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>BL_3V3</t>
+  </si>
+  <si>
+    <t>BR_3V3</t>
+  </si>
+  <si>
+    <t>RST_BR</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>B_CLK_EN</t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363:F363"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,66 +6075,54 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>206</v>
-      </c>
-      <c r="B196" t="s">
-        <v>207</v>
-      </c>
-      <c r="C196" t="s">
-        <v>212</v>
-      </c>
-      <c r="E196" s="24" t="s">
-        <v>541</v>
+        <v>617</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>208</v>
-      </c>
-      <c r="B197" t="s">
-        <v>209</v>
-      </c>
-      <c r="C197" t="s">
-        <v>212</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>541</v>
+        <v>618</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>210</v>
-      </c>
-      <c r="B198" t="s">
-        <v>211</v>
-      </c>
-      <c r="C198" t="s">
-        <v>212</v>
-      </c>
-      <c r="E198" s="24" t="s">
-        <v>541</v>
+        <v>619</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>213</v>
-      </c>
-      <c r="B199" t="s">
-        <v>211</v>
-      </c>
-      <c r="C199" t="s">
-        <v>212</v>
-      </c>
-      <c r="E199" s="24" t="s">
-        <v>541</v>
+        <v>623</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C200" t="s">
         <v>212</v>
@@ -6121,10 +6133,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C201" t="s">
         <v>212</v>
@@ -6135,10 +6147,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C202" t="s">
         <v>212</v>
@@ -6149,10 +6161,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B203" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s">
         <v>212</v>
@@ -6163,10 +6175,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C204" t="s">
         <v>212</v>
@@ -6177,10 +6189,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -6191,10 +6203,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C206" t="s">
         <v>212</v>
@@ -6205,10 +6217,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C207" t="s">
         <v>212</v>
@@ -6219,7 +6231,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s">
         <v>211</v>
@@ -6233,7 +6245,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B209" t="s">
         <v>211</v>
@@ -6247,7 +6259,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -6261,7 +6273,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
@@ -6275,10 +6287,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
         <v>212</v>
@@ -6289,10 +6301,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B213" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C213" t="s">
         <v>212</v>
@@ -6303,10 +6315,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C214" t="s">
         <v>212</v>
@@ -6317,10 +6329,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C215" t="s">
         <v>212</v>
@@ -6331,7 +6343,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B216" t="s">
         <v>221</v>
@@ -6345,10 +6357,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C217" t="s">
         <v>212</v>
@@ -6359,10 +6371,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
         <v>212</v>
@@ -6373,7 +6385,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B219" t="s">
         <v>221</v>
@@ -6387,10 +6399,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B220" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
         <v>212</v>
@@ -6401,10 +6413,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B221" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C221" t="s">
         <v>212</v>
@@ -6415,10 +6427,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B222" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C222" t="s">
         <v>212</v>
@@ -6429,10 +6441,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B223" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C223" t="s">
         <v>212</v>
@@ -6443,7 +6455,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B224" t="s">
         <v>211</v>
@@ -6457,7 +6469,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B225" t="s">
         <v>211</v>
@@ -6471,10 +6483,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B226" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
         <v>212</v>
@@ -6485,10 +6497,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C227" t="s">
         <v>212</v>
@@ -6499,7 +6511,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B228" t="s">
         <v>211</v>
@@ -6513,7 +6525,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s">
         <v>211</v>
@@ -6527,7 +6539,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B230" t="s">
         <v>211</v>
@@ -6541,7 +6553,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B231" t="s">
         <v>211</v>
@@ -6555,7 +6567,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B232" t="s">
         <v>211</v>
@@ -6569,7 +6581,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B233" t="s">
         <v>211</v>
@@ -6583,7 +6595,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B234" t="s">
         <v>211</v>
@@ -6597,7 +6609,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B235" t="s">
         <v>211</v>
@@ -6611,7 +6623,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B236" t="s">
         <v>211</v>
@@ -6625,10 +6637,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B237" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="C237" t="s">
         <v>212</v>
@@ -6639,10 +6651,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B238" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C238" t="s">
         <v>212</v>
@@ -6653,10 +6665,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B239" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C239" t="s">
         <v>212</v>
@@ -6667,10 +6679,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B240" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C240" t="s">
         <v>212</v>
@@ -6681,10 +6693,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B241" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C241" t="s">
         <v>212</v>
@@ -6695,10 +6707,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B242" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C242" t="s">
         <v>212</v>
@@ -6709,10 +6721,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B243" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C243" t="s">
         <v>212</v>
@@ -6723,7 +6735,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B244" t="s">
         <v>261</v>
@@ -6737,7 +6749,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B245" t="s">
         <v>261</v>
@@ -6751,7 +6763,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B246" t="s">
         <v>261</v>
@@ -6765,10 +6777,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B247" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C247" t="s">
         <v>212</v>
@@ -6779,10 +6791,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B248" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C248" t="s">
         <v>212</v>
@@ -6793,10 +6805,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B249" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C249" t="s">
         <v>212</v>
@@ -6807,10 +6819,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B250" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C250" t="s">
         <v>212</v>
@@ -6821,10 +6833,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B251" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="C251" t="s">
         <v>212</v>
@@ -6835,10 +6847,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C252" t="s">
         <v>212</v>
@@ -6849,10 +6861,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B253" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C253" t="s">
         <v>212</v>
@@ -6863,10 +6875,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B254" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
         <v>212</v>
@@ -6877,10 +6889,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B255" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C255" t="s">
         <v>212</v>
@@ -6891,10 +6903,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B256" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C256" t="s">
         <v>212</v>
@@ -6905,7 +6917,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B257" t="s">
         <v>261</v>
@@ -6919,7 +6931,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B258" t="s">
         <v>261</v>
@@ -6933,7 +6945,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B259" t="s">
         <v>261</v>
@@ -6947,10 +6959,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C260" t="s">
         <v>212</v>
@@ -6961,10 +6973,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B261" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C261" t="s">
         <v>212</v>
@@ -6975,10 +6987,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B262" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C262" t="s">
         <v>212</v>
@@ -6989,10 +7001,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C263" t="s">
         <v>212</v>
@@ -7003,10 +7015,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B264" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="C264" t="s">
         <v>212</v>
@@ -7017,10 +7029,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B265" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C265" t="s">
         <v>212</v>
@@ -7031,10 +7043,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B266" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C266" t="s">
         <v>212</v>
@@ -7045,10 +7057,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C267" t="s">
         <v>212</v>
@@ -7059,10 +7071,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B268" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C268" t="s">
         <v>212</v>
@@ -7073,10 +7085,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C269" t="s">
         <v>212</v>
@@ -7087,7 +7099,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B270" t="s">
         <v>261</v>
@@ -7101,7 +7113,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B271" t="s">
         <v>261</v>
@@ -7115,7 +7127,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B272" t="s">
         <v>261</v>
@@ -7129,10 +7141,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B273" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C273" t="s">
         <v>212</v>
@@ -7143,10 +7155,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B274" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C274" t="s">
         <v>212</v>
@@ -7157,10 +7169,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B275" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C275" t="s">
         <v>212</v>
@@ -7171,10 +7183,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B276" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C276" t="s">
         <v>212</v>
@@ -7185,10 +7197,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B277" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="C277" t="s">
         <v>212</v>
@@ -7199,10 +7211,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B278" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C278" t="s">
         <v>212</v>
@@ -7213,10 +7225,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B279" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C279" t="s">
         <v>212</v>
@@ -7227,10 +7239,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B280" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C280" t="s">
         <v>212</v>
@@ -7241,10 +7253,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B281" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C281" t="s">
         <v>212</v>
@@ -7255,10 +7267,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B282" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C282" t="s">
         <v>212</v>
@@ -7269,7 +7281,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B283" t="s">
         <v>261</v>
@@ -7283,7 +7295,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B284" t="s">
         <v>261</v>
@@ -7297,7 +7309,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B285" t="s">
         <v>261</v>
@@ -7311,10 +7323,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B286" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C286" t="s">
         <v>212</v>
@@ -7325,10 +7337,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B287" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C287" t="s">
         <v>212</v>
@@ -7339,10 +7351,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B288" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="C288" t="s">
         <v>212</v>
@@ -7353,7 +7365,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B289" t="s">
         <v>261</v>
@@ -7367,13 +7379,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B290" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C290" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="E290" s="24" t="s">
         <v>541</v>
@@ -7381,13 +7393,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B291" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="C291" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="E291" s="24" t="s">
         <v>541</v>
@@ -7395,13 +7407,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B292" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C292" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="E292" s="24" t="s">
         <v>541</v>
@@ -7409,13 +7421,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B293" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C293" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="E293" s="24" t="s">
         <v>541</v>
@@ -7423,7 +7435,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B294" t="s">
         <v>315</v>
@@ -7437,13 +7449,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B295" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C295" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="E295" s="24" t="s">
         <v>541</v>
@@ -7451,63 +7463,63 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>606</v>
+        <v>318</v>
       </c>
       <c r="B296" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C296" t="s">
-        <v>212</v>
-      </c>
-      <c r="E296" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E296" s="24" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>607</v>
+        <v>319</v>
       </c>
       <c r="B297" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C297" t="s">
-        <v>212</v>
-      </c>
-      <c r="E297" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E297" s="24" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>608</v>
+        <v>320</v>
       </c>
       <c r="B298" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C298" t="s">
-        <v>212</v>
-      </c>
-      <c r="E298" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E298" s="24" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>609</v>
+        <v>321</v>
       </c>
       <c r="B299" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C299" t="s">
         <v>212</v>
       </c>
-      <c r="E299" s="41" t="s">
+      <c r="E299" s="24" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B300" t="s">
         <v>261</v>
@@ -7521,7 +7533,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B301" t="s">
         <v>261</v>
@@ -7535,7 +7547,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B302" t="s">
         <v>261</v>
@@ -7549,7 +7561,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B303" t="s">
         <v>261</v>
@@ -7563,10 +7575,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B304" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C304" t="s">
         <v>212</v>
@@ -7577,458 +7589,434 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>611</v>
+      </c>
+      <c r="B305" t="s">
+        <v>261</v>
+      </c>
+      <c r="C305" t="s">
+        <v>212</v>
+      </c>
+      <c r="E305" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>612</v>
+      </c>
+      <c r="B306" t="s">
+        <v>261</v>
+      </c>
+      <c r="C306" t="s">
+        <v>212</v>
+      </c>
+      <c r="E306" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>613</v>
+      </c>
+      <c r="B307" t="s">
+        <v>261</v>
+      </c>
+      <c r="C307" t="s">
+        <v>212</v>
+      </c>
+      <c r="E307" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" t="s">
+        <v>211</v>
+      </c>
+      <c r="C308" t="s">
+        <v>212</v>
+      </c>
+      <c r="E308" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>615</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B309" t="s">
         <v>211</v>
       </c>
-      <c r="C305" t="s">
-        <v>212</v>
-      </c>
-      <c r="E305" s="41" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>322</v>
-      </c>
-      <c r="B306" t="s">
-        <v>542</v>
-      </c>
-      <c r="C306" t="s">
-        <v>324</v>
-      </c>
-      <c r="E306" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="F306" s="26" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>325</v>
-      </c>
-      <c r="B307" t="s">
-        <v>326</v>
-      </c>
-      <c r="C307" t="s">
-        <v>327</v>
-      </c>
-      <c r="D307" t="s">
-        <v>549</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F307" s="43" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>328</v>
-      </c>
-      <c r="B308" t="s">
-        <v>329</v>
-      </c>
-      <c r="C308" t="s">
-        <v>330</v>
-      </c>
-      <c r="E308" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="F308" s="31" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>331</v>
-      </c>
-      <c r="B309" t="s">
-        <v>332</v>
-      </c>
       <c r="C309" t="s">
-        <v>333</v>
-      </c>
-      <c r="D309" t="s">
-        <v>552</v>
-      </c>
-      <c r="E309" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="F309" s="33" t="s">
-        <v>551</v>
+        <v>212</v>
+      </c>
+      <c r="E309" s="41" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B310" t="s">
-        <v>335</v>
+        <v>542</v>
       </c>
       <c r="C310" t="s">
-        <v>336</v>
-      </c>
-      <c r="D310" t="s">
-        <v>555</v>
-      </c>
-      <c r="E310" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="F310" s="35" t="s">
-        <v>554</v>
+        <v>324</v>
+      </c>
+      <c r="E310" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="F310" s="26" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B311" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C311" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D311" t="s">
-        <v>556</v>
-      </c>
-      <c r="E311" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="F311" s="28" t="s">
-        <v>544</v>
+        <v>549</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F311" s="43" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B312" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C312" t="s">
-        <v>327</v>
-      </c>
-      <c r="D312" t="s">
-        <v>549</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F312" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="E312" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="F312" s="31" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B313" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C313" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D313" t="s">
-        <v>549</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F313" s="30" t="s">
-        <v>547</v>
+        <v>552</v>
+      </c>
+      <c r="E313" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="F313" s="33" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B314" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C314" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D314" t="s">
-        <v>549</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F314" s="30" t="s">
-        <v>547</v>
+        <v>555</v>
+      </c>
+      <c r="E314" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="F314" s="35" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B315" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C315" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D315" t="s">
-        <v>549</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F315" s="30" t="s">
-        <v>547</v>
+        <v>556</v>
+      </c>
+      <c r="E315" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="F315" s="28" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B316" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C316" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D316" t="s">
-        <v>487</v>
-      </c>
-      <c r="E316" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="F316" s="38" t="s">
-        <v>558</v>
+        <v>549</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F316" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B317" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C317" t="s">
         <v>327</v>
       </c>
       <c r="D317" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F317" s="37" t="s">
-        <v>560</v>
+        <v>548</v>
+      </c>
+      <c r="F317" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B318" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C318" t="s">
         <v>327</v>
       </c>
       <c r="D318" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F318" s="37" t="s">
-        <v>560</v>
+        <v>548</v>
+      </c>
+      <c r="F318" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B319" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C319" t="s">
         <v>327</v>
       </c>
       <c r="D319" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F319" s="37" t="s">
-        <v>560</v>
+        <v>548</v>
+      </c>
+      <c r="F319" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B320" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C320" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D320" t="s">
-        <v>555</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F320" s="37" t="s">
-        <v>560</v>
+        <v>487</v>
+      </c>
+      <c r="E320" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="F320" s="38" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B321" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C321" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D321" t="s">
         <v>555</v>
       </c>
-      <c r="E321" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="F321" s="38" t="s">
-        <v>554</v>
+      <c r="E321" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F321" s="37" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B322" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C322" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D322" t="s">
-        <v>563</v>
-      </c>
-      <c r="E322" s="39" t="s">
-        <v>561</v>
-      </c>
-      <c r="F322" s="40" t="s">
-        <v>562</v>
+        <v>555</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F322" s="37" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B323" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C323" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="D323" t="s">
-        <v>565</v>
-      </c>
-      <c r="E323" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="F323" s="42" t="s">
-        <v>564</v>
+        <v>555</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F323" s="37" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B324" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C324" t="s">
         <v>327</v>
       </c>
       <c r="D324" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F324" s="30" t="s">
-        <v>547</v>
+        <v>559</v>
+      </c>
+      <c r="F324" s="37" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B325" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C325" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D325" t="s">
-        <v>549</v>
-      </c>
-      <c r="E325" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="F325" s="45" t="s">
-        <v>567</v>
+        <v>555</v>
+      </c>
+      <c r="E325" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="F325" s="38" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B326" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C326" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D326" t="s">
-        <v>549</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F326" s="30" t="s">
-        <v>547</v>
+        <v>563</v>
+      </c>
+      <c r="E326" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="F326" s="40" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="C327" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="D327" t="s">
-        <v>549</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F327" s="30" t="s">
-        <v>547</v>
+        <v>565</v>
+      </c>
+      <c r="E327" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F327" s="42" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B328" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C328" t="s">
         <v>327</v>
@@ -8036,19 +8024,19 @@
       <c r="D328" t="s">
         <v>549</v>
       </c>
-      <c r="E328" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="F328" s="45" t="s">
-        <v>567</v>
+      <c r="E328" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F328" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B329" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C329" t="s">
         <v>327</v>
@@ -8056,96 +8044,96 @@
       <c r="D329" t="s">
         <v>549</v>
       </c>
-      <c r="E329" s="3" t="s">
+      <c r="E329" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F329" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>360</v>
+      </c>
+      <c r="B330" t="s">
+        <v>326</v>
+      </c>
+      <c r="C330" t="s">
+        <v>327</v>
+      </c>
+      <c r="D330" t="s">
+        <v>549</v>
+      </c>
+      <c r="E330" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F329" s="30" t="s">
+      <c r="F330" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>364</v>
-      </c>
-      <c r="B330" t="s">
-        <v>571</v>
-      </c>
-      <c r="C330" t="s">
-        <v>365</v>
-      </c>
-      <c r="D330" t="s">
-        <v>568</v>
-      </c>
-      <c r="E330" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F330" s="46" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B331" t="s">
-        <v>571</v>
+        <v>326</v>
       </c>
       <c r="C331" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D331" t="s">
-        <v>568</v>
-      </c>
-      <c r="E331" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F331" s="46" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F331" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B332" t="s">
-        <v>571</v>
+        <v>359</v>
       </c>
       <c r="C332" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D332" t="s">
-        <v>568</v>
-      </c>
-      <c r="E332" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F332" s="46" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="E332" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F332" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B333" t="s">
-        <v>571</v>
+        <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D333" t="s">
-        <v>568</v>
-      </c>
-      <c r="E333" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F333" s="46" t="s">
-        <v>574</v>
+        <v>549</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F333" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B334" t="s">
         <v>571</v>
@@ -8160,12 +8148,12 @@
         <v>569</v>
       </c>
       <c r="F334" s="46" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B335" t="s">
         <v>571</v>
@@ -8180,12 +8168,12 @@
         <v>569</v>
       </c>
       <c r="F335" s="46" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B336" t="s">
         <v>571</v>
@@ -8200,12 +8188,12 @@
         <v>569</v>
       </c>
       <c r="F336" s="46" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B337" t="s">
         <v>571</v>
@@ -8220,12 +8208,12 @@
         <v>569</v>
       </c>
       <c r="F337" s="46" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B338" t="s">
         <v>571</v>
@@ -8240,12 +8228,12 @@
         <v>569</v>
       </c>
       <c r="F338" s="46" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B339" t="s">
         <v>571</v>
@@ -8260,12 +8248,12 @@
         <v>569</v>
       </c>
       <c r="F339" s="46" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B340" t="s">
         <v>571</v>
@@ -8280,12 +8268,12 @@
         <v>569</v>
       </c>
       <c r="F340" s="46" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B341" t="s">
         <v>571</v>
@@ -8300,112 +8288,112 @@
         <v>569</v>
       </c>
       <c r="F341" s="46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>373</v>
+      </c>
+      <c r="B342" t="s">
+        <v>571</v>
+      </c>
+      <c r="C342" t="s">
+        <v>365</v>
+      </c>
+      <c r="D342" t="s">
+        <v>568</v>
+      </c>
+      <c r="E342" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F342" s="46" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>374</v>
+      </c>
+      <c r="B343" t="s">
+        <v>571</v>
+      </c>
+      <c r="C343" t="s">
+        <v>365</v>
+      </c>
+      <c r="D343" t="s">
+        <v>568</v>
+      </c>
+      <c r="E343" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F343" s="46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>375</v>
+      </c>
+      <c r="B344" t="s">
+        <v>571</v>
+      </c>
+      <c r="C344" t="s">
+        <v>365</v>
+      </c>
+      <c r="D344" t="s">
+        <v>568</v>
+      </c>
+      <c r="E344" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F344" s="46" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>376</v>
+      </c>
+      <c r="B345" t="s">
+        <v>571</v>
+      </c>
+      <c r="C345" t="s">
+        <v>365</v>
+      </c>
+      <c r="D345" t="s">
+        <v>568</v>
+      </c>
+      <c r="E345" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F345" s="46" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+    <row r="346" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>377</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B346" t="s">
         <v>326</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C346" t="s">
         <v>327</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D346" t="s">
         <v>549</v>
       </c>
-      <c r="E342" s="3" t="s">
+      <c r="E346" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F342" s="30" t="s">
+      <c r="F346" s="30" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>378</v>
-      </c>
-      <c r="B343" t="s">
-        <v>326</v>
-      </c>
-      <c r="C343" t="s">
-        <v>327</v>
-      </c>
-      <c r="D343" t="s">
-        <v>549</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F343" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>379</v>
-      </c>
-      <c r="B344" t="s">
-        <v>352</v>
-      </c>
-      <c r="C344" t="s">
-        <v>353</v>
-      </c>
-      <c r="D344" t="s">
-        <v>563</v>
-      </c>
-      <c r="E344" s="39" t="s">
-        <v>561</v>
-      </c>
-      <c r="F344" s="40" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B345" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C345" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D345" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E345" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F345" s="23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="B346" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C346" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D346" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E346" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F346" s="23" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B347" t="s">
         <v>326</v>
@@ -8425,47 +8413,47 @@
     </row>
     <row r="348" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B348" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C348" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D348" t="s">
-        <v>549</v>
-      </c>
-      <c r="E348" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F348" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>386</v>
-      </c>
-      <c r="B349" t="s">
-        <v>352</v>
-      </c>
-      <c r="C349" t="s">
-        <v>353</v>
-      </c>
-      <c r="D349" t="s">
         <v>563</v>
       </c>
-      <c r="E349" s="39" t="s">
+      <c r="E348" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F349" s="40" t="s">
+      <c r="F348" s="40" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D349" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E349" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F349" s="23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B350" s="23" t="s">
         <v>381</v>
@@ -8483,29 +8471,29 @@
         <v>584</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B351" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C351" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D351" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E351" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F351" s="23" t="s">
-        <v>584</v>
+    <row r="351" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>384</v>
+      </c>
+      <c r="B351" t="s">
+        <v>326</v>
+      </c>
+      <c r="C351" t="s">
+        <v>327</v>
+      </c>
+      <c r="D351" t="s">
+        <v>549</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F351" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B352" t="s">
         <v>326</v>
@@ -8525,47 +8513,47 @@
     </row>
     <row r="353" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B353" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C353" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D353" t="s">
-        <v>549</v>
-      </c>
-      <c r="E353" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F353" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>391</v>
-      </c>
-      <c r="B354" t="s">
-        <v>352</v>
-      </c>
-      <c r="C354" t="s">
-        <v>353</v>
-      </c>
-      <c r="D354" t="s">
         <v>563</v>
       </c>
-      <c r="E354" s="39" t="s">
+      <c r="E353" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F354" s="40" t="s">
+      <c r="F353" s="40" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B354" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C354" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D354" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E354" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F354" s="23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B355" s="23" t="s">
         <v>381</v>
@@ -8583,29 +8571,29 @@
         <v>584</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="B356" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C356" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D356" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E356" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F356" s="23" t="s">
-        <v>584</v>
+    <row r="356" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>389</v>
+      </c>
+      <c r="B356" t="s">
+        <v>326</v>
+      </c>
+      <c r="C356" t="s">
+        <v>327</v>
+      </c>
+      <c r="D356" t="s">
+        <v>549</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F356" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B357" t="s">
         <v>326</v>
@@ -8625,47 +8613,47 @@
     </row>
     <row r="358" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B358" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C358" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D358" t="s">
-        <v>549</v>
-      </c>
-      <c r="E358" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F358" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>396</v>
-      </c>
-      <c r="B359" t="s">
-        <v>352</v>
-      </c>
-      <c r="C359" t="s">
-        <v>353</v>
-      </c>
-      <c r="D359" t="s">
         <v>563</v>
       </c>
-      <c r="E359" s="39" t="s">
+      <c r="E358" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F359" s="40" t="s">
+      <c r="F358" s="40" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B359" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C359" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D359" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E359" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F359" s="23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B360" s="23" t="s">
         <v>381</v>
@@ -8683,127 +8671,163 @@
         <v>584</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="B361" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C361" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D361" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E361" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F361" s="23" t="s">
-        <v>584</v>
+    <row r="361" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>394</v>
+      </c>
+      <c r="B361" t="s">
+        <v>326</v>
+      </c>
+      <c r="C361" t="s">
+        <v>327</v>
+      </c>
+      <c r="D361" t="s">
+        <v>549</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F361" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B362" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="C362" t="s">
-        <v>588</v>
+        <v>327</v>
       </c>
       <c r="D362" t="s">
-        <v>586</v>
-      </c>
-      <c r="E362" s="49" t="s">
-        <v>587</v>
-      </c>
-      <c r="F362" s="48" t="s">
-        <v>585</v>
+        <v>549</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F362" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
+        <v>396</v>
+      </c>
+      <c r="B363" t="s">
+        <v>352</v>
+      </c>
+      <c r="C363" t="s">
+        <v>353</v>
+      </c>
+      <c r="D363" t="s">
+        <v>563</v>
+      </c>
+      <c r="E363" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="F363" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="B364" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C364" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D364" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E364" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F364" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B365" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C365" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D365" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E365" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F365" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>399</v>
+      </c>
+      <c r="B366" t="s">
+        <v>400</v>
+      </c>
+      <c r="C366" t="s">
+        <v>588</v>
+      </c>
+      <c r="D366" t="s">
+        <v>586</v>
+      </c>
+      <c r="E366" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="F366" s="48" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>616</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B367" t="s">
         <v>326</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C367" t="s">
         <v>327</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D367" t="s">
         <v>549</v>
       </c>
-      <c r="E363" s="3" t="s">
+      <c r="E367" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F363" s="48" t="s">
+      <c r="F367" s="48" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>401</v>
-      </c>
-      <c r="B364" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C364" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>404</v>
-      </c>
-      <c r="B365" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C365" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>406</v>
-      </c>
-      <c r="B366" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="C366" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>408</v>
-      </c>
-      <c r="B367" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C367" s="20" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C369" s="20" t="s">
         <v>403</v>
@@ -8811,54 +8835,54 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C370" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C371" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C374" s="20" t="s">
         <v>412</v>
@@ -8866,10 +8890,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C375" s="20" t="s">
         <v>412</v>
@@ -8877,21 +8901,21 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C376" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C377" s="20" t="s">
         <v>412</v>
@@ -8899,21 +8923,21 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C378" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="C379" s="20" t="s">
         <v>412</v>
@@ -8921,10 +8945,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C380" s="20" t="s">
         <v>412</v>
@@ -8932,10 +8956,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>203</v>
+        <v>420</v>
       </c>
       <c r="C381" s="20" t="s">
         <v>412</v>
@@ -8943,18 +8967,18 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C382" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B383" s="20" t="s">
         <v>203</v>
@@ -8965,10 +8989,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>203</v>
+        <v>431</v>
       </c>
       <c r="C384" s="20" t="s">
         <v>412</v>
@@ -8976,10 +9000,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="C385" s="20" t="s">
         <v>412</v>
@@ -8987,54 +9011,54 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C386" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>442</v>
+        <v>203</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C390" s="20" t="s">
         <v>403</v>
@@ -9042,12 +9066,56 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>439</v>
+      </c>
+      <c r="B391" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C391" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>441</v>
+      </c>
+      <c r="B392" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C392" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>443</v>
+      </c>
+      <c r="B393" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C393" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>445</v>
+      </c>
+      <c r="B394" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C394" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>447</v>
       </c>
-      <c r="B391" s="20" t="s">
+      <c r="B395" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="C391" s="20" t="s">
+      <c r="C395" s="20" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9213,55 +9281,55 @@
     <hyperlink ref="F183" r:id="rId158"/>
     <hyperlink ref="F184" r:id="rId159"/>
     <hyperlink ref="F185" r:id="rId160"/>
-    <hyperlink ref="F306" r:id="rId161"/>
-    <hyperlink ref="F311" r:id="rId162"/>
-    <hyperlink ref="F308" r:id="rId163"/>
-    <hyperlink ref="F312" r:id="rId164"/>
-    <hyperlink ref="F313" r:id="rId165"/>
-    <hyperlink ref="F314" r:id="rId166"/>
-    <hyperlink ref="F315" r:id="rId167"/>
-    <hyperlink ref="F324" r:id="rId168"/>
-    <hyperlink ref="F326" r:id="rId169"/>
-    <hyperlink ref="F327" r:id="rId170"/>
-    <hyperlink ref="F329" r:id="rId171"/>
-    <hyperlink ref="F342" r:id="rId172"/>
-    <hyperlink ref="F343" r:id="rId173"/>
-    <hyperlink ref="F347" r:id="rId174"/>
-    <hyperlink ref="F348" r:id="rId175"/>
-    <hyperlink ref="F352" r:id="rId176"/>
-    <hyperlink ref="F353" r:id="rId177"/>
-    <hyperlink ref="F357" r:id="rId178"/>
-    <hyperlink ref="F358" r:id="rId179"/>
-    <hyperlink ref="F309" r:id="rId180"/>
-    <hyperlink ref="F310" r:id="rId181"/>
-    <hyperlink ref="F316" r:id="rId182"/>
-    <hyperlink ref="F317" r:id="rId183"/>
-    <hyperlink ref="F318" r:id="rId184"/>
-    <hyperlink ref="F319" r:id="rId185"/>
-    <hyperlink ref="F320" r:id="rId186"/>
-    <hyperlink ref="F321" r:id="rId187"/>
-    <hyperlink ref="F322" r:id="rId188"/>
-    <hyperlink ref="F344" r:id="rId189"/>
-    <hyperlink ref="F349" r:id="rId190"/>
-    <hyperlink ref="F354" r:id="rId191"/>
-    <hyperlink ref="F359" r:id="rId192"/>
-    <hyperlink ref="F323" r:id="rId193"/>
-    <hyperlink ref="F325" r:id="rId194"/>
-    <hyperlink ref="F328" r:id="rId195"/>
-    <hyperlink ref="F307" r:id="rId196"/>
-    <hyperlink ref="F330" r:id="rId197"/>
-    <hyperlink ref="F331" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F332" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F333" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F334" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F335" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F336" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F337" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F338" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F339" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F340" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F341" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F362" r:id="rId209"/>
+    <hyperlink ref="F310" r:id="rId161"/>
+    <hyperlink ref="F315" r:id="rId162"/>
+    <hyperlink ref="F312" r:id="rId163"/>
+    <hyperlink ref="F316" r:id="rId164"/>
+    <hyperlink ref="F317" r:id="rId165"/>
+    <hyperlink ref="F318" r:id="rId166"/>
+    <hyperlink ref="F319" r:id="rId167"/>
+    <hyperlink ref="F328" r:id="rId168"/>
+    <hyperlink ref="F330" r:id="rId169"/>
+    <hyperlink ref="F331" r:id="rId170"/>
+    <hyperlink ref="F333" r:id="rId171"/>
+    <hyperlink ref="F346" r:id="rId172"/>
+    <hyperlink ref="F347" r:id="rId173"/>
+    <hyperlink ref="F351" r:id="rId174"/>
+    <hyperlink ref="F352" r:id="rId175"/>
+    <hyperlink ref="F356" r:id="rId176"/>
+    <hyperlink ref="F357" r:id="rId177"/>
+    <hyperlink ref="F361" r:id="rId178"/>
+    <hyperlink ref="F362" r:id="rId179"/>
+    <hyperlink ref="F313" r:id="rId180"/>
+    <hyperlink ref="F314" r:id="rId181"/>
+    <hyperlink ref="F320" r:id="rId182"/>
+    <hyperlink ref="F321" r:id="rId183"/>
+    <hyperlink ref="F322" r:id="rId184"/>
+    <hyperlink ref="F323" r:id="rId185"/>
+    <hyperlink ref="F324" r:id="rId186"/>
+    <hyperlink ref="F325" r:id="rId187"/>
+    <hyperlink ref="F326" r:id="rId188"/>
+    <hyperlink ref="F348" r:id="rId189"/>
+    <hyperlink ref="F353" r:id="rId190"/>
+    <hyperlink ref="F358" r:id="rId191"/>
+    <hyperlink ref="F363" r:id="rId192"/>
+    <hyperlink ref="F327" r:id="rId193"/>
+    <hyperlink ref="F329" r:id="rId194"/>
+    <hyperlink ref="F332" r:id="rId195"/>
+    <hyperlink ref="F311" r:id="rId196"/>
+    <hyperlink ref="F334" r:id="rId197"/>
+    <hyperlink ref="F335" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F336" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F337" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F338" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F339" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F340" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F341" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F342" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F343" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F344" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F345" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F366" r:id="rId209"/>
     <hyperlink ref="F178" r:id="rId210"/>
     <hyperlink ref="F189" r:id="rId211"/>
     <hyperlink ref="F154" r:id="rId212" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
@@ -9272,7 +9340,7 @@
     <hyperlink ref="F159" r:id="rId217" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F160" r:id="rId218" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F161" r:id="rId219" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
-    <hyperlink ref="F363" r:id="rId220"/>
+    <hyperlink ref="F367" r:id="rId220"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId221"/>

--- a/Manufacturing/V2/XMP16-V2-BOM.xlsx
+++ b/Manufacturing/V2/XMP16-V2-BOM.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$395</definedName>
+    <definedName name="XMP16_03" localSheetId="0">Sheet1!$A$9:$C$397</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="629">
   <si>
     <t>ref</t>
   </si>
@@ -1908,6 +1908,18 @@
   </si>
   <si>
     <t>B_CLK_EN</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>BL_CLK</t>
+  </si>
+  <si>
+    <t>PIN_ARRAY_1x1</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F395"/>
+  <dimension ref="A1:F397"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6119,38 +6131,32 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>206</v>
-      </c>
-      <c r="B200" t="s">
-        <v>207</v>
-      </c>
-      <c r="C200" t="s">
-        <v>212</v>
-      </c>
-      <c r="E200" s="24" t="s">
-        <v>541</v>
+        <v>625</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>208</v>
-      </c>
-      <c r="B201" t="s">
-        <v>209</v>
-      </c>
-      <c r="C201" t="s">
-        <v>212</v>
-      </c>
-      <c r="E201" s="24" t="s">
-        <v>541</v>
+        <v>626</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s">
         <v>212</v>
@@ -6161,10 +6167,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C203" t="s">
         <v>212</v>
@@ -6175,10 +6181,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C204" t="s">
         <v>212</v>
@@ -6189,10 +6195,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -6203,10 +6209,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C206" t="s">
         <v>212</v>
@@ -6217,10 +6223,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B207" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C207" t="s">
         <v>212</v>
@@ -6231,10 +6237,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C208" t="s">
         <v>212</v>
@@ -6245,10 +6251,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C209" t="s">
         <v>212</v>
@@ -6259,7 +6265,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -6273,7 +6279,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
@@ -6287,7 +6293,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B212" t="s">
         <v>211</v>
@@ -6301,7 +6307,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B213" t="s">
         <v>211</v>
@@ -6315,7 +6321,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B214" t="s">
         <v>211</v>
@@ -6329,7 +6335,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B215" t="s">
         <v>211</v>
@@ -6343,10 +6349,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B216" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C216" t="s">
         <v>212</v>
@@ -6357,10 +6363,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B217" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C217" t="s">
         <v>212</v>
@@ -6371,10 +6377,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
         <v>212</v>
@@ -6385,10 +6391,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C219" t="s">
         <v>212</v>
@@ -6399,10 +6405,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C220" t="s">
         <v>212</v>
@@ -6413,7 +6419,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
@@ -6427,7 +6433,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
@@ -6441,7 +6447,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B223" t="s">
         <v>221</v>
@@ -6455,10 +6461,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B224" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C224" t="s">
         <v>212</v>
@@ -6469,10 +6475,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B225" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C225" t="s">
         <v>212</v>
@@ -6483,10 +6489,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C226" t="s">
         <v>212</v>
@@ -6497,10 +6503,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B227" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C227" t="s">
         <v>212</v>
@@ -6511,10 +6517,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B228" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C228" t="s">
         <v>212</v>
@@ -6525,10 +6531,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B229" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C229" t="s">
         <v>212</v>
@@ -6539,7 +6545,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B230" t="s">
         <v>211</v>
@@ -6553,7 +6559,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B231" t="s">
         <v>211</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B232" t="s">
         <v>211</v>
@@ -6581,7 +6587,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B233" t="s">
         <v>211</v>
@@ -6595,7 +6601,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B234" t="s">
         <v>211</v>
@@ -6609,7 +6615,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B235" t="s">
         <v>211</v>
@@ -6623,7 +6629,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B236" t="s">
         <v>211</v>
@@ -6637,7 +6643,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B237" t="s">
         <v>211</v>
@@ -6651,7 +6657,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B238" t="s">
         <v>211</v>
@@ -6665,7 +6671,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B239" t="s">
         <v>211</v>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B240" t="s">
         <v>211</v>
@@ -6693,10 +6699,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="C241" t="s">
         <v>212</v>
@@ -6707,10 +6713,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B242" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C242" t="s">
         <v>212</v>
@@ -6721,10 +6727,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B243" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C243" t="s">
         <v>212</v>
@@ -6735,10 +6741,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B244" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C244" t="s">
         <v>212</v>
@@ -6749,7 +6755,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B245" t="s">
         <v>261</v>
@@ -6763,7 +6769,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B246" t="s">
         <v>261</v>
@@ -6777,10 +6783,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B247" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C247" t="s">
         <v>212</v>
@@ -6791,7 +6797,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B248" t="s">
         <v>261</v>
@@ -6805,10 +6811,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B249" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C249" t="s">
         <v>212</v>
@@ -6819,7 +6825,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B250" t="s">
         <v>261</v>
@@ -6833,7 +6839,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B251" t="s">
         <v>261</v>
@@ -6847,10 +6853,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B252" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C252" t="s">
         <v>212</v>
@@ -6861,10 +6867,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B253" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C253" t="s">
         <v>212</v>
@@ -6875,10 +6881,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B254" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C254" t="s">
         <v>212</v>
@@ -6889,10 +6895,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B255" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C255" t="s">
         <v>212</v>
@@ -6903,10 +6909,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C256" t="s">
         <v>212</v>
@@ -6917,10 +6923,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C257" t="s">
         <v>212</v>
@@ -6931,7 +6937,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B258" t="s">
         <v>261</v>
@@ -6945,7 +6951,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B259" t="s">
         <v>261</v>
@@ -6959,10 +6965,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B260" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
         <v>212</v>
@@ -6973,7 +6979,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
@@ -6987,10 +6993,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C262" t="s">
         <v>212</v>
@@ -7001,7 +7007,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B263" t="s">
         <v>261</v>
@@ -7015,7 +7021,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B264" t="s">
         <v>261</v>
@@ -7029,10 +7035,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C265" t="s">
         <v>212</v>
@@ -7043,10 +7049,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B266" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C266" t="s">
         <v>212</v>
@@ -7057,10 +7063,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C267" t="s">
         <v>212</v>
@@ -7071,10 +7077,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B268" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C268" t="s">
         <v>212</v>
@@ -7085,10 +7091,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C269" t="s">
         <v>212</v>
@@ -7099,10 +7105,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B270" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C270" t="s">
         <v>212</v>
@@ -7113,7 +7119,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B271" t="s">
         <v>261</v>
@@ -7127,7 +7133,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B272" t="s">
         <v>261</v>
@@ -7141,10 +7147,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B273" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C273" t="s">
         <v>212</v>
@@ -7155,7 +7161,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B274" t="s">
         <v>261</v>
@@ -7169,10 +7175,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B275" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C275" t="s">
         <v>212</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B276" t="s">
         <v>261</v>
@@ -7197,7 +7203,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B277" t="s">
         <v>261</v>
@@ -7211,10 +7217,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B278" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C278" t="s">
         <v>212</v>
@@ -7225,10 +7231,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B279" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C279" t="s">
         <v>212</v>
@@ -7239,10 +7245,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B280" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C280" t="s">
         <v>212</v>
@@ -7253,10 +7259,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B281" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C281" t="s">
         <v>212</v>
@@ -7267,10 +7273,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B282" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C282" t="s">
         <v>212</v>
@@ -7281,10 +7287,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B283" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C283" t="s">
         <v>212</v>
@@ -7295,7 +7301,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B284" t="s">
         <v>261</v>
@@ -7309,7 +7315,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B285" t="s">
         <v>261</v>
@@ -7323,10 +7329,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B286" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C286" t="s">
         <v>212</v>
@@ -7337,7 +7343,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B287" t="s">
         <v>261</v>
@@ -7351,10 +7357,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B288" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C288" t="s">
         <v>212</v>
@@ -7365,7 +7371,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B289" t="s">
         <v>261</v>
@@ -7379,7 +7385,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B290" t="s">
         <v>261</v>
@@ -7393,10 +7399,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B291" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C291" t="s">
         <v>212</v>
@@ -7407,10 +7413,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B292" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="C292" t="s">
         <v>212</v>
@@ -7421,10 +7427,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B293" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C293" t="s">
         <v>212</v>
@@ -7435,13 +7441,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B294" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C294" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="E294" s="24" t="s">
         <v>541</v>
@@ -7449,13 +7455,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B295" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C295" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="E295" s="24" t="s">
         <v>541</v>
@@ -7463,7 +7469,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B296" t="s">
         <v>315</v>
@@ -7477,7 +7483,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B297" t="s">
         <v>315</v>
@@ -7491,7 +7497,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B298" t="s">
         <v>315</v>
@@ -7505,13 +7511,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B299" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C299" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="E299" s="24" t="s">
         <v>541</v>
@@ -7519,35 +7525,35 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>606</v>
+        <v>320</v>
       </c>
       <c r="B300" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C300" t="s">
-        <v>212</v>
-      </c>
-      <c r="E300" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E300" s="24" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>607</v>
+        <v>321</v>
       </c>
       <c r="B301" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C301" t="s">
         <v>212</v>
       </c>
-      <c r="E301" s="41" t="s">
+      <c r="E301" s="24" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B302" t="s">
         <v>261</v>
@@ -7561,7 +7567,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B303" t="s">
         <v>261</v>
@@ -7575,7 +7581,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B304" t="s">
         <v>261</v>
@@ -7589,7 +7595,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B305" t="s">
         <v>261</v>
@@ -7603,7 +7609,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B306" t="s">
         <v>261</v>
@@ -7617,7 +7623,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B307" t="s">
         <v>261</v>
@@ -7631,10 +7637,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B308" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C308" t="s">
         <v>212</v>
@@ -7645,175 +7651,163 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>613</v>
+      </c>
+      <c r="B309" t="s">
+        <v>261</v>
+      </c>
+      <c r="C309" t="s">
+        <v>212</v>
+      </c>
+      <c r="E309" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>614</v>
+      </c>
+      <c r="B310" t="s">
+        <v>211</v>
+      </c>
+      <c r="C310" t="s">
+        <v>212</v>
+      </c>
+      <c r="E310" s="41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>615</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B311" t="s">
         <v>211</v>
       </c>
-      <c r="C309" t="s">
-        <v>212</v>
-      </c>
-      <c r="E309" s="41" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>322</v>
-      </c>
-      <c r="B310" t="s">
-        <v>542</v>
-      </c>
-      <c r="C310" t="s">
-        <v>324</v>
-      </c>
-      <c r="E310" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="F310" s="26" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>325</v>
-      </c>
-      <c r="B311" t="s">
-        <v>326</v>
-      </c>
       <c r="C311" t="s">
-        <v>327</v>
-      </c>
-      <c r="D311" t="s">
-        <v>549</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F311" s="43" t="s">
-        <v>547</v>
+        <v>212</v>
+      </c>
+      <c r="E311" s="41" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B312" t="s">
-        <v>329</v>
+        <v>542</v>
       </c>
       <c r="C312" t="s">
-        <v>330</v>
-      </c>
-      <c r="E312" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="F312" s="31" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="E312" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="F312" s="26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B313" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C313" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D313" t="s">
-        <v>552</v>
-      </c>
-      <c r="E313" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="F313" s="33" t="s">
-        <v>551</v>
+        <v>549</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F313" s="43" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B314" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C314" t="s">
-        <v>336</v>
-      </c>
-      <c r="D314" t="s">
-        <v>555</v>
-      </c>
-      <c r="E314" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="F314" s="35" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="E314" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="F314" s="31" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B315" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C315" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D315" t="s">
-        <v>556</v>
-      </c>
-      <c r="E315" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="F315" s="28" t="s">
-        <v>544</v>
+        <v>552</v>
+      </c>
+      <c r="E315" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="F315" s="33" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B316" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C316" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D316" t="s">
-        <v>549</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F316" s="30" t="s">
-        <v>547</v>
+        <v>555</v>
+      </c>
+      <c r="E316" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="F316" s="35" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B317" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C317" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D317" t="s">
-        <v>549</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F317" s="30" t="s">
-        <v>547</v>
+        <v>556</v>
+      </c>
+      <c r="E317" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="F317" s="28" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B318" t="s">
         <v>326</v>
@@ -7833,7 +7827,7 @@
     </row>
     <row r="319" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B319" t="s">
         <v>326</v>
@@ -7853,67 +7847,67 @@
     </row>
     <row r="320" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B320" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C320" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D320" t="s">
-        <v>487</v>
-      </c>
-      <c r="E320" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="F320" s="38" t="s">
-        <v>558</v>
+        <v>549</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F320" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B321" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C321" t="s">
         <v>327</v>
       </c>
       <c r="D321" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F321" s="37" t="s">
-        <v>560</v>
+        <v>548</v>
+      </c>
+      <c r="F321" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B322" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C322" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D322" t="s">
-        <v>555</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F322" s="37" t="s">
-        <v>560</v>
+        <v>487</v>
+      </c>
+      <c r="E322" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="F322" s="38" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B323" t="s">
         <v>346</v>
@@ -7933,7 +7927,7 @@
     </row>
     <row r="324" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B324" t="s">
         <v>346</v>
@@ -7953,107 +7947,107 @@
     </row>
     <row r="325" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B325" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C325" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D325" t="s">
         <v>555</v>
       </c>
-      <c r="E325" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="F325" s="38" t="s">
-        <v>554</v>
+      <c r="E325" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F325" s="37" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B326" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C326" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D326" t="s">
-        <v>563</v>
-      </c>
-      <c r="E326" s="39" t="s">
-        <v>561</v>
-      </c>
-      <c r="F326" s="40" t="s">
-        <v>562</v>
+        <v>555</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F326" s="37" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B327" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C327" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D327" t="s">
-        <v>565</v>
-      </c>
-      <c r="E327" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="F327" s="42" t="s">
-        <v>564</v>
+        <v>555</v>
+      </c>
+      <c r="E327" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="F327" s="38" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C328" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D328" t="s">
-        <v>549</v>
-      </c>
-      <c r="E328" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F328" s="30" t="s">
-        <v>547</v>
+        <v>563</v>
+      </c>
+      <c r="E328" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="F328" s="40" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B329" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C329" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="D329" t="s">
-        <v>549</v>
-      </c>
-      <c r="E329" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="F329" s="45" t="s">
-        <v>567</v>
+        <v>565</v>
+      </c>
+      <c r="E329" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F329" s="42" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B330" t="s">
         <v>326</v>
@@ -8073,10 +8067,10 @@
     </row>
     <row r="331" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B331" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C331" t="s">
         <v>327</v>
@@ -8084,19 +8078,19 @@
       <c r="D331" t="s">
         <v>549</v>
       </c>
-      <c r="E331" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F331" s="30" t="s">
-        <v>547</v>
+      <c r="E331" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F331" s="45" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B332" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C332" t="s">
         <v>327</v>
@@ -8104,16 +8098,16 @@
       <c r="D332" t="s">
         <v>549</v>
       </c>
-      <c r="E332" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="F332" s="45" t="s">
-        <v>567</v>
+      <c r="E332" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F332" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B333" t="s">
         <v>326</v>
@@ -8131,49 +8125,49 @@
         <v>547</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B334" t="s">
-        <v>571</v>
+        <v>359</v>
       </c>
       <c r="C334" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D334" t="s">
-        <v>568</v>
-      </c>
-      <c r="E334" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F334" s="46" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="E334" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="F334" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B335" t="s">
-        <v>571</v>
+        <v>326</v>
       </c>
       <c r="C335" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D335" t="s">
-        <v>568</v>
-      </c>
-      <c r="E335" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F335" s="46" t="s">
-        <v>572</v>
+        <v>549</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F335" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B336" t="s">
         <v>571</v>
@@ -8188,12 +8182,12 @@
         <v>569</v>
       </c>
       <c r="F336" s="46" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B337" t="s">
         <v>571</v>
@@ -8208,12 +8202,12 @@
         <v>569</v>
       </c>
       <c r="F337" s="46" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B338" t="s">
         <v>571</v>
@@ -8228,12 +8222,12 @@
         <v>569</v>
       </c>
       <c r="F338" s="46" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B339" t="s">
         <v>571</v>
@@ -8248,12 +8242,12 @@
         <v>569</v>
       </c>
       <c r="F339" s="46" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B340" t="s">
         <v>571</v>
@@ -8268,12 +8262,12 @@
         <v>569</v>
       </c>
       <c r="F340" s="46" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B341" t="s">
         <v>571</v>
@@ -8288,12 +8282,12 @@
         <v>569</v>
       </c>
       <c r="F341" s="46" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B342" t="s">
         <v>571</v>
@@ -8308,12 +8302,12 @@
         <v>569</v>
       </c>
       <c r="F342" s="46" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B343" t="s">
         <v>571</v>
@@ -8328,12 +8322,12 @@
         <v>569</v>
       </c>
       <c r="F343" s="46" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B344" t="s">
         <v>571</v>
@@ -8348,12 +8342,12 @@
         <v>569</v>
       </c>
       <c r="F344" s="46" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B345" t="s">
         <v>571</v>
@@ -8368,551 +8362,569 @@
         <v>569</v>
       </c>
       <c r="F345" s="46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>375</v>
+      </c>
+      <c r="B346" t="s">
+        <v>571</v>
+      </c>
+      <c r="C346" t="s">
+        <v>365</v>
+      </c>
+      <c r="D346" t="s">
+        <v>568</v>
+      </c>
+      <c r="E346" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F346" s="46" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>376</v>
+      </c>
+      <c r="B347" t="s">
+        <v>571</v>
+      </c>
+      <c r="C347" t="s">
+        <v>365</v>
+      </c>
+      <c r="D347" t="s">
+        <v>568</v>
+      </c>
+      <c r="E347" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="F347" s="46" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>377</v>
-      </c>
-      <c r="B346" t="s">
-        <v>326</v>
-      </c>
-      <c r="C346" t="s">
-        <v>327</v>
-      </c>
-      <c r="D346" t="s">
-        <v>549</v>
-      </c>
-      <c r="E346" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F346" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>378</v>
-      </c>
-      <c r="B347" t="s">
-        <v>326</v>
-      </c>
-      <c r="C347" t="s">
-        <v>327</v>
-      </c>
-      <c r="D347" t="s">
-        <v>549</v>
-      </c>
-      <c r="E347" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F347" s="30" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>377</v>
+      </c>
+      <c r="B348" t="s">
+        <v>326</v>
+      </c>
+      <c r="C348" t="s">
+        <v>327</v>
+      </c>
+      <c r="D348" t="s">
+        <v>549</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F348" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>378</v>
+      </c>
+      <c r="B349" t="s">
+        <v>326</v>
+      </c>
+      <c r="C349" t="s">
+        <v>327</v>
+      </c>
+      <c r="D349" t="s">
+        <v>549</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F349" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>379</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B350" t="s">
         <v>352</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C350" t="s">
         <v>353</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D350" t="s">
         <v>563</v>
       </c>
-      <c r="E348" s="39" t="s">
+      <c r="E350" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F348" s="40" t="s">
+      <c r="F350" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="23" t="s">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="B349" s="23" t="s">
+      <c r="B351" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C349" s="23" t="s">
+      <c r="C351" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D349" s="23" t="s">
+      <c r="D351" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E349" s="23" t="s">
+      <c r="E351" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F349" s="23" t="s">
+      <c r="F351" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="23" t="s">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="B350" s="23" t="s">
+      <c r="B352" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C350" s="23" t="s">
+      <c r="C352" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D350" s="23" t="s">
+      <c r="D352" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E350" s="23" t="s">
+      <c r="E352" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F350" s="23" t="s">
+      <c r="F352" s="23" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>384</v>
-      </c>
-      <c r="B351" t="s">
-        <v>326</v>
-      </c>
-      <c r="C351" t="s">
-        <v>327</v>
-      </c>
-      <c r="D351" t="s">
-        <v>549</v>
-      </c>
-      <c r="E351" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F351" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>385</v>
-      </c>
-      <c r="B352" t="s">
-        <v>326</v>
-      </c>
-      <c r="C352" t="s">
-        <v>327</v>
-      </c>
-      <c r="D352" t="s">
-        <v>549</v>
-      </c>
-      <c r="E352" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F352" s="30" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>384</v>
+      </c>
+      <c r="B353" t="s">
+        <v>326</v>
+      </c>
+      <c r="C353" t="s">
+        <v>327</v>
+      </c>
+      <c r="D353" t="s">
+        <v>549</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F353" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>385</v>
+      </c>
+      <c r="B354" t="s">
+        <v>326</v>
+      </c>
+      <c r="C354" t="s">
+        <v>327</v>
+      </c>
+      <c r="D354" t="s">
+        <v>549</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F354" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>386</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B355" t="s">
         <v>352</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C355" t="s">
         <v>353</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D355" t="s">
         <v>563</v>
       </c>
-      <c r="E353" s="39" t="s">
+      <c r="E355" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F353" s="40" t="s">
+      <c r="F355" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="23" t="s">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B354" s="23" t="s">
+      <c r="B356" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C354" s="23" t="s">
+      <c r="C356" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D354" s="23" t="s">
+      <c r="D356" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E354" s="23" t="s">
+      <c r="E356" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F354" s="23" t="s">
+      <c r="F356" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="23" t="s">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B355" s="23" t="s">
+      <c r="B357" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C355" s="23" t="s">
+      <c r="C357" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D355" s="23" t="s">
+      <c r="D357" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E355" s="23" t="s">
+      <c r="E357" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F355" s="23" t="s">
+      <c r="F357" s="23" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>389</v>
-      </c>
-      <c r="B356" t="s">
-        <v>326</v>
-      </c>
-      <c r="C356" t="s">
-        <v>327</v>
-      </c>
-      <c r="D356" t="s">
-        <v>549</v>
-      </c>
-      <c r="E356" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F356" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>390</v>
-      </c>
-      <c r="B357" t="s">
-        <v>326</v>
-      </c>
-      <c r="C357" t="s">
-        <v>327</v>
-      </c>
-      <c r="D357" t="s">
-        <v>549</v>
-      </c>
-      <c r="E357" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F357" s="30" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>389</v>
+      </c>
+      <c r="B358" t="s">
+        <v>326</v>
+      </c>
+      <c r="C358" t="s">
+        <v>327</v>
+      </c>
+      <c r="D358" t="s">
+        <v>549</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F358" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>390</v>
+      </c>
+      <c r="B359" t="s">
+        <v>326</v>
+      </c>
+      <c r="C359" t="s">
+        <v>327</v>
+      </c>
+      <c r="D359" t="s">
+        <v>549</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F359" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>391</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B360" t="s">
         <v>352</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C360" t="s">
         <v>353</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D360" t="s">
         <v>563</v>
       </c>
-      <c r="E358" s="39" t="s">
+      <c r="E360" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F358" s="40" t="s">
+      <c r="F360" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="23" t="s">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="B359" s="23" t="s">
+      <c r="B361" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C359" s="23" t="s">
+      <c r="C361" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D359" s="23" t="s">
+      <c r="D361" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E359" s="23" t="s">
+      <c r="E361" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F359" s="23" t="s">
+      <c r="F361" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="23" t="s">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B360" s="23" t="s">
+      <c r="B362" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C360" s="23" t="s">
+      <c r="C362" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D360" s="23" t="s">
+      <c r="D362" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E360" s="23" t="s">
+      <c r="E362" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F360" s="23" t="s">
+      <c r="F362" s="23" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>394</v>
-      </c>
-      <c r="B361" t="s">
-        <v>326</v>
-      </c>
-      <c r="C361" t="s">
-        <v>327</v>
-      </c>
-      <c r="D361" t="s">
-        <v>549</v>
-      </c>
-      <c r="E361" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F361" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>395</v>
-      </c>
-      <c r="B362" t="s">
-        <v>326</v>
-      </c>
-      <c r="C362" t="s">
-        <v>327</v>
-      </c>
-      <c r="D362" t="s">
-        <v>549</v>
-      </c>
-      <c r="E362" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F362" s="30" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
+        <v>394</v>
+      </c>
+      <c r="B363" t="s">
+        <v>326</v>
+      </c>
+      <c r="C363" t="s">
+        <v>327</v>
+      </c>
+      <c r="D363" t="s">
+        <v>549</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F363" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>395</v>
+      </c>
+      <c r="B364" t="s">
+        <v>326</v>
+      </c>
+      <c r="C364" t="s">
+        <v>327</v>
+      </c>
+      <c r="D364" t="s">
+        <v>549</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F364" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>396</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B365" t="s">
         <v>352</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C365" t="s">
         <v>353</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D365" t="s">
         <v>563</v>
       </c>
-      <c r="E363" s="39" t="s">
+      <c r="E365" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F363" s="40" t="s">
+      <c r="F365" s="40" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="23" t="s">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="B364" s="23" t="s">
+      <c r="B366" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C364" s="23" t="s">
+      <c r="C366" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D364" s="23" t="s">
+      <c r="D366" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E364" s="23" t="s">
+      <c r="E366" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F364" s="23" t="s">
+      <c r="F366" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="23" t="s">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B365" s="23" t="s">
+      <c r="B367" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C365" s="23" t="s">
+      <c r="C367" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D365" s="23" t="s">
+      <c r="D367" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E365" s="23" t="s">
+      <c r="E367" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F365" s="23" t="s">
+      <c r="F367" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+    <row r="368" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>399</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B368" t="s">
         <v>400</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C368" t="s">
         <v>588</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D368" t="s">
         <v>586</v>
       </c>
-      <c r="E366" s="49" t="s">
+      <c r="E368" s="49" t="s">
         <v>587</v>
       </c>
-      <c r="F366" s="48" t="s">
+      <c r="F368" s="48" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+    <row r="369" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>616</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B369" t="s">
         <v>326</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C369" t="s">
         <v>327</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D369" t="s">
         <v>549</v>
       </c>
-      <c r="E367" s="3" t="s">
+      <c r="E369" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F367" s="48" t="s">
+      <c r="F369" s="48" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>401</v>
       </c>
-      <c r="B368" s="20" t="s">
+      <c r="B370" s="20" t="s">
         <v>402</v>
-      </c>
-      <c r="C368" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>404</v>
-      </c>
-      <c r="B369" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C369" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>406</v>
-      </c>
-      <c r="B370" s="20" t="s">
-        <v>407</v>
       </c>
       <c r="C370" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C371" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C373" s="20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C374" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>413</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>415</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
         <v>417</v>
-      </c>
-      <c r="B375" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C375" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>419</v>
-      </c>
-      <c r="B376" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C376" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>421</v>
       </c>
       <c r="B377" s="20" t="s">
         <v>418</v>
@@ -8921,86 +8933,86 @@
         <v>412</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B378" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>421</v>
+      </c>
+      <c r="B379" s="20" t="s">
         <v>418</v>
-      </c>
-      <c r="C378" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>423</v>
-      </c>
-      <c r="B379" s="20" t="s">
-        <v>424</v>
       </c>
       <c r="C379" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C380" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C381" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C382" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>203</v>
+        <v>420</v>
       </c>
       <c r="C383" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B385" s="20" t="s">
         <v>203</v>
@@ -9011,10 +9023,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C386" s="20" t="s">
         <v>412</v>
@@ -9022,7 +9034,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B387" s="20" t="s">
         <v>203</v>
@@ -9033,10 +9045,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>203</v>
+        <v>411</v>
       </c>
       <c r="C388" s="20" t="s">
         <v>412</v>
@@ -9044,10 +9056,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="C389" s="20" t="s">
         <v>412</v>
@@ -9055,32 +9067,32 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>438</v>
+        <v>203</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C392" s="20" t="s">
         <v>403</v>
@@ -9088,10 +9100,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C393" s="20" t="s">
         <v>403</v>
@@ -9099,10 +9111,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B394" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C394" s="20" t="s">
         <v>403</v>
@@ -9110,12 +9122,34 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>443</v>
+      </c>
+      <c r="B395" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C395" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>445</v>
+      </c>
+      <c r="B396" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C396" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>447</v>
       </c>
-      <c r="B395" s="20" t="s">
+      <c r="B397" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="C395" s="20" t="s">
+      <c r="C397" s="20" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9281,55 +9315,55 @@
     <hyperlink ref="F183" r:id="rId158"/>
     <hyperlink ref="F184" r:id="rId159"/>
     <hyperlink ref="F185" r:id="rId160"/>
-    <hyperlink ref="F310" r:id="rId161"/>
-    <hyperlink ref="F315" r:id="rId162"/>
-    <hyperlink ref="F312" r:id="rId163"/>
-    <hyperlink ref="F316" r:id="rId164"/>
-    <hyperlink ref="F317" r:id="rId165"/>
-    <hyperlink ref="F318" r:id="rId166"/>
-    <hyperlink ref="F319" r:id="rId167"/>
-    <hyperlink ref="F328" r:id="rId168"/>
-    <hyperlink ref="F330" r:id="rId169"/>
-    <hyperlink ref="F331" r:id="rId170"/>
-    <hyperlink ref="F333" r:id="rId171"/>
-    <hyperlink ref="F346" r:id="rId172"/>
-    <hyperlink ref="F347" r:id="rId173"/>
-    <hyperlink ref="F351" r:id="rId174"/>
-    <hyperlink ref="F352" r:id="rId175"/>
-    <hyperlink ref="F356" r:id="rId176"/>
-    <hyperlink ref="F357" r:id="rId177"/>
-    <hyperlink ref="F361" r:id="rId178"/>
-    <hyperlink ref="F362" r:id="rId179"/>
-    <hyperlink ref="F313" r:id="rId180"/>
-    <hyperlink ref="F314" r:id="rId181"/>
-    <hyperlink ref="F320" r:id="rId182"/>
-    <hyperlink ref="F321" r:id="rId183"/>
-    <hyperlink ref="F322" r:id="rId184"/>
-    <hyperlink ref="F323" r:id="rId185"/>
-    <hyperlink ref="F324" r:id="rId186"/>
-    <hyperlink ref="F325" r:id="rId187"/>
-    <hyperlink ref="F326" r:id="rId188"/>
-    <hyperlink ref="F348" r:id="rId189"/>
-    <hyperlink ref="F353" r:id="rId190"/>
-    <hyperlink ref="F358" r:id="rId191"/>
-    <hyperlink ref="F363" r:id="rId192"/>
-    <hyperlink ref="F327" r:id="rId193"/>
-    <hyperlink ref="F329" r:id="rId194"/>
-    <hyperlink ref="F332" r:id="rId195"/>
-    <hyperlink ref="F311" r:id="rId196"/>
-    <hyperlink ref="F334" r:id="rId197"/>
-    <hyperlink ref="F335" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F336" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F337" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F338" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F339" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F340" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F341" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F342" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F343" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F344" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F345" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
-    <hyperlink ref="F366" r:id="rId209"/>
+    <hyperlink ref="F312" r:id="rId161"/>
+    <hyperlink ref="F317" r:id="rId162"/>
+    <hyperlink ref="F314" r:id="rId163"/>
+    <hyperlink ref="F318" r:id="rId164"/>
+    <hyperlink ref="F319" r:id="rId165"/>
+    <hyperlink ref="F320" r:id="rId166"/>
+    <hyperlink ref="F321" r:id="rId167"/>
+    <hyperlink ref="F330" r:id="rId168"/>
+    <hyperlink ref="F332" r:id="rId169"/>
+    <hyperlink ref="F333" r:id="rId170"/>
+    <hyperlink ref="F335" r:id="rId171"/>
+    <hyperlink ref="F348" r:id="rId172"/>
+    <hyperlink ref="F349" r:id="rId173"/>
+    <hyperlink ref="F353" r:id="rId174"/>
+    <hyperlink ref="F354" r:id="rId175"/>
+    <hyperlink ref="F358" r:id="rId176"/>
+    <hyperlink ref="F359" r:id="rId177"/>
+    <hyperlink ref="F363" r:id="rId178"/>
+    <hyperlink ref="F364" r:id="rId179"/>
+    <hyperlink ref="F315" r:id="rId180"/>
+    <hyperlink ref="F316" r:id="rId181"/>
+    <hyperlink ref="F322" r:id="rId182"/>
+    <hyperlink ref="F323" r:id="rId183"/>
+    <hyperlink ref="F324" r:id="rId184"/>
+    <hyperlink ref="F325" r:id="rId185"/>
+    <hyperlink ref="F326" r:id="rId186"/>
+    <hyperlink ref="F327" r:id="rId187"/>
+    <hyperlink ref="F328" r:id="rId188"/>
+    <hyperlink ref="F350" r:id="rId189"/>
+    <hyperlink ref="F355" r:id="rId190"/>
+    <hyperlink ref="F360" r:id="rId191"/>
+    <hyperlink ref="F365" r:id="rId192"/>
+    <hyperlink ref="F329" r:id="rId193"/>
+    <hyperlink ref="F331" r:id="rId194"/>
+    <hyperlink ref="F334" r:id="rId195"/>
+    <hyperlink ref="F313" r:id="rId196"/>
+    <hyperlink ref="F336" r:id="rId197"/>
+    <hyperlink ref="F337" r:id="rId198" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F338" r:id="rId199" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F339" r:id="rId200" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F340" r:id="rId201" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F341" r:id="rId202" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F342" r:id="rId203" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F343" r:id="rId204" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F344" r:id="rId205" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F345" r:id="rId206" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F346" r:id="rId207" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F347" r:id="rId208" display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272"/>
+    <hyperlink ref="F368" r:id="rId209"/>
     <hyperlink ref="F178" r:id="rId210"/>
     <hyperlink ref="F189" r:id="rId211"/>
     <hyperlink ref="F154" r:id="rId212" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
@@ -9340,7 +9374,7 @@
     <hyperlink ref="F159" r:id="rId217" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F160" r:id="rId218" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
     <hyperlink ref="F161" r:id="rId219" display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247"/>
-    <hyperlink ref="F367" r:id="rId220"/>
+    <hyperlink ref="F369" r:id="rId220"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId221"/>

--- a/Manufacturing/V2/XMP16-V2-BOM.xlsx
+++ b/Manufacturing/V2/XMP16-V2-BOM.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="48" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="48"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="XMP16_03" vbProcedure="false">Sheet1!$A$9:$C$397</definedName>
+    <definedName name="XMP16_03">Sheet1!$A$9:$C$398</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="632">
   <si>
     <t>XMP16-V2 BOM</t>
   </si>
@@ -1336,9 +1335,6 @@
     <t>R95</t>
   </si>
   <si>
-    <t>0R05 250mW 100ppm/degree</t>
-  </si>
-  <si>
     <t>SM0805</t>
   </si>
   <si>
@@ -1916,120 +1912,135 @@
   </si>
   <si>
     <t>SWT_4</t>
+  </si>
+  <si>
+    <t>R111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
-    <numFmt formatCode="0.000" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="12.65"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="1"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="000000FF"/>
-      <sz val="12.65"/>
-      <u val="single"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Verdana"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
       <name val="Verdana"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00555555"/>
-      <sz val="8"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
       <family val="2"/>
-      <color rgb="000000FF"/>
-      <sz val="12"/>
-      <u val="single"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <name val="Verdana"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="00333333"/>
-      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2041,120 +2052,87 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009BBB59"/>
-        <bgColor rgb="00969696"/>
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7DEE8"/>
-        <bgColor rgb="0099CCFF"/>
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="9" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="7" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="3" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="20">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="21"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="166" xfId="22"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="22"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="22"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="22"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="22"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="22"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="22"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal 2" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal 3" xfId="21"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Accent3" xfId="15"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in 40% - Accent5" xfId="15"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="15"/>
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Title" xfId="4" builtinId="15"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2213,91 +2191,387 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F397"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="D290" activeCellId="0" pane="topLeft" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.2156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.2745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.56862745098039"/>
+    <col min="1" max="1" width="5.140625"/>
+    <col min="2" max="2" width="27.28515625"/>
+    <col min="3" max="4" width="18.140625"/>
+    <col min="5" max="5" width="32.28515625"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="2">
         <v>41127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2310,17 +2584,17 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2330,17 +2604,17 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.95" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2350,14 +2624,14 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -2370,14 +2644,14 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -2390,14 +2664,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -2410,14 +2684,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -2430,14 +2704,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.25" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2450,14 +2724,14 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -2470,14 +2744,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -2490,14 +2764,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -2510,14 +2784,14 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -2530,14 +2804,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -2550,14 +2824,14 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -2570,14 +2844,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2590,14 +2864,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -2610,14 +2884,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2630,14 +2904,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -2650,14 +2924,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -2670,14 +2944,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -2690,14 +2964,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -2710,14 +2984,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -2730,14 +3004,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -2750,14 +3024,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2770,14 +3044,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -2790,14 +3064,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2810,14 +3084,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -2830,14 +3104,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -2850,14 +3124,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -2870,14 +3144,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -2890,14 +3164,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -2910,14 +3184,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2930,14 +3204,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -2950,14 +3224,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="12" t="s">
@@ -2970,14 +3244,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="12" t="s">
@@ -2990,14 +3264,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -3010,14 +3284,14 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="12" t="s">
@@ -3030,14 +3304,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -3050,14 +3324,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -3070,14 +3344,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -3090,14 +3364,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -3110,14 +3384,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>50</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -3130,14 +3404,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -3150,14 +3424,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -3170,14 +3444,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>50</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -3190,14 +3464,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>50</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -3210,14 +3484,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -3230,14 +3504,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -3250,14 +3524,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -3270,14 +3544,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -3290,14 +3564,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -3310,14 +3584,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -3330,14 +3604,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -3350,14 +3624,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -3370,14 +3644,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>50</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -3390,14 +3664,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>50</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -3410,14 +3684,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>50</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -3430,14 +3704,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>50</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -3450,14 +3724,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -3470,14 +3744,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="12" t="s">
@@ -3490,14 +3764,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>40</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -3510,14 +3784,14 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="12" t="s">
@@ -3530,14 +3804,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -3550,14 +3824,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>50</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -3570,14 +3844,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>50</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -3590,14 +3864,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -3610,14 +3884,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -3630,14 +3904,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="12" t="s">
@@ -3650,14 +3924,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>50</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -3670,14 +3944,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -3690,14 +3964,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>50</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -3710,14 +3984,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>50</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -3730,14 +4004,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="12" t="s">
@@ -3750,14 +4024,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>50</v>
       </c>
       <c r="D83" s="7" t="s">
@@ -3770,14 +4044,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>50</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3790,14 +4064,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="7" t="s">
@@ -3810,14 +4084,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>50</v>
       </c>
       <c r="D86" s="7" t="s">
@@ -3830,14 +4104,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>50</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -3850,14 +4124,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="12" t="s">
@@ -3870,14 +4144,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>50</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -3890,14 +4164,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>54</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>50</v>
       </c>
       <c r="D90" s="7" t="s">
@@ -3910,14 +4184,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>54</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>50</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -3930,14 +4204,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>50</v>
       </c>
       <c r="D92" s="7" t="s">
@@ -3950,14 +4224,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="12" t="s">
@@ -3970,14 +4244,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="12" t="s">
@@ -3990,14 +4264,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>40</v>
       </c>
       <c r="D95" s="13" t="s">
@@ -4010,14 +4284,14 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="12" t="s">
@@ -4030,14 +4304,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>130</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>50</v>
       </c>
       <c r="D97" s="7" t="s">
@@ -4050,14 +4324,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>54</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>50</v>
       </c>
       <c r="D98" s="7" t="s">
@@ -4070,14 +4344,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>54</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>50</v>
       </c>
       <c r="D99" s="7" t="s">
@@ -4090,14 +4364,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>54</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>50</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -4110,14 +4384,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>54</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>50</v>
       </c>
       <c r="D101" s="7" t="s">
@@ -4130,14 +4404,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>36</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="12" t="s">
@@ -4150,14 +4424,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>136</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>50</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -4170,14 +4444,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>137</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>54</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>50</v>
       </c>
       <c r="D104" s="7" t="s">
@@ -4190,14 +4464,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>138</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>54</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>50</v>
       </c>
       <c r="D105" s="7" t="s">
@@ -4210,14 +4484,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="106">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>54</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>50</v>
       </c>
       <c r="D106" s="7" t="s">
@@ -4230,14 +4504,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="12" t="s">
@@ -4250,14 +4524,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>50</v>
       </c>
       <c r="D108" s="7" t="s">
@@ -4270,14 +4544,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>50</v>
       </c>
       <c r="D109" s="7" t="s">
@@ -4290,14 +4564,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>50</v>
       </c>
       <c r="D110" s="7" t="s">
@@ -4310,14 +4584,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>54</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>50</v>
       </c>
       <c r="D111" s="7" t="s">
@@ -4330,14 +4604,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>145</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>50</v>
       </c>
       <c r="D112" s="7" t="s">
@@ -4350,14 +4624,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>146</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="12" t="s">
@@ -4370,14 +4644,14 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>147</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>50</v>
       </c>
       <c r="D114" s="7" t="s">
@@ -4390,14 +4664,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="115">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>50</v>
       </c>
       <c r="D115" s="7" t="s">
@@ -4410,14 +4684,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>149</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>50</v>
       </c>
       <c r="D116" s="7" t="s">
@@ -4430,14 +4704,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>150</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>50</v>
       </c>
       <c r="D117" s="7" t="s">
@@ -4450,14 +4724,14 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="12" t="s">
@@ -4470,34 +4744,34 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>152</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>153</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>154</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" t="s">
         <v>156</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="120">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>158</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>159</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>40</v>
       </c>
       <c r="D120" s="7" t="s">
@@ -4510,14 +4784,14 @@
         <v>162</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="121">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>164</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>40</v>
       </c>
       <c r="D121" s="7" t="s">
@@ -4530,14 +4804,14 @@
         <v>165</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="122">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>166</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>167</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>40</v>
       </c>
       <c r="D122" s="7" t="s">
@@ -4550,14 +4824,14 @@
         <v>168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>169</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>170</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>40</v>
       </c>
       <c r="D123" s="7" t="s">
@@ -4570,14 +4844,14 @@
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="124">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>172</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>159</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>40</v>
       </c>
       <c r="D124" s="7" t="s">
@@ -4590,14 +4864,14 @@
         <v>173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="125">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>174</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>164</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>40</v>
       </c>
       <c r="D125" s="7" t="s">
@@ -4610,14 +4884,14 @@
         <v>175</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="126">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>167</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>40</v>
       </c>
       <c r="D126" s="7" t="s">
@@ -4630,14 +4904,14 @@
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="127">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>178</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>170</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>40</v>
       </c>
       <c r="D127" s="7" t="s">
@@ -4650,14 +4924,14 @@
         <v>179</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>159</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>40</v>
       </c>
       <c r="D128" s="7" t="s">
@@ -4670,14 +4944,14 @@
         <v>181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="129">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>182</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>164</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>40</v>
       </c>
       <c r="D129" s="7" t="s">
@@ -4690,14 +4964,14 @@
         <v>183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="130">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>184</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>167</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>40</v>
       </c>
       <c r="D130" s="7" t="s">
@@ -4710,14 +4984,14 @@
         <v>185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="131">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>186</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>170</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>40</v>
       </c>
       <c r="D131" s="7" t="s">
@@ -4730,14 +5004,14 @@
         <v>187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="132">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>188</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>159</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>40</v>
       </c>
       <c r="D132" s="7" t="s">
@@ -4750,14 +5024,14 @@
         <v>189</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>190</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>164</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>40</v>
       </c>
       <c r="D133" s="7" t="s">
@@ -4770,14 +5044,14 @@
         <v>191</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="134">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>192</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>167</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>40</v>
       </c>
       <c r="D134" s="7" t="s">
@@ -4790,14 +5064,14 @@
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="135">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>194</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>170</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>40</v>
       </c>
       <c r="D135" s="7" t="s">
@@ -4810,14 +5084,14 @@
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="136">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>196</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" t="s">
         <v>164</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>40</v>
       </c>
       <c r="D136" s="7" t="s">
@@ -4830,14 +5104,14 @@
         <v>197</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="137">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>198</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" t="s">
         <v>164</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>40</v>
       </c>
       <c r="D137" s="7" t="s">
@@ -4850,14 +5124,14 @@
         <v>199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" t="s">
         <v>164</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>40</v>
       </c>
       <c r="D138" s="7" t="s">
@@ -4870,14 +5144,14 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="139">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>202</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" t="s">
         <v>164</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" t="s">
         <v>40</v>
       </c>
       <c r="D139" s="7" t="s">
@@ -4890,14 +5164,14 @@
         <v>203</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="140">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>40</v>
       </c>
       <c r="D140" s="7" t="s">
@@ -4910,14 +5184,14 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="141">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>206</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" t="s">
         <v>164</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" t="s">
         <v>40</v>
       </c>
       <c r="D141" s="7" t="s">
@@ -4930,14 +5204,14 @@
         <v>207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="142">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>208</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" t="s">
         <v>164</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" t="s">
         <v>40</v>
       </c>
       <c r="D142" s="7" t="s">
@@ -4950,14 +5224,14 @@
         <v>209</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>210</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" t="s">
         <v>164</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>40</v>
       </c>
       <c r="D143" s="7" t="s">
@@ -4970,14 +5244,14 @@
         <v>211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="144">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" t="s">
         <v>164</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>40</v>
       </c>
       <c r="D144" s="7" t="s">
@@ -4990,14 +5264,14 @@
         <v>213</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="145">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>214</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" t="s">
         <v>164</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" t="s">
         <v>40</v>
       </c>
       <c r="D145" s="7" t="s">
@@ -5010,14 +5284,14 @@
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="146">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>216</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" t="s">
         <v>164</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" t="s">
         <v>40</v>
       </c>
       <c r="D146" s="7" t="s">
@@ -5030,14 +5304,14 @@
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="147">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" t="s">
         <v>164</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" t="s">
         <v>40</v>
       </c>
       <c r="D147" s="7" t="s">
@@ -5050,14 +5324,14 @@
         <v>219</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>220</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" t="s">
         <v>164</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>40</v>
       </c>
       <c r="D148" s="7" t="s">
@@ -5070,14 +5344,14 @@
         <v>221</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="149">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>222</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" t="s">
         <v>164</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" t="s">
         <v>40</v>
       </c>
       <c r="D149" s="7" t="s">
@@ -5090,14 +5364,14 @@
         <v>223</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="150">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>224</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" t="s">
         <v>164</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" t="s">
         <v>40</v>
       </c>
       <c r="D150" s="7" t="s">
@@ -5110,14 +5384,14 @@
         <v>225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="151">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>226</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" t="s">
         <v>164</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" t="s">
         <v>40</v>
       </c>
       <c r="D151" s="7" t="s">
@@ -5130,14 +5404,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="152">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>228</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" t="s">
         <v>229</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" t="s">
         <v>40</v>
       </c>
       <c r="D152" s="7" t="s">
@@ -5150,14 +5424,14 @@
         <v>230</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>231</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" t="s">
         <v>232</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>40</v>
       </c>
       <c r="D153" s="7" t="s">
@@ -5170,14 +5444,14 @@
         <v>233</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="154">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>234</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" t="s">
         <v>235</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>40</v>
       </c>
       <c r="D154" s="7" t="s">
@@ -5190,14 +5464,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="155">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>236</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" t="s">
         <v>235</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>40</v>
       </c>
       <c r="D155" s="7" t="s">
@@ -5210,14 +5484,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="156">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>237</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" t="s">
         <v>235</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>40</v>
       </c>
       <c r="D156" s="7" t="s">
@@ -5230,14 +5504,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="157">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>238</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" t="s">
         <v>235</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>40</v>
       </c>
       <c r="D157" s="7" t="s">
@@ -5250,14 +5524,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>239</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" t="s">
         <v>235</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>40</v>
       </c>
       <c r="D158" s="7" t="s">
@@ -5270,14 +5544,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="159">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>240</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" t="s">
         <v>235</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" t="s">
         <v>40</v>
       </c>
       <c r="D159" s="7" t="s">
@@ -5290,14 +5564,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="160">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>241</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" t="s">
         <v>235</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" t="s">
         <v>40</v>
       </c>
       <c r="D160" s="7" t="s">
@@ -5310,14 +5584,14 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="161">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>242</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" t="s">
         <v>235</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" t="s">
         <v>40</v>
       </c>
       <c r="D161" s="7" t="s">
@@ -5330,7 +5604,7 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>243</v>
       </c>
@@ -5341,7 +5615,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>246</v>
       </c>
@@ -5352,7 +5626,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>247</v>
       </c>
@@ -5363,7 +5637,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>248</v>
       </c>
@@ -5374,7 +5648,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>249</v>
       </c>
@@ -5385,7 +5659,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>250</v>
       </c>
@@ -5396,17 +5670,17 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="168">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>251</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" t="s">
         <v>252</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>253</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="8" t="s">
@@ -5416,17 +5690,17 @@
         <v>255</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="169">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>256</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" t="s">
         <v>252</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" t="s">
         <v>257</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" t="s">
         <v>19</v>
       </c>
       <c r="E169" s="8" t="s">
@@ -5436,17 +5710,17 @@
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="170">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>260</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" t="s">
         <v>252</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" t="s">
         <v>257</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" t="s">
         <v>19</v>
       </c>
       <c r="E170" s="8" t="s">
@@ -5456,17 +5730,17 @@
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="171">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>261</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" t="s">
         <v>252</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" t="s">
         <v>257</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" t="s">
         <v>19</v>
       </c>
       <c r="E171" s="8" t="s">
@@ -5476,17 +5750,17 @@
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="172">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>262</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" t="s">
         <v>252</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" t="s">
         <v>257</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" t="s">
         <v>19</v>
       </c>
       <c r="E172" s="8" t="s">
@@ -5496,17 +5770,17 @@
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="173">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>263</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" t="s">
         <v>252</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" t="s">
         <v>257</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" t="s">
         <v>19</v>
       </c>
       <c r="E173" s="8" t="s">
@@ -5516,17 +5790,17 @@
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="174">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>264</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" t="s">
         <v>265</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" t="s">
         <v>266</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" t="s">
         <v>267</v>
       </c>
       <c r="E174" s="8" t="s">
@@ -5536,17 +5810,17 @@
         <v>269</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="175">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>270</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" t="s">
         <v>271</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" t="s">
         <v>272</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" t="s">
         <v>273</v>
       </c>
       <c r="E175" s="14" t="s">
@@ -5556,17 +5830,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="176">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>276</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" t="s">
         <v>271</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" t="s">
         <v>272</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" t="s">
         <v>273</v>
       </c>
       <c r="E176" s="14" t="s">
@@ -5576,17 +5850,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="177">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>277</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" t="s">
         <v>271</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" t="s">
         <v>272</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" t="s">
         <v>273</v>
       </c>
       <c r="E177" s="14" t="s">
@@ -5596,17 +5870,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="178">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>278</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" t="s">
         <v>279</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" t="s">
         <v>280</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" t="s">
         <v>281</v>
       </c>
       <c r="E178" s="15" t="s">
@@ -5616,17 +5890,17 @@
         <v>283</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="179">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>284</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" t="s">
         <v>271</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" t="s">
         <v>272</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" t="s">
         <v>273</v>
       </c>
       <c r="E179" s="14" t="s">
@@ -5636,17 +5910,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="180">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>285</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" t="s">
         <v>271</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" t="s">
         <v>272</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" t="s">
         <v>273</v>
       </c>
       <c r="E180" s="14" t="s">
@@ -5656,17 +5930,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="181">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>286</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" t="s">
         <v>271</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" t="s">
         <v>272</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" t="s">
         <v>273</v>
       </c>
       <c r="E181" s="14" t="s">
@@ -5676,17 +5950,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="182">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>287</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" t="s">
         <v>271</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" t="s">
         <v>272</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" t="s">
         <v>273</v>
       </c>
       <c r="E182" s="14" t="s">
@@ -5696,17 +5970,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="183">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>288</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" t="s">
         <v>271</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" t="s">
         <v>272</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" t="s">
         <v>273</v>
       </c>
       <c r="E183" s="14" t="s">
@@ -5716,17 +5990,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="184">
-      <c r="A184" s="0" t="s">
+    <row r="184" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>289</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" t="s">
         <v>271</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" t="s">
         <v>272</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" t="s">
         <v>273</v>
       </c>
       <c r="E184" s="14" t="s">
@@ -5736,17 +6010,17 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="185">
-      <c r="A185" s="0" t="s">
+    <row r="185" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>290</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" t="s">
         <v>271</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" t="s">
         <v>272</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" t="s">
         <v>273</v>
       </c>
       <c r="E185" s="14" t="s">
@@ -5756,8 +6030,8 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>291</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -5767,8 +6041,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>294</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -5778,8 +6052,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>296</v>
       </c>
       <c r="B188" s="5" t="s">
@@ -5789,17 +6063,17 @@
         <v>298</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="189">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>299</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" t="s">
         <v>300</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" t="s">
         <v>293</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" t="s">
         <v>281</v>
       </c>
       <c r="E189" s="15" t="s">
@@ -5809,8 +6083,8 @@
         <v>302</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>303</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -5820,8 +6094,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>305</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -5831,8 +6105,8 @@
         <v>307</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>308</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -5842,8 +6116,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>310</v>
       </c>
       <c r="B193" s="5" t="s">
@@ -5853,8 +6127,8 @@
         <v>307</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>312</v>
       </c>
       <c r="B194" s="5" t="s">
@@ -5864,8 +6138,8 @@
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>315</v>
       </c>
       <c r="B195" s="5" t="s">
@@ -5875,8 +6149,8 @@
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>316</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -5886,8 +6160,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>318</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -5897,8 +6171,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>320</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -5908,8 +6182,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>322</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -5919,8 +6193,8 @@
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>324</v>
       </c>
       <c r="B200" s="5" t="s">
@@ -5930,8 +6204,8 @@
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>327</v>
       </c>
       <c r="B201" s="5" t="s">
@@ -5941,3312 +6215,3303 @@
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="202">
-      <c r="A202" s="0" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>329</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" t="s">
         <v>330</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" t="s">
         <v>40</v>
       </c>
       <c r="E202" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>332</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" t="s">
         <v>333</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" t="s">
         <v>40</v>
       </c>
       <c r="E203" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
-      <c r="A204" s="0" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>334</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" t="s">
         <v>335</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" t="s">
         <v>40</v>
       </c>
       <c r="E204" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
-      <c r="A205" s="0" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>336</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" t="s">
         <v>335</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" t="s">
         <v>40</v>
       </c>
       <c r="E205" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
-      <c r="A206" s="0" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>337</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" t="s">
         <v>338</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" t="s">
         <v>40</v>
       </c>
       <c r="E206" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
-      <c r="A207" s="0" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>339</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" t="s">
         <v>340</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" t="s">
         <v>40</v>
       </c>
       <c r="E207" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>341</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" t="s">
         <v>342</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" t="s">
         <v>40</v>
       </c>
       <c r="E208" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
-      <c r="A209" s="0" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>343</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" t="s">
         <v>344</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" t="s">
         <v>40</v>
       </c>
       <c r="E209" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
-      <c r="A210" s="0" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>345</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" t="s">
         <v>335</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" t="s">
         <v>40</v>
       </c>
       <c r="E210" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
-      <c r="A211" s="0" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>346</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" t="s">
         <v>335</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" t="s">
         <v>40</v>
       </c>
       <c r="E211" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
-      <c r="A212" s="0" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>347</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" t="s">
         <v>335</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" t="s">
         <v>40</v>
       </c>
       <c r="E212" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>348</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" t="s">
         <v>335</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" t="s">
         <v>40</v>
       </c>
       <c r="E213" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
-      <c r="A214" s="0" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>349</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" t="s">
         <v>335</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" t="s">
         <v>40</v>
       </c>
       <c r="E214" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
-      <c r="A215" s="0" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>350</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" t="s">
         <v>335</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" t="s">
         <v>40</v>
       </c>
       <c r="E215" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
-      <c r="A216" s="0" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>351</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" t="s">
         <v>335</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" t="s">
         <v>40</v>
       </c>
       <c r="E216" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
-      <c r="A217" s="0" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>352</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" t="s">
         <v>335</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" t="s">
         <v>40</v>
       </c>
       <c r="E217" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
-      <c r="A218" s="0" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>353</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" t="s">
         <v>344</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" t="s">
         <v>40</v>
       </c>
       <c r="E218" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
-      <c r="A219" s="0" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>354</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" t="s">
         <v>355</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" t="s">
         <v>40</v>
       </c>
       <c r="E219" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
-      <c r="A220" s="0" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>356</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" t="s">
         <v>340</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" t="s">
         <v>40</v>
       </c>
       <c r="E220" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
-      <c r="A221" s="0" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>357</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" t="s">
         <v>344</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" t="s">
         <v>40</v>
       </c>
       <c r="E221" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
-      <c r="A222" s="0" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>358</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" t="s">
         <v>344</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" t="s">
         <v>40</v>
       </c>
       <c r="E222" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
-      <c r="A223" s="0" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>359</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" t="s">
         <v>344</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" t="s">
         <v>40</v>
       </c>
       <c r="E223" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
-      <c r="A224" s="0" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>360</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" t="s">
         <v>344</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" t="s">
         <v>40</v>
       </c>
       <c r="E224" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
-      <c r="A225" s="0" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>361</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" t="s">
         <v>344</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" t="s">
         <v>40</v>
       </c>
       <c r="E225" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
-      <c r="A226" s="0" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>362</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" t="s">
         <v>335</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" t="s">
         <v>40</v>
       </c>
       <c r="E226" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
-      <c r="A227" s="0" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>363</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" t="s">
         <v>335</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" t="s">
         <v>40</v>
       </c>
       <c r="E227" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
-      <c r="A228" s="0" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>364</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" t="s">
         <v>365</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" t="s">
         <v>40</v>
       </c>
       <c r="E228" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
-      <c r="A229" s="0" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>366</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" t="s">
         <v>365</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" t="s">
         <v>40</v>
       </c>
       <c r="E229" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
-      <c r="A230" s="0" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>367</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" t="s">
         <v>335</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" t="s">
         <v>40</v>
       </c>
       <c r="E230" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
-      <c r="A231" s="0" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>368</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" t="s">
         <v>335</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" t="s">
         <v>40</v>
       </c>
       <c r="E231" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
-      <c r="A232" s="0" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>369</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" t="s">
         <v>335</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" t="s">
         <v>40</v>
       </c>
       <c r="E232" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
-      <c r="A233" s="0" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>370</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" t="s">
         <v>335</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" t="s">
         <v>40</v>
       </c>
       <c r="E233" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
-      <c r="A234" s="0" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>371</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" t="s">
         <v>335</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" t="s">
         <v>40</v>
       </c>
       <c r="E234" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
-      <c r="A235" s="0" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>372</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" t="s">
         <v>335</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" t="s">
         <v>40</v>
       </c>
       <c r="E235" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
-      <c r="A236" s="0" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>373</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" t="s">
         <v>335</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" t="s">
         <v>40</v>
       </c>
       <c r="E236" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
-      <c r="A237" s="0" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>374</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" t="s">
         <v>335</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" t="s">
         <v>40</v>
       </c>
       <c r="E237" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
-      <c r="A238" s="0" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>375</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" t="s">
         <v>335</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" t="s">
         <v>40</v>
       </c>
       <c r="E238" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
-      <c r="A239" s="0" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>376</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" t="s">
         <v>335</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" t="s">
         <v>40</v>
       </c>
       <c r="E239" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
-      <c r="A240" s="0" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>377</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" t="s">
         <v>335</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" t="s">
         <v>40</v>
       </c>
       <c r="E240" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
-      <c r="A241" s="0" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>378</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" t="s">
         <v>335</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" t="s">
         <v>40</v>
       </c>
       <c r="E241" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
-      <c r="A242" s="0" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>379</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" t="s">
         <v>335</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C242" t="s">
         <v>40</v>
       </c>
       <c r="E242" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
-      <c r="A243" s="0" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>380</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" t="s">
         <v>381</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" t="s">
         <v>40</v>
       </c>
       <c r="E243" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
-      <c r="A244" s="0" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>382</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" t="s">
         <v>340</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="C244" t="s">
         <v>40</v>
       </c>
       <c r="E244" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
-      <c r="A245" s="0" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>383</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" t="s">
         <v>384</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="C245" t="s">
         <v>40</v>
       </c>
       <c r="E245" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
-      <c r="A246" s="0" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>385</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" t="s">
         <v>384</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" t="s">
         <v>40</v>
       </c>
       <c r="E246" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
-      <c r="A247" s="0" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>386</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" t="s">
         <v>384</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" t="s">
         <v>40</v>
       </c>
       <c r="E247" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
-      <c r="A248" s="0" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>387</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" t="s">
         <v>384</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" t="s">
         <v>40</v>
       </c>
       <c r="E248" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
-      <c r="A249" s="0" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>388</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" t="s">
         <v>389</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" t="s">
         <v>40</v>
       </c>
       <c r="E249" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
-      <c r="A250" s="0" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>390</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" t="s">
         <v>384</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C250" t="s">
         <v>40</v>
       </c>
       <c r="E250" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
-      <c r="A251" s="0" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>391</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" t="s">
         <v>384</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C251" t="s">
         <v>40</v>
       </c>
       <c r="E251" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
-      <c r="A252" s="0" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>392</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" t="s">
         <v>384</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" t="s">
         <v>40</v>
       </c>
       <c r="E252" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
-      <c r="A253" s="0" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>393</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" t="s">
         <v>384</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" t="s">
         <v>40</v>
       </c>
       <c r="E253" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
-      <c r="A254" s="0" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>394</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" t="s">
         <v>389</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C254" t="s">
         <v>40</v>
       </c>
       <c r="E254" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
-      <c r="A255" s="0" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>395</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" t="s">
         <v>335</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="C255" t="s">
         <v>40</v>
       </c>
       <c r="E255" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
-      <c r="A256" s="0" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>396</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" t="s">
         <v>381</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C256" t="s">
         <v>40</v>
       </c>
       <c r="E256" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
-      <c r="A257" s="0" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>397</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" t="s">
         <v>340</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="C257" t="s">
         <v>40</v>
       </c>
       <c r="E257" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
-      <c r="A258" s="0" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>398</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B258" t="s">
         <v>384</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C258" t="s">
         <v>40</v>
       </c>
       <c r="E258" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
-      <c r="A259" s="0" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>399</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" t="s">
         <v>384</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C259" t="s">
         <v>40</v>
       </c>
       <c r="E259" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
-      <c r="A260" s="0" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>400</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="B260" t="s">
         <v>384</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="C260" t="s">
         <v>40</v>
       </c>
       <c r="E260" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
-      <c r="A261" s="0" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>401</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" t="s">
         <v>384</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C261" t="s">
         <v>40</v>
       </c>
       <c r="E261" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
-      <c r="A262" s="0" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>402</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="B262" t="s">
         <v>389</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="C262" t="s">
         <v>40</v>
       </c>
       <c r="E262" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
-      <c r="A263" s="0" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>403</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" t="s">
         <v>40</v>
       </c>
       <c r="E263" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
-      <c r="A264" s="0" t="s">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>404</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="B264" t="s">
         <v>384</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="C264" t="s">
         <v>40</v>
       </c>
       <c r="E264" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
-      <c r="A265" s="0" t="s">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>405</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="B265" t="s">
         <v>384</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="C265" t="s">
         <v>40</v>
       </c>
       <c r="E265" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
-      <c r="A266" s="0" t="s">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>406</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="B266" t="s">
         <v>384</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="C266" t="s">
         <v>40</v>
       </c>
       <c r="E266" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
-      <c r="A267" s="0" t="s">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>407</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="B267" t="s">
         <v>389</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C267" t="s">
         <v>40</v>
       </c>
       <c r="E267" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
-      <c r="A268" s="0" t="s">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>408</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B268" t="s">
         <v>335</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" t="s">
         <v>40</v>
       </c>
       <c r="E268" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
-      <c r="A269" s="0" t="s">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>409</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="B269" t="s">
         <v>381</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="C269" t="s">
         <v>40</v>
       </c>
       <c r="E269" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
-      <c r="A270" s="0" t="s">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>410</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="B270" t="s">
         <v>340</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="C270" t="s">
         <v>40</v>
       </c>
       <c r="E270" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
-      <c r="A271" s="0" t="s">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>411</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" t="s">
         <v>384</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="C271" t="s">
         <v>40</v>
       </c>
       <c r="E271" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
-      <c r="A272" s="0" t="s">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>412</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="B272" t="s">
         <v>384</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="C272" t="s">
         <v>40</v>
       </c>
       <c r="E272" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
-      <c r="A273" s="0" t="s">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>413</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="B273" t="s">
         <v>384</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="C273" t="s">
         <v>40</v>
       </c>
       <c r="E273" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
-      <c r="A274" s="0" t="s">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>414</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" t="s">
         <v>384</v>
       </c>
-      <c r="C274" s="0" t="s">
+      <c r="C274" t="s">
         <v>40</v>
       </c>
       <c r="E274" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
-      <c r="A275" s="0" t="s">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>415</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="B275" t="s">
         <v>389</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="C275" t="s">
         <v>40</v>
       </c>
       <c r="E275" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
-      <c r="A276" s="0" t="s">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>416</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="B276" t="s">
         <v>384</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="C276" t="s">
         <v>40</v>
       </c>
       <c r="E276" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
-      <c r="A277" s="0" t="s">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>417</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" t="s">
         <v>384</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="C277" t="s">
         <v>40</v>
       </c>
       <c r="E277" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
-      <c r="A278" s="0" t="s">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>418</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="B278" t="s">
         <v>384</v>
       </c>
-      <c r="C278" s="0" t="s">
+      <c r="C278" t="s">
         <v>40</v>
       </c>
       <c r="E278" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
-      <c r="A279" s="0" t="s">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>419</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B279" t="s">
         <v>384</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="C279" t="s">
         <v>40</v>
       </c>
       <c r="E279" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
-      <c r="A280" s="0" t="s">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>420</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="B280" t="s">
         <v>389</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="C280" t="s">
         <v>40</v>
       </c>
       <c r="E280" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
-      <c r="A281" s="0" t="s">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>421</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="B281" t="s">
         <v>335</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="C281" t="s">
         <v>40</v>
       </c>
       <c r="E281" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
-      <c r="A282" s="0" t="s">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>422</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="B282" t="s">
         <v>381</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="C282" t="s">
         <v>40</v>
       </c>
       <c r="E282" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
-      <c r="A283" s="0" t="s">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>423</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="B283" t="s">
         <v>340</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="C283" t="s">
         <v>40</v>
       </c>
       <c r="E283" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
-      <c r="A284" s="0" t="s">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>424</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="B284" t="s">
         <v>384</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="C284" t="s">
         <v>40</v>
       </c>
       <c r="E284" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
-      <c r="A285" s="0" t="s">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>425</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="B285" t="s">
         <v>384</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="C285" t="s">
         <v>40</v>
       </c>
       <c r="E285" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
-      <c r="A286" s="0" t="s">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>426</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B286" t="s">
         <v>384</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="C286" t="s">
         <v>40</v>
       </c>
       <c r="E286" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
-      <c r="A287" s="0" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>427</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="B287" t="s">
         <v>384</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="C287" t="s">
         <v>40</v>
       </c>
       <c r="E287" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
-      <c r="A288" s="0" t="s">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>428</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B288" t="s">
         <v>389</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="C288" t="s">
         <v>40</v>
       </c>
       <c r="E288" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
-      <c r="A289" s="0" t="s">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>429</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B289" t="s">
         <v>384</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="C289" t="s">
         <v>40</v>
       </c>
       <c r="E289" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
-      <c r="A290" s="0" t="s">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>430</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B290" t="s">
         <v>384</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="C290" t="s">
         <v>40</v>
       </c>
       <c r="E290" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
-      <c r="A291" s="0" t="s">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>431</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="B291" t="s">
         <v>384</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="C291" t="s">
         <v>40</v>
       </c>
       <c r="E291" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
-      <c r="A292" s="0" t="s">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>432</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="B292" t="s">
         <v>384</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="C292" t="s">
         <v>40</v>
       </c>
       <c r="E292" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
-      <c r="A293" s="0" t="s">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>433</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="B293" t="s">
         <v>389</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="C293" t="s">
         <v>40</v>
       </c>
       <c r="E293" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
-      <c r="A294" s="0" t="s">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>434</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="B294" t="s">
         <v>435</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="C294" t="s">
         <v>40</v>
       </c>
       <c r="E294" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
-      <c r="A295" s="0" t="s">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>436</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="B295" t="s">
         <v>384</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="C295" t="s">
         <v>40</v>
       </c>
       <c r="E295" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="296">
-      <c r="A296" s="0" t="s">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>437</v>
       </c>
       <c r="B296" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C296" t="s">
         <v>438</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="D296" t="s">
         <v>439</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="E296" s="17"/>
       <c r="F296" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="297">
-      <c r="A297" s="0" t="s">
-        <v>442</v>
-      </c>
       <c r="B297" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C297" t="s">
         <v>438</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="D297" t="s">
         <v>439</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="E297" s="17"/>
       <c r="F297" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="298">
-      <c r="A298" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>442</v>
+      </c>
+      <c r="B298" t="s">
         <v>443</v>
       </c>
-      <c r="B298" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C298" s="0" t="s">
+      <c r="C298" t="s">
+        <v>438</v>
+      </c>
+      <c r="D298" t="s">
         <v>439</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="E298" s="17"/>
       <c r="F298" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="299">
-      <c r="A299" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B299" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>444</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="B299" t="s">
+        <v>443</v>
+      </c>
+      <c r="C299" t="s">
+        <v>438</v>
+      </c>
+      <c r="D299" t="s">
         <v>439</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="E299" s="17"/>
       <c r="F299" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="300">
-      <c r="A300" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C300" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>445</v>
+      </c>
+      <c r="B300" t="s">
+        <v>443</v>
+      </c>
+      <c r="C300" t="s">
+        <v>438</v>
+      </c>
+      <c r="D300" t="s">
         <v>439</v>
-      </c>
-      <c r="D300" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="E300" s="17"/>
       <c r="F300" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
-      <c r="A301" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>446</v>
+      </c>
+      <c r="B301" t="s">
+        <v>344</v>
+      </c>
+      <c r="C301" t="s">
+        <v>40</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>447</v>
       </c>
-      <c r="B301" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E301" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
-      <c r="A302" s="0" t="s">
+      <c r="B302" t="s">
+        <v>384</v>
+      </c>
+      <c r="C302" t="s">
+        <v>40</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>448</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B303" t="s">
         <v>384</v>
       </c>
-      <c r="C302" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E302" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
-      <c r="A303" s="0" t="s">
+      <c r="C303" t="s">
+        <v>40</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>449</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B304" t="s">
         <v>384</v>
       </c>
-      <c r="C303" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E303" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
-      <c r="A304" s="0" t="s">
+      <c r="C304" t="s">
+        <v>40</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>450</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="B305" t="s">
         <v>384</v>
       </c>
-      <c r="C304" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
-      <c r="A305" s="0" t="s">
+      <c r="C305" t="s">
+        <v>40</v>
+      </c>
+      <c r="E305" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>451</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="B306" t="s">
         <v>384</v>
       </c>
-      <c r="C305" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
-      <c r="A306" s="0" t="s">
+      <c r="C306" t="s">
+        <v>40</v>
+      </c>
+      <c r="E306" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>452</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="B307" t="s">
         <v>384</v>
       </c>
-      <c r="C306" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
-      <c r="A307" s="0" t="s">
+      <c r="C307" t="s">
+        <v>40</v>
+      </c>
+      <c r="E307" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>453</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="B308" t="s">
         <v>384</v>
       </c>
-      <c r="C307" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E307" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
-      <c r="A308" s="0" t="s">
+      <c r="C308" t="s">
+        <v>40</v>
+      </c>
+      <c r="E308" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>454</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="B309" t="s">
         <v>384</v>
       </c>
-      <c r="C308" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E308" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
-      <c r="A309" s="0" t="s">
+      <c r="C309" t="s">
+        <v>40</v>
+      </c>
+      <c r="E309" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>455</v>
       </c>
-      <c r="B309" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
-      <c r="A310" s="0" t="s">
+      <c r="B310" t="s">
+        <v>335</v>
+      </c>
+      <c r="C310" t="s">
+        <v>40</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>456</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="B311" t="s">
         <v>335</v>
       </c>
-      <c r="C310" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
-      <c r="A311" s="0" t="s">
+      <c r="C311" t="s">
+        <v>40</v>
+      </c>
+      <c r="E311" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>631</v>
+      </c>
+      <c r="B312" t="s">
+        <v>338</v>
+      </c>
+      <c r="C312" t="s">
+        <v>40</v>
+      </c>
+      <c r="E312" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>457</v>
       </c>
-      <c r="B311" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="312">
-      <c r="A312" s="0" t="s">
+      <c r="B313" t="s">
         <v>458</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="C313" t="s">
         <v>459</v>
       </c>
-      <c r="C312" s="0" t="s">
+      <c r="E313" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="E312" s="12" t="s">
+      <c r="F313" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="F312" s="9" t="s">
+    </row>
+    <row r="314" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="313">
-      <c r="A313" s="0" t="s">
+      <c r="B314" t="s">
         <v>463</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="C314" t="s">
         <v>464</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="D314" t="s">
         <v>465</v>
       </c>
-      <c r="D313" s="0" t="s">
+      <c r="E314" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E313" s="8" t="s">
+      <c r="F314" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F313" s="9" t="s">
+    </row>
+    <row r="315" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="314">
-      <c r="A314" s="0" t="s">
+      <c r="B315" t="s">
         <v>469</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="C315" t="s">
         <v>470</v>
       </c>
-      <c r="C314" s="0" t="s">
+      <c r="E315" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="E314" s="11" t="s">
+      <c r="F315" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="F314" s="9" t="s">
+    </row>
+    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="315">
-      <c r="A315" s="0" t="s">
+      <c r="B316" t="s">
         <v>474</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="C316" t="s">
         <v>475</v>
       </c>
-      <c r="C315" s="0" t="s">
+      <c r="D316" t="s">
         <v>476</v>
       </c>
-      <c r="D315" s="0" t="s">
+      <c r="E316" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="E315" s="11" t="s">
+      <c r="F316" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F315" s="18" t="s">
+    </row>
+    <row r="317" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="316">
-      <c r="A316" s="0" t="s">
+      <c r="B317" t="s">
         <v>480</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="C317" t="s">
         <v>481</v>
       </c>
-      <c r="C316" s="0" t="s">
+      <c r="D317" t="s">
         <v>482</v>
       </c>
-      <c r="D316" s="0" t="s">
+      <c r="E317" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="E316" s="11" t="s">
+      <c r="F317" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F316" s="9" t="s">
+    </row>
+    <row r="318" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="317">
-      <c r="A317" s="0" t="s">
+      <c r="B318" t="s">
         <v>486</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="C318" t="s">
+        <v>459</v>
+      </c>
+      <c r="D318" t="s">
         <v>487</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="E318" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="D317" s="0" t="s">
+      <c r="F318" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>488</v>
       </c>
-      <c r="E317" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="F317" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="318">
-      <c r="A318" s="0" t="s">
+      <c r="B319" t="s">
+        <v>463</v>
+      </c>
+      <c r="C319" t="s">
+        <v>464</v>
+      </c>
+      <c r="D319" t="s">
+        <v>465</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F319" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>489</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="B320" t="s">
+        <v>463</v>
+      </c>
+      <c r="C320" t="s">
         <v>464</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="D320" t="s">
         <v>465</v>
       </c>
-      <c r="D318" s="0" t="s">
+      <c r="E320" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E318" s="8" t="s">
+      <c r="F320" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F318" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="319">
-      <c r="A319" s="0" t="s">
+    </row>
+    <row r="321" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>490</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B321" t="s">
+        <v>463</v>
+      </c>
+      <c r="C321" t="s">
         <v>464</v>
       </c>
-      <c r="C319" s="0" t="s">
+      <c r="D321" t="s">
         <v>465</v>
       </c>
-      <c r="D319" s="0" t="s">
+      <c r="E321" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E319" s="8" t="s">
+      <c r="F321" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F319" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="320">
-      <c r="A320" s="0" t="s">
+    </row>
+    <row r="322" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>491</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="B322" t="s">
+        <v>463</v>
+      </c>
+      <c r="C322" t="s">
         <v>464</v>
       </c>
-      <c r="C320" s="0" t="s">
+      <c r="D322" t="s">
         <v>465</v>
       </c>
-      <c r="D320" s="0" t="s">
+      <c r="E322" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E320" s="8" t="s">
+      <c r="F322" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F320" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="321">
-      <c r="A321" s="0" t="s">
+    </row>
+    <row r="323" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>492</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="B323" t="s">
+        <v>493</v>
+      </c>
+      <c r="C323" t="s">
+        <v>494</v>
+      </c>
+      <c r="D323" t="s">
+        <v>155</v>
+      </c>
+      <c r="E323" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F323" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>497</v>
+      </c>
+      <c r="B324" t="s">
+        <v>498</v>
+      </c>
+      <c r="C324" t="s">
         <v>464</v>
       </c>
-      <c r="C321" s="0" t="s">
+      <c r="D324" t="s">
+        <v>482</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F324" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>501</v>
+      </c>
+      <c r="B325" t="s">
+        <v>498</v>
+      </c>
+      <c r="C325" t="s">
+        <v>464</v>
+      </c>
+      <c r="D325" t="s">
+        <v>482</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F325" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>502</v>
+      </c>
+      <c r="B326" t="s">
+        <v>498</v>
+      </c>
+      <c r="C326" t="s">
+        <v>464</v>
+      </c>
+      <c r="D326" t="s">
+        <v>482</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>503</v>
+      </c>
+      <c r="B327" t="s">
+        <v>498</v>
+      </c>
+      <c r="C327" t="s">
+        <v>464</v>
+      </c>
+      <c r="D327" t="s">
+        <v>482</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F327" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>504</v>
+      </c>
+      <c r="B328" t="s">
+        <v>480</v>
+      </c>
+      <c r="C328" t="s">
+        <v>481</v>
+      </c>
+      <c r="D328" t="s">
+        <v>482</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F328" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>505</v>
+      </c>
+      <c r="B329" t="s">
+        <v>506</v>
+      </c>
+      <c r="C329" t="s">
+        <v>507</v>
+      </c>
+      <c r="D329" t="s">
+        <v>508</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>511</v>
+      </c>
+      <c r="B330" t="s">
+        <v>512</v>
+      </c>
+      <c r="C330" t="s">
+        <v>513</v>
+      </c>
+      <c r="D330" t="s">
+        <v>514</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>516</v>
+      </c>
+      <c r="B331" t="s">
+        <v>463</v>
+      </c>
+      <c r="C331" t="s">
+        <v>464</v>
+      </c>
+      <c r="D331" t="s">
         <v>465</v>
       </c>
-      <c r="D321" s="0" t="s">
+      <c r="E331" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E321" s="8" t="s">
+      <c r="F331" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F321" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="322">
-      <c r="A322" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E322" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F322" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="323">
-      <c r="A323" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="C323" s="0" t="s">
+    </row>
+    <row r="332" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>517</v>
+      </c>
+      <c r="B332" t="s">
+        <v>518</v>
+      </c>
+      <c r="C332" t="s">
+        <v>464</v>
+      </c>
+      <c r="D332" t="s">
         <v>465</v>
       </c>
-      <c r="D323" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E323" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F323" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="324">
-      <c r="A324" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="C324" s="0" t="s">
+      <c r="E332" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F332" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>521</v>
+      </c>
+      <c r="B333" t="s">
+        <v>463</v>
+      </c>
+      <c r="C333" t="s">
+        <v>464</v>
+      </c>
+      <c r="D333" t="s">
         <v>465</v>
       </c>
-      <c r="D324" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E324" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F324" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="325">
-      <c r="A325" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="C325" s="0" t="s">
+      <c r="E333" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F333" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>522</v>
+      </c>
+      <c r="B334" t="s">
+        <v>463</v>
+      </c>
+      <c r="C334" t="s">
+        <v>464</v>
+      </c>
+      <c r="D334" t="s">
         <v>465</v>
       </c>
-      <c r="D325" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E325" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F325" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="326">
-      <c r="A326" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="C326" s="0" t="s">
+      <c r="E334" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F334" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>523</v>
+      </c>
+      <c r="B335" t="s">
+        <v>518</v>
+      </c>
+      <c r="C335" t="s">
+        <v>464</v>
+      </c>
+      <c r="D335" t="s">
         <v>465</v>
       </c>
-      <c r="D326" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F326" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="327">
-      <c r="A327" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E327" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="F327" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="328">
-      <c r="A328" s="0" t="s">
+      <c r="E335" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F335" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>524</v>
+      </c>
+      <c r="B336" t="s">
+        <v>463</v>
+      </c>
+      <c r="C336" t="s">
+        <v>464</v>
+      </c>
+      <c r="D336" t="s">
+        <v>465</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F336" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>525</v>
+      </c>
+      <c r="B337" t="s">
+        <v>526</v>
+      </c>
+      <c r="C337" t="s">
+        <v>527</v>
+      </c>
+      <c r="D337" t="s">
+        <v>528</v>
+      </c>
+      <c r="E337" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F337" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>531</v>
+      </c>
+      <c r="B338" t="s">
+        <v>526</v>
+      </c>
+      <c r="C338" t="s">
+        <v>527</v>
+      </c>
+      <c r="D338" t="s">
+        <v>528</v>
+      </c>
+      <c r="E338" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F338" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>533</v>
+      </c>
+      <c r="B339" t="s">
+        <v>526</v>
+      </c>
+      <c r="C339" t="s">
+        <v>527</v>
+      </c>
+      <c r="D339" t="s">
+        <v>528</v>
+      </c>
+      <c r="E339" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F339" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>535</v>
+      </c>
+      <c r="B340" t="s">
+        <v>526</v>
+      </c>
+      <c r="C340" t="s">
+        <v>527</v>
+      </c>
+      <c r="D340" t="s">
+        <v>528</v>
+      </c>
+      <c r="E340" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F340" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>537</v>
+      </c>
+      <c r="B341" t="s">
+        <v>526</v>
+      </c>
+      <c r="C341" t="s">
+        <v>527</v>
+      </c>
+      <c r="D341" t="s">
+        <v>528</v>
+      </c>
+      <c r="E341" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F341" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>539</v>
+      </c>
+      <c r="B342" t="s">
+        <v>526</v>
+      </c>
+      <c r="C342" t="s">
+        <v>527</v>
+      </c>
+      <c r="D342" t="s">
+        <v>528</v>
+      </c>
+      <c r="E342" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F342" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>541</v>
+      </c>
+      <c r="B343" t="s">
+        <v>526</v>
+      </c>
+      <c r="C343" t="s">
+        <v>527</v>
+      </c>
+      <c r="D343" t="s">
+        <v>528</v>
+      </c>
+      <c r="E343" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F343" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>543</v>
+      </c>
+      <c r="B344" t="s">
+        <v>526</v>
+      </c>
+      <c r="C344" t="s">
+        <v>527</v>
+      </c>
+      <c r="D344" t="s">
+        <v>528</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F344" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>545</v>
+      </c>
+      <c r="B345" t="s">
+        <v>526</v>
+      </c>
+      <c r="C345" t="s">
+        <v>527</v>
+      </c>
+      <c r="D345" t="s">
+        <v>528</v>
+      </c>
+      <c r="E345" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F345" s="18" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>547</v>
+      </c>
+      <c r="B346" t="s">
+        <v>526</v>
+      </c>
+      <c r="C346" t="s">
+        <v>527</v>
+      </c>
+      <c r="D346" t="s">
+        <v>528</v>
+      </c>
+      <c r="E346" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F346" s="18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>549</v>
+      </c>
+      <c r="B347" t="s">
+        <v>526</v>
+      </c>
+      <c r="C347" t="s">
+        <v>527</v>
+      </c>
+      <c r="D347" t="s">
+        <v>528</v>
+      </c>
+      <c r="E347" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F347" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>551</v>
+      </c>
+      <c r="B348" t="s">
+        <v>526</v>
+      </c>
+      <c r="C348" t="s">
+        <v>527</v>
+      </c>
+      <c r="D348" t="s">
+        <v>528</v>
+      </c>
+      <c r="E348" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F348" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>553</v>
+      </c>
+      <c r="B349" t="s">
+        <v>463</v>
+      </c>
+      <c r="C349" t="s">
+        <v>464</v>
+      </c>
+      <c r="D349" t="s">
+        <v>465</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>554</v>
+      </c>
+      <c r="B350" t="s">
+        <v>463</v>
+      </c>
+      <c r="C350" t="s">
+        <v>464</v>
+      </c>
+      <c r="D350" t="s">
+        <v>465</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>555</v>
+      </c>
+      <c r="B351" t="s">
         <v>506</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="C351" t="s">
         <v>507</v>
       </c>
-      <c r="C328" s="0" t="s">
+      <c r="D351" t="s">
         <v>508</v>
       </c>
-      <c r="D328" s="0" t="s">
+      <c r="E351" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="E328" s="11" t="s">
+      <c r="F351" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F328" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="329">
-      <c r="A329" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="E329" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="F329" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="330">
-      <c r="A330" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="B330" s="0" t="s">
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F352" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F353" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>562</v>
+      </c>
+      <c r="B354" t="s">
+        <v>463</v>
+      </c>
+      <c r="C354" t="s">
         <v>464</v>
       </c>
-      <c r="C330" s="0" t="s">
+      <c r="D354" t="s">
         <v>465</v>
       </c>
-      <c r="D330" s="0" t="s">
+      <c r="E354" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E330" s="8" t="s">
+      <c r="F354" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F330" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="331">
-      <c r="A331" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="C331" s="0" t="s">
+    </row>
+    <row r="355" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>563</v>
+      </c>
+      <c r="B355" t="s">
+        <v>463</v>
+      </c>
+      <c r="C355" t="s">
+        <v>464</v>
+      </c>
+      <c r="D355" t="s">
         <v>465</v>
       </c>
-      <c r="D331" s="0" t="s">
+      <c r="E355" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E331" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="F331" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="332">
-      <c r="A332" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="B332" s="0" t="s">
+      <c r="F355" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>564</v>
+      </c>
+      <c r="B356" t="s">
+        <v>506</v>
+      </c>
+      <c r="C356" t="s">
+        <v>507</v>
+      </c>
+      <c r="D356" t="s">
+        <v>508</v>
+      </c>
+      <c r="E356" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F357" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>567</v>
+      </c>
+      <c r="B359" t="s">
+        <v>463</v>
+      </c>
+      <c r="C359" t="s">
         <v>464</v>
       </c>
-      <c r="C332" s="0" t="s">
+      <c r="D359" t="s">
         <v>465</v>
       </c>
-      <c r="D332" s="0" t="s">
+      <c r="E359" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E332" s="8" t="s">
+      <c r="F359" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F332" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="333">
-      <c r="A333" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="B333" s="0" t="s">
+    </row>
+    <row r="360" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>568</v>
+      </c>
+      <c r="B360" t="s">
+        <v>463</v>
+      </c>
+      <c r="C360" t="s">
         <v>464</v>
       </c>
-      <c r="C333" s="0" t="s">
+      <c r="D360" t="s">
         <v>465</v>
       </c>
-      <c r="D333" s="0" t="s">
+      <c r="E360" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E333" s="8" t="s">
+      <c r="F360" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F333" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="334">
-      <c r="A334" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="C334" s="0" t="s">
+    </row>
+    <row r="361" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>569</v>
+      </c>
+      <c r="B361" t="s">
+        <v>506</v>
+      </c>
+      <c r="C361" t="s">
+        <v>507</v>
+      </c>
+      <c r="D361" t="s">
+        <v>508</v>
+      </c>
+      <c r="E361" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F363" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>572</v>
+      </c>
+      <c r="B364" t="s">
+        <v>463</v>
+      </c>
+      <c r="C364" t="s">
+        <v>464</v>
+      </c>
+      <c r="D364" t="s">
         <v>465</v>
       </c>
-      <c r="D334" s="0" t="s">
+      <c r="E364" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E334" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="F334" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="335">
-      <c r="A335" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="B335" s="0" t="s">
+      <c r="F364" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>573</v>
+      </c>
+      <c r="B365" t="s">
+        <v>463</v>
+      </c>
+      <c r="C365" t="s">
         <v>464</v>
       </c>
-      <c r="C335" s="0" t="s">
+      <c r="D365" t="s">
         <v>465</v>
       </c>
-      <c r="D335" s="0" t="s">
+      <c r="E365" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E335" s="8" t="s">
+      <c r="F365" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F335" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="336">
-      <c r="A336" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C336" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D336" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E336" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F336" s="18" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="337">
-      <c r="A337" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C337" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D337" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E337" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F337" s="18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="338">
-      <c r="A338" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C338" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D338" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E338" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F338" s="18" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="339">
-      <c r="A339" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C339" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D339" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E339" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F339" s="18" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="340">
-      <c r="A340" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C340" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D340" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E340" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F340" s="18" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="341">
-      <c r="A341" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C341" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D341" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E341" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F341" s="18" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="342">
-      <c r="A342" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D342" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E342" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F342" s="18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="343">
-      <c r="A343" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C343" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D343" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E343" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F343" s="18" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="344">
-      <c r="A344" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C344" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D344" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E344" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F344" s="18" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="345">
-      <c r="A345" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C345" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D345" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E345" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F345" s="18" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="346">
-      <c r="A346" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C346" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D346" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E346" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F346" s="18" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="347">
-      <c r="A347" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C347" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D347" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E347" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F347" s="18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="348">
-      <c r="A348" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="B348" s="0" t="s">
+    </row>
+    <row r="366" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>574</v>
+      </c>
+      <c r="B366" t="s">
+        <v>506</v>
+      </c>
+      <c r="C366" t="s">
+        <v>507</v>
+      </c>
+      <c r="D366" t="s">
+        <v>508</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F366" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F367" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>577</v>
+      </c>
+      <c r="B369" t="s">
+        <v>578</v>
+      </c>
+      <c r="C369" t="s">
+        <v>579</v>
+      </c>
+      <c r="D369" t="s">
+        <v>580</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="F369" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>583</v>
+      </c>
+      <c r="B370" t="s">
+        <v>463</v>
+      </c>
+      <c r="C370" t="s">
         <v>464</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="D370" t="s">
         <v>465</v>
       </c>
-      <c r="D348" s="0" t="s">
+      <c r="E370" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E348" s="8" t="s">
+      <c r="F370" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F348" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="349">
-      <c r="A349" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C349" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E349" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F349" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="350">
-      <c r="A350" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="C350" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="D350" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="E350" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="F350" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
-      <c r="A351" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E351" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F351" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
-      <c r="A352" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F352" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="353">
-      <c r="A353" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D353" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E353" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F353" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="354">
-      <c r="A354" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C354" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D354" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E354" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F354" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="355">
-      <c r="A355" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="D355" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="E355" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="F355" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
-      <c r="A356" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E356" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F356" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
-      <c r="A357" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F357" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="358">
-      <c r="A358" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C358" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D358" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E358" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F358" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="359">
-      <c r="A359" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C359" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D359" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E359" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F359" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="360">
-      <c r="A360" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="C360" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="D360" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="E360" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="F360" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
-      <c r="A361" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E361" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F361" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
-      <c r="A362" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F362" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="363">
-      <c r="A363" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C363" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D363" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E363" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F363" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="364">
-      <c r="A364" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C364" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D364" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F364" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="365">
-      <c r="A365" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="C365" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="D365" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="E365" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="F365" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
-      <c r="A366" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D366" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E366" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F366" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
-      <c r="A367" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E367" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F367" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="368">
-      <c r="A368" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="C368" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="D368" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="E368" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="F368" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="369">
-      <c r="A369" s="0" t="s">
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>584</v>
       </c>
-      <c r="B369" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C369" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D369" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F369" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
-      <c r="A370" s="0" t="s">
+      <c r="B371" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="C371" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C370" s="5" t="s">
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
-      <c r="A371" s="0" t="s">
+      <c r="B372" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="C372" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
         <v>589</v>
       </c>
-      <c r="C371" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
-      <c r="A372" s="0" t="s">
+      <c r="B373" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="C373" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
         <v>591</v>
       </c>
-      <c r="C372" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
-      <c r="A373" s="0" t="s">
+      <c r="B374" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="C374" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
         <v>593</v>
       </c>
-      <c r="C373" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
-      <c r="A374" s="0" t="s">
+      <c r="B375" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="C375" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C374" s="5" t="s">
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
-      <c r="A375" s="0" t="s">
+      <c r="B376" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="C376" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
         <v>598</v>
       </c>
-      <c r="C375" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
-      <c r="A376" s="0" t="s">
+      <c r="B377" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="C377" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
         <v>600</v>
       </c>
-      <c r="C376" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
-      <c r="A377" s="0" t="s">
+      <c r="B378" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="C378" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
         <v>602</v>
       </c>
-      <c r="C377" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
-      <c r="A378" s="0" t="s">
+      <c r="B379" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
         <v>603</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="B380" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>604</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>605</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>607</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>608</v>
+      </c>
+      <c r="B384" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C378" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
-      <c r="A379" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
-      <c r="A380" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
-      <c r="A381" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
-      <c r="A382" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
-      <c r="A383" s="0" t="s">
+      <c r="C384" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
         <v>609</v>
       </c>
-      <c r="B383" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
-      <c r="A384" s="0" t="s">
+      <c r="B385" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="C385" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>611</v>
       </c>
-      <c r="C384" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
-      <c r="A385" s="0" t="s">
+      <c r="B386" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>612</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="B387" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>614</v>
+      </c>
+      <c r="B388" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C385" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
-      <c r="A386" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="B386" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
-      <c r="A387" s="0" t="s">
+      <c r="C388" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>615</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
-      <c r="A388" s="0" t="s">
+      <c r="B389" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>616</v>
-      </c>
-      <c r="B388" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
-      <c r="A389" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
-      <c r="A390" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>313</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
-      <c r="A391" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>617</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>618</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>619</v>
       </c>
-      <c r="B391" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C391" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
-      <c r="A392" s="0" t="s">
+      <c r="B393" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="C393" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
         <v>621</v>
       </c>
-      <c r="C392" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
-      <c r="A393" s="0" t="s">
+      <c r="B394" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="C394" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>623</v>
       </c>
-      <c r="C393" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
-      <c r="A394" s="0" t="s">
+      <c r="B395" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="C395" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
         <v>625</v>
       </c>
-      <c r="C394" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
-      <c r="A395" s="0" t="s">
+      <c r="B396" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="C396" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>627</v>
       </c>
-      <c r="C395" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
-      <c r="A396" s="0" t="s">
+      <c r="B397" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="C397" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>629</v>
       </c>
-      <c r="C396" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
-      <c r="A397" s="0" t="s">
+      <c r="B398" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B397" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>587</v>
+      <c r="C398" s="5" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://www.digikey.com/product-detail/en/TMK212AB7475KG-T/587-2990-2-ND/2714168" ref="F10" r:id="rId1"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/C1608C0G1H471J/445-1289-2-ND/513775" ref="F11" r:id="rId2"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM188R71C224KA01D/490-3293-1-ND/702834" ref="F13" r:id="rId3"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F14" r:id="rId4"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F15" r:id="rId5"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F16" r:id="rId6"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F17" r:id="rId7"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F18" r:id="rId8"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F19" r:id="rId9"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F20" r:id="rId10"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F21" r:id="rId11"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/GRM155R71C104KA88D/490-3261-1-ND/702802?cur=USD" ref="F22" r:id="rId12"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F23" r:id="rId13"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F24" r:id="rId14"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F25" r:id="rId15"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F26" r:id="rId16"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F27" r:id="rId17"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F28" r:id="rId18"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F29" r:id="rId19"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F30" r:id="rId20"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F31" r:id="rId21"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F32" r:id="rId22"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F33" r:id="rId23"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F34" r:id="rId24"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F35" r:id="rId25"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F36" r:id="rId26"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F37" r:id="rId27"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F38" r:id="rId28"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F39" r:id="rId29"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F40" r:id="rId30"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F41" r:id="rId31"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F42" r:id="rId32"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F43" r:id="rId33"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F44" r:id="rId34"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F45" r:id="rId35"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F46" r:id="rId36"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F47" r:id="rId37"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F48" r:id="rId38"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F49" r:id="rId39"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F50" r:id="rId40"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F51" r:id="rId41"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F52" r:id="rId42"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F53" r:id="rId43"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F54" r:id="rId44"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F55" r:id="rId45"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F56" r:id="rId46"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F57" r:id="rId47"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F58" r:id="rId48"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F59" r:id="rId49"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F60" r:id="rId50"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F61" r:id="rId51"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F62" r:id="rId52"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F63" r:id="rId53"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F64" r:id="rId54"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F65" r:id="rId55"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F66" r:id="rId56"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F67" r:id="rId57"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F68" r:id="rId58"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F69" r:id="rId59"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F70" r:id="rId60"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F71" r:id="rId61"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F72" r:id="rId62"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F73" r:id="rId63"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F74" r:id="rId64"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F75" r:id="rId65"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F76" r:id="rId66"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F77" r:id="rId67"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F78" r:id="rId68"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F79" r:id="rId69"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F80" r:id="rId70"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F81" r:id="rId71"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F82" r:id="rId72"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F83" r:id="rId73"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F84" r:id="rId74"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F85" r:id="rId75"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F86" r:id="rId76"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F87" r:id="rId77"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F88" r:id="rId78"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F89" r:id="rId79"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F90" r:id="rId80"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F91" r:id="rId81"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F92" r:id="rId82"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F93" r:id="rId83"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F94" r:id="rId84"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F95" r:id="rId85"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F96" r:id="rId86"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F97" r:id="rId87"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F98" r:id="rId88"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F99" r:id="rId89"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F100" r:id="rId90"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F101" r:id="rId91"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F102" r:id="rId92"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F103" r:id="rId93"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F104" r:id="rId94"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F105" r:id="rId95"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F106" r:id="rId96"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F107" r:id="rId97"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F108" r:id="rId98"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F109" r:id="rId99"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F110" r:id="rId100"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F111" r:id="rId101"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F112" r:id="rId102"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F113" r:id="rId103"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F114" r:id="rId104"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F115" r:id="rId105"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F116" r:id="rId106"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F117" r:id="rId107"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F118" r:id="rId108"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=DFLS240LDICT-ND" ref="F119" r:id="rId109"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247" ref="F120" r:id="rId110"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356248" ref="F121" r:id="rId111"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356249" ref="F122" r:id="rId112"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356250" ref="F123" r:id="rId113"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356251" ref="F124" r:id="rId114"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356252" ref="F125" r:id="rId115"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356253" ref="F126" r:id="rId116"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356254" ref="F127" r:id="rId117"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356255" ref="F128" r:id="rId118"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356256" ref="F129" r:id="rId119"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356257" ref="F130" r:id="rId120"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356258" ref="F131" r:id="rId121"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356259" ref="F132" r:id="rId122"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356260" ref="F133" r:id="rId123"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356261" ref="F134" r:id="rId124"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356262" ref="F135" r:id="rId125"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356263" ref="F136" r:id="rId126"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356264" ref="F137" r:id="rId127"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356265" ref="F138" r:id="rId128"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356266" ref="F139" r:id="rId129"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356267" ref="F140" r:id="rId130"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356268" ref="F141" r:id="rId131"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356269" ref="F142" r:id="rId132"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356270" ref="F143" r:id="rId133"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356271" ref="F144" r:id="rId134"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356272" ref="F145" r:id="rId135"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356273" ref="F146" r:id="rId136"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356274" ref="F147" r:id="rId137"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356275" ref="F148" r:id="rId138"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356276" ref="F149" r:id="rId139"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356277" ref="F150" r:id="rId140"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F151" r:id="rId141"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356279" ref="F152" r:id="rId142"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356280" ref="F153" r:id="rId143"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F154" r:id="rId144"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F155" r:id="rId145"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F156" r:id="rId146"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F157" r:id="rId147"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F158" r:id="rId148"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F159" r:id="rId149"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F160" r:id="rId150"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F161" r:id="rId151"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/LQH55PN2R2NR0L/490-5266-1-ND/2022072?cur=USD" ref="F168" r:id="rId152"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F169" r:id="rId153"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F170" r:id="rId154"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F171" r:id="rId155"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F172" r:id="rId156"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F173" r:id="rId157"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/PJ-002BH/CP-002BH-ND/408447" ref="F174" r:id="rId158"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F175" r:id="rId159"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F176" r:id="rId160"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F177" r:id="rId161"/>
-    <hyperlink display="http://uk.farnell.com/harwin/m20-9981046/header-2row-10way/dp/1022242" ref="F178" r:id="rId162"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F179" r:id="rId163"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F180" r:id="rId164"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F181" r:id="rId165"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F182" r:id="rId166"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F183" r:id="rId167"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F184" r:id="rId168"/>
-    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F185" r:id="rId169"/>
-    <hyperlink display="http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247" ref="F189" r:id="rId170"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F296" r:id="rId171"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F297" r:id="rId172"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F298" r:id="rId173"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F299" r:id="rId174"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F300" r:id="rId175"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948" ref="F312" r:id="rId176"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F313" r:id="rId177"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/ASE-25.000MHZ-ET/535-9987-1-ND/2001610" ref="F314" r:id="rId178"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LT3480EDD%23PBF-ND" ref="F315" r:id="rId179"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND" ref="F316" r:id="rId180"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948" ref="F317" r:id="rId181"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F318" r:id="rId182"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F319" r:id="rId183"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F320" r:id="rId184"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F321" r:id="rId185"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=74AHC1GU04W5-7DICT-ND" ref="F322" r:id="rId186"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F323" r:id="rId187"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F324" r:id="rId188"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F325" r:id="rId189"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F326" r:id="rId190"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND" ref="F327" r:id="rId191"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F328" r:id="rId192"/>
-    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=SW1026CT-ND" ref="F329" r:id="rId193"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F330" r:id="rId194"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702" ref="F331" r:id="rId195"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F332" r:id="rId196"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F333" r:id="rId197"/>
-    <hyperlink display="http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702" ref="F334" r:id="rId198"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F335" r:id="rId199"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272" ref="F336" r:id="rId200"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235273" ref="F337" r:id="rId201"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235274" ref="F338" r:id="rId202"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235275" ref="F339" r:id="rId203"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235276" ref="F340" r:id="rId204"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235277" ref="F341" r:id="rId205"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235278" ref="F342" r:id="rId206"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235279" ref="F343" r:id="rId207"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235280" ref="F344" r:id="rId208"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235281" ref="F345" r:id="rId209"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235282" ref="F346" r:id="rId210"/>
-    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235283" ref="F347" r:id="rId211"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F348" r:id="rId212"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F349" r:id="rId213"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F350" r:id="rId214"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F353" r:id="rId215"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F354" r:id="rId216"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F355" r:id="rId217"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F358" r:id="rId218"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F359" r:id="rId219"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F360" r:id="rId220"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F363" r:id="rId221"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F364" r:id="rId222"/>
-    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F365" r:id="rId223"/>
-    <hyperlink display="http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K" ref="F368" r:id="rId224"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F369" r:id="rId225"/>
+    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F19" r:id="rId9"/>
+    <hyperlink ref="F20" r:id="rId10"/>
+    <hyperlink ref="F21" r:id="rId11"/>
+    <hyperlink ref="F22" r:id="rId12"/>
+    <hyperlink ref="F23" r:id="rId13"/>
+    <hyperlink ref="F24" r:id="rId14"/>
+    <hyperlink ref="F25" r:id="rId15"/>
+    <hyperlink ref="F26" r:id="rId16"/>
+    <hyperlink ref="F27" r:id="rId17"/>
+    <hyperlink ref="F28" r:id="rId18"/>
+    <hyperlink ref="F29" r:id="rId19"/>
+    <hyperlink ref="F30" r:id="rId20"/>
+    <hyperlink ref="F31" r:id="rId21"/>
+    <hyperlink ref="F32" r:id="rId22"/>
+    <hyperlink ref="F33" r:id="rId23"/>
+    <hyperlink ref="F34" r:id="rId24"/>
+    <hyperlink ref="F35" r:id="rId25"/>
+    <hyperlink ref="F36" r:id="rId26"/>
+    <hyperlink ref="F37" r:id="rId27"/>
+    <hyperlink ref="F38" r:id="rId28"/>
+    <hyperlink ref="F39" r:id="rId29"/>
+    <hyperlink ref="F40" r:id="rId30"/>
+    <hyperlink ref="F41" r:id="rId31"/>
+    <hyperlink ref="F42" r:id="rId32"/>
+    <hyperlink ref="F43" r:id="rId33"/>
+    <hyperlink ref="F44" r:id="rId34"/>
+    <hyperlink ref="F45" r:id="rId35"/>
+    <hyperlink ref="F46" r:id="rId36"/>
+    <hyperlink ref="F47" r:id="rId37"/>
+    <hyperlink ref="F48" r:id="rId38"/>
+    <hyperlink ref="F49" r:id="rId39"/>
+    <hyperlink ref="F50" r:id="rId40"/>
+    <hyperlink ref="F51" r:id="rId41"/>
+    <hyperlink ref="F52" r:id="rId42"/>
+    <hyperlink ref="F53" r:id="rId43"/>
+    <hyperlink ref="F54" r:id="rId44"/>
+    <hyperlink ref="F55" r:id="rId45"/>
+    <hyperlink ref="F56" r:id="rId46"/>
+    <hyperlink ref="F57" r:id="rId47"/>
+    <hyperlink ref="F58" r:id="rId48"/>
+    <hyperlink ref="F59" r:id="rId49"/>
+    <hyperlink ref="F60" r:id="rId50"/>
+    <hyperlink ref="F61" r:id="rId51"/>
+    <hyperlink ref="F62" r:id="rId52"/>
+    <hyperlink ref="F63" r:id="rId53"/>
+    <hyperlink ref="F64" r:id="rId54"/>
+    <hyperlink ref="F65" r:id="rId55"/>
+    <hyperlink ref="F66" r:id="rId56"/>
+    <hyperlink ref="F67" r:id="rId57"/>
+    <hyperlink ref="F68" r:id="rId58"/>
+    <hyperlink ref="F69" r:id="rId59"/>
+    <hyperlink ref="F70" r:id="rId60"/>
+    <hyperlink ref="F71" r:id="rId61"/>
+    <hyperlink ref="F72" r:id="rId62"/>
+    <hyperlink ref="F73" r:id="rId63"/>
+    <hyperlink ref="F74" r:id="rId64"/>
+    <hyperlink ref="F75" r:id="rId65"/>
+    <hyperlink ref="F76" r:id="rId66"/>
+    <hyperlink ref="F77" r:id="rId67"/>
+    <hyperlink ref="F78" r:id="rId68"/>
+    <hyperlink ref="F79" r:id="rId69"/>
+    <hyperlink ref="F80" r:id="rId70"/>
+    <hyperlink ref="F81" r:id="rId71"/>
+    <hyperlink ref="F82" r:id="rId72"/>
+    <hyperlink ref="F83" r:id="rId73"/>
+    <hyperlink ref="F84" r:id="rId74"/>
+    <hyperlink ref="F85" r:id="rId75"/>
+    <hyperlink ref="F86" r:id="rId76"/>
+    <hyperlink ref="F87" r:id="rId77"/>
+    <hyperlink ref="F88" r:id="rId78"/>
+    <hyperlink ref="F89" r:id="rId79"/>
+    <hyperlink ref="F90" r:id="rId80"/>
+    <hyperlink ref="F91" r:id="rId81"/>
+    <hyperlink ref="F92" r:id="rId82"/>
+    <hyperlink ref="F93" r:id="rId83"/>
+    <hyperlink ref="F94" r:id="rId84"/>
+    <hyperlink ref="F95" r:id="rId85"/>
+    <hyperlink ref="F96" r:id="rId86"/>
+    <hyperlink ref="F97" r:id="rId87"/>
+    <hyperlink ref="F98" r:id="rId88"/>
+    <hyperlink ref="F99" r:id="rId89"/>
+    <hyperlink ref="F100" r:id="rId90"/>
+    <hyperlink ref="F101" r:id="rId91"/>
+    <hyperlink ref="F102" r:id="rId92"/>
+    <hyperlink ref="F103" r:id="rId93"/>
+    <hyperlink ref="F104" r:id="rId94"/>
+    <hyperlink ref="F105" r:id="rId95"/>
+    <hyperlink ref="F106" r:id="rId96"/>
+    <hyperlink ref="F107" r:id="rId97"/>
+    <hyperlink ref="F108" r:id="rId98"/>
+    <hyperlink ref="F109" r:id="rId99"/>
+    <hyperlink ref="F110" r:id="rId100"/>
+    <hyperlink ref="F111" r:id="rId101"/>
+    <hyperlink ref="F112" r:id="rId102"/>
+    <hyperlink ref="F113" r:id="rId103"/>
+    <hyperlink ref="F114" r:id="rId104"/>
+    <hyperlink ref="F115" r:id="rId105"/>
+    <hyperlink ref="F116" r:id="rId106"/>
+    <hyperlink ref="F117" r:id="rId107"/>
+    <hyperlink ref="F118" r:id="rId108"/>
+    <hyperlink ref="F119" r:id="rId109"/>
+    <hyperlink ref="F120" r:id="rId110"/>
+    <hyperlink ref="F121" r:id="rId111"/>
+    <hyperlink ref="F122" r:id="rId112"/>
+    <hyperlink ref="F123" r:id="rId113"/>
+    <hyperlink ref="F124" r:id="rId114"/>
+    <hyperlink ref="F125" r:id="rId115"/>
+    <hyperlink ref="F126" r:id="rId116"/>
+    <hyperlink ref="F127" r:id="rId117"/>
+    <hyperlink ref="F128" r:id="rId118"/>
+    <hyperlink ref="F129" r:id="rId119"/>
+    <hyperlink ref="F130" r:id="rId120"/>
+    <hyperlink ref="F131" r:id="rId121"/>
+    <hyperlink ref="F132" r:id="rId122"/>
+    <hyperlink ref="F133" r:id="rId123"/>
+    <hyperlink ref="F134" r:id="rId124"/>
+    <hyperlink ref="F135" r:id="rId125"/>
+    <hyperlink ref="F136" r:id="rId126"/>
+    <hyperlink ref="F137" r:id="rId127"/>
+    <hyperlink ref="F138" r:id="rId128"/>
+    <hyperlink ref="F139" r:id="rId129"/>
+    <hyperlink ref="F140" r:id="rId130"/>
+    <hyperlink ref="F141" r:id="rId131"/>
+    <hyperlink ref="F142" r:id="rId132"/>
+    <hyperlink ref="F143" r:id="rId133"/>
+    <hyperlink ref="F144" r:id="rId134"/>
+    <hyperlink ref="F145" r:id="rId135"/>
+    <hyperlink ref="F146" r:id="rId136"/>
+    <hyperlink ref="F147" r:id="rId137"/>
+    <hyperlink ref="F148" r:id="rId138"/>
+    <hyperlink ref="F149" r:id="rId139"/>
+    <hyperlink ref="F150" r:id="rId140"/>
+    <hyperlink ref="F151" r:id="rId141"/>
+    <hyperlink ref="F152" r:id="rId142"/>
+    <hyperlink ref="F153" r:id="rId143"/>
+    <hyperlink ref="F154" r:id="rId144"/>
+    <hyperlink ref="F155" r:id="rId145"/>
+    <hyperlink ref="F156" r:id="rId146"/>
+    <hyperlink ref="F157" r:id="rId147"/>
+    <hyperlink ref="F158" r:id="rId148"/>
+    <hyperlink ref="F159" r:id="rId149"/>
+    <hyperlink ref="F160" r:id="rId150"/>
+    <hyperlink ref="F161" r:id="rId151"/>
+    <hyperlink ref="F168" r:id="rId152"/>
+    <hyperlink ref="F169" r:id="rId153"/>
+    <hyperlink ref="F170" r:id="rId154"/>
+    <hyperlink ref="F171" r:id="rId155"/>
+    <hyperlink ref="F172" r:id="rId156"/>
+    <hyperlink ref="F173" r:id="rId157"/>
+    <hyperlink ref="F174" r:id="rId158"/>
+    <hyperlink ref="F175" r:id="rId159"/>
+    <hyperlink ref="F176" r:id="rId160"/>
+    <hyperlink ref="F177" r:id="rId161"/>
+    <hyperlink ref="F178" r:id="rId162"/>
+    <hyperlink ref="F179" r:id="rId163"/>
+    <hyperlink ref="F180" r:id="rId164"/>
+    <hyperlink ref="F181" r:id="rId165"/>
+    <hyperlink ref="F182" r:id="rId166"/>
+    <hyperlink ref="F183" r:id="rId167"/>
+    <hyperlink ref="F184" r:id="rId168"/>
+    <hyperlink ref="F185" r:id="rId169"/>
+    <hyperlink ref="F189" r:id="rId170"/>
+    <hyperlink ref="F296" r:id="rId171"/>
+    <hyperlink ref="F297" r:id="rId172"/>
+    <hyperlink ref="F298" r:id="rId173"/>
+    <hyperlink ref="F299" r:id="rId174"/>
+    <hyperlink ref="F300" r:id="rId175"/>
+    <hyperlink ref="F313" r:id="rId176"/>
+    <hyperlink ref="F314" r:id="rId177"/>
+    <hyperlink ref="F315" r:id="rId178"/>
+    <hyperlink ref="F316" r:id="rId179"/>
+    <hyperlink ref="F317" r:id="rId180"/>
+    <hyperlink ref="F318" r:id="rId181"/>
+    <hyperlink ref="F319" r:id="rId182"/>
+    <hyperlink ref="F320" r:id="rId183"/>
+    <hyperlink ref="F321" r:id="rId184"/>
+    <hyperlink ref="F322" r:id="rId185"/>
+    <hyperlink ref="F323" r:id="rId186"/>
+    <hyperlink ref="F324" r:id="rId187"/>
+    <hyperlink ref="F325" r:id="rId188"/>
+    <hyperlink ref="F326" r:id="rId189"/>
+    <hyperlink ref="F327" r:id="rId190"/>
+    <hyperlink ref="F328" r:id="rId191"/>
+    <hyperlink ref="F329" r:id="rId192"/>
+    <hyperlink ref="F330" r:id="rId193"/>
+    <hyperlink ref="F331" r:id="rId194"/>
+    <hyperlink ref="F332" r:id="rId195"/>
+    <hyperlink ref="F333" r:id="rId196"/>
+    <hyperlink ref="F334" r:id="rId197"/>
+    <hyperlink ref="F335" r:id="rId198"/>
+    <hyperlink ref="F336" r:id="rId199"/>
+    <hyperlink ref="F337" r:id="rId200"/>
+    <hyperlink ref="F338" r:id="rId201"/>
+    <hyperlink ref="F339" r:id="rId202"/>
+    <hyperlink ref="F340" r:id="rId203"/>
+    <hyperlink ref="F341" r:id="rId204"/>
+    <hyperlink ref="F342" r:id="rId205"/>
+    <hyperlink ref="F343" r:id="rId206"/>
+    <hyperlink ref="F344" r:id="rId207"/>
+    <hyperlink ref="F345" r:id="rId208"/>
+    <hyperlink ref="F346" r:id="rId209"/>
+    <hyperlink ref="F347" r:id="rId210"/>
+    <hyperlink ref="F348" r:id="rId211"/>
+    <hyperlink ref="F349" r:id="rId212"/>
+    <hyperlink ref="F350" r:id="rId213"/>
+    <hyperlink ref="F351" r:id="rId214"/>
+    <hyperlink ref="F354" r:id="rId215"/>
+    <hyperlink ref="F355" r:id="rId216"/>
+    <hyperlink ref="F356" r:id="rId217"/>
+    <hyperlink ref="F359" r:id="rId218"/>
+    <hyperlink ref="F360" r:id="rId219"/>
+    <hyperlink ref="F361" r:id="rId220"/>
+    <hyperlink ref="F364" r:id="rId221"/>
+    <hyperlink ref="F365" r:id="rId222"/>
+    <hyperlink ref="F366" r:id="rId223"/>
+    <hyperlink ref="F369" r:id="rId224"/>
+    <hyperlink ref="F370" r:id="rId225"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Manufacturing/V2/XMP16-V2-BOM.xlsx
+++ b/Manufacturing/V2/XMP16-V2-BOM.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="XMP16_03" vbProcedure="false">Sheet1!$A$9:$C$399</definedName>
+    <definedName function="false" hidden="false" name="XMP16_03" vbProcedure="false">Sheet1!$A$9:$C$400</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="636">
   <si>
     <t>XMP16-V2 BOM</t>
   </si>
@@ -1013,6 +1013,12 @@
   </si>
   <si>
     <t>BOOT_SPEED</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>Flash_Boot2</t>
   </si>
   <si>
     <t>R1</t>
@@ -2283,10 +2289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F399"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A189" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="C203" activeCellId="0" pane="topLeft" sqref="C203"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A197" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
+      <selection activeCell="B204" activeCellId="0" pane="topLeft" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6016,28 +6022,25 @@
       <c r="A203" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C203" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>333</v>
+      <c r="C203" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B204" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B204" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="C204" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
@@ -6051,7 +6054,7 @@
         <v>40</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
@@ -6059,27 +6062,27 @@
         <v>338</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B207" s="0" t="s">
-        <v>340</v>
-      </c>
       <c r="C207" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
@@ -6093,7 +6096,7 @@
         <v>40</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
@@ -6107,7 +6110,7 @@
         <v>40</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
@@ -6121,7 +6124,7 @@
         <v>40</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
@@ -6129,139 +6132,139 @@
         <v>347</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
@@ -6269,125 +6272,125 @@
         <v>358</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
@@ -6395,209 +6398,209 @@
         <v>368</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B231" s="0" t="s">
-        <v>337</v>
-      </c>
       <c r="C231" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
@@ -6605,27 +6608,27 @@
         <v>384</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
@@ -6633,55 +6636,55 @@
         <v>387</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B248" s="0" t="s">
-        <v>386</v>
-      </c>
       <c r="C248" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
@@ -6689,629 +6692,629 @@
         <v>392</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="C256" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="C257" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C262" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="C284" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C286" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C294" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
@@ -7319,782 +7322,776 @@
         <v>438</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="297">
+        <v>335</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B297" s="15" t="s">
         <v>440</v>
       </c>
+      <c r="B297" s="0" t="s">
+        <v>388</v>
+      </c>
       <c r="C297" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="E297" s="12"/>
-      <c r="F297" s="15" t="s">
-        <v>443</v>
+        <v>40</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D298" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>442</v>
       </c>
       <c r="E298" s="12"/>
       <c r="F298" s="15" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>442</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E299" s="12"/>
       <c r="F299" s="15" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E300" s="12"/>
       <c r="F300" s="15" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E301" s="12"/>
       <c r="F301" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="302">
+      <c r="A302" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C302" s="0" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
-      <c r="A302" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E302" s="12" t="s">
-        <v>333</v>
+      <c r="D302" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E302" s="12"/>
+      <c r="F302" s="15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C307" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C312" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C313" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="314">
+        <v>335</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="E314" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F314" s="9" t="s">
-        <v>464</v>
+        <v>40</v>
+      </c>
+      <c r="E314" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E315" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="F315" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E315" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F315" s="9" t="s">
-        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E316" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="F316" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C316" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="317">
+      <c r="A317" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="E316" s="11" t="s">
+      <c r="B317" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="F316" s="9" t="s">
+      <c r="C317" s="0" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="317">
-      <c r="A317" s="0" t="s">
+      <c r="E317" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="F317" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C317" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="318">
+      <c r="A318" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="D317" s="0" t="s">
+      <c r="B318" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="E317" s="11" t="s">
+      <c r="C318" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="F317" s="16" t="s">
+      <c r="D318" s="0" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="318">
-      <c r="A318" s="0" t="s">
+      <c r="E318" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="F318" s="16" t="s">
         <v>483</v>
-      </c>
-      <c r="C318" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="D318" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="E318" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="F318" s="9" t="s">
-        <v>487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E319" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="F319" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D319" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="E319" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F319" s="9" t="s">
-        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B320" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="C320" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F320" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="C320" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D320" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E320" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F320" s="9" t="s">
-        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E324" s="11" t="s">
-        <v>498</v>
+        <v>470</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E325" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="F325" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="E325" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="F325" s="9" t="s">
-        <v>503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E326" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="B326" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>502</v>
-      </c>
       <c r="F326" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F327" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="E327" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="F327" s="9" t="s">
-        <v>503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="E329" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>504</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="F330" s="9" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E331" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="F331" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D331" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="E331" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F331" s="9" t="s">
-        <v>518</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D332" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="B332" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D332" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E332" s="8" t="s">
-        <v>469</v>
+      <c r="E332" s="12" t="s">
+        <v>517</v>
       </c>
       <c r="F332" s="9" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E333" s="11" t="s">
-        <v>522</v>
+        <v>470</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="F333" s="9" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E334" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B334" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E334" s="8" t="s">
-        <v>469</v>
-      </c>
       <c r="F334" s="9" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F335" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E336" s="11" t="s">
-        <v>522</v>
+        <v>470</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="F336" s="9" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D337" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F337" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="338">
+      <c r="A338" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B338" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="E337" s="8" t="s">
+      <c r="C338" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="F337" s="9" t="s">
+      <c r="D338" s="0" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="338">
-      <c r="A338" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C338" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="D338" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="E338" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="F338" s="16" t="s">
-        <v>533</v>
+      <c r="E338" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F338" s="9" t="s">
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="E339" s="17" t="s">
         <v>534</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C339" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="D339" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="E339" s="17" t="s">
-        <v>532</v>
       </c>
       <c r="F339" s="16" t="s">
         <v>535</v>
@@ -8105,16 +8102,16 @@
         <v>536</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E340" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F340" s="16" t="s">
         <v>537</v>
@@ -8125,16 +8122,16 @@
         <v>538</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E341" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F341" s="16" t="s">
         <v>539</v>
@@ -8145,16 +8142,16 @@
         <v>540</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E342" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F342" s="16" t="s">
         <v>541</v>
@@ -8165,16 +8162,16 @@
         <v>542</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E343" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F343" s="16" t="s">
         <v>543</v>
@@ -8185,16 +8182,16 @@
         <v>544</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E344" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F344" s="16" t="s">
         <v>545</v>
@@ -8205,16 +8202,16 @@
         <v>546</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E345" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F345" s="16" t="s">
         <v>547</v>
@@ -8225,16 +8222,16 @@
         <v>548</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E346" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F346" s="16" t="s">
         <v>549</v>
@@ -8245,16 +8242,16 @@
         <v>550</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E347" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F347" s="16" t="s">
         <v>551</v>
@@ -8265,16 +8262,16 @@
         <v>552</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E348" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F348" s="16" t="s">
         <v>553</v>
@@ -8285,481 +8282,490 @@
         <v>554</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E349" s="17" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F349" s="16" t="s">
         <v>555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="350">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
         <v>556</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F350" s="9" t="s">
-        <v>470</v>
+        <v>533</v>
+      </c>
+      <c r="E350" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="F350" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F351" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="D352" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="353">
+      <c r="A353" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B353" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="E352" s="11" t="s">
+      <c r="C353" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="F352" s="9" t="s">
+      <c r="D353" s="0" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
-      <c r="A353" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E353" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="F353" s="6" t="s">
-        <v>563</v>
+      <c r="E353" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F353" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D354" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B354" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D354" s="6" t="s">
+      <c r="E354" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="E354" s="6" t="s">
-        <v>560</v>
-      </c>
       <c r="F354" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
+      <c r="A355" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C355" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="355">
-      <c r="A355" s="0" t="s">
+      <c r="D355" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F355" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D355" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E355" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F355" s="9" t="s">
-        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E356" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F356" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="D357" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F357" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="358">
+      <c r="A358" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B358" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="E357" s="11" t="s">
+      <c r="C358" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="F357" s="9" t="s">
+      <c r="D358" s="0" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
-      <c r="A358" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="F358" s="6" t="s">
-        <v>563</v>
+      <c r="E358" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F358" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D359" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E359" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="E359" s="6" t="s">
-        <v>560</v>
-      </c>
       <c r="F359" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
+      <c r="A360" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C360" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="360">
-      <c r="A360" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C360" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D360" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F360" s="9" t="s">
-        <v>470</v>
+      <c r="D360" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E361" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F361" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="D362" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F362" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="363">
+      <c r="A363" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B363" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="E362" s="11" t="s">
+      <c r="C363" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="F362" s="9" t="s">
+      <c r="D363" s="0" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
-      <c r="A363" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E363" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="F363" s="6" t="s">
-        <v>563</v>
+      <c r="E363" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F363" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D364" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E364" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="E364" s="6" t="s">
-        <v>560</v>
-      </c>
       <c r="F364" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
+      <c r="A365" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C365" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="365">
-      <c r="A365" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C365" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D365" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E365" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F365" s="9" t="s">
-        <v>470</v>
+      <c r="D365" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F366" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="D367" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F367" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="368">
+      <c r="A368" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B368" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="E367" s="11" t="s">
+      <c r="C368" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="F367" s="9" t="s">
+      <c r="D368" s="0" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
-      <c r="A368" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D368" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E368" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="F368" s="6" t="s">
-        <v>563</v>
+      <c r="E368" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F368" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D369" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E369" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="E369" s="6" t="s">
-        <v>560</v>
-      </c>
       <c r="F369" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
+      <c r="A370" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="370">
-      <c r="A370" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="C370" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="D370" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="E370" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="F370" s="9" t="s">
-        <v>585</v>
+      <c r="D370" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="E371" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B371" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C371" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D371" s="0" t="s">
+      <c r="F371" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="372">
+      <c r="A372" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B372" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="E371" s="8" t="s">
+      <c r="C372" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="F371" s="9" t="s">
+      <c r="D372" s="0" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
-      <c r="A372" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="B372" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>589</v>
+      <c r="E372" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F372" s="9" t="s">
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B373" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="C373" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>589</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
@@ -8770,7 +8776,7 @@
         <v>593</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
@@ -8781,7 +8787,7 @@
         <v>595</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
@@ -8792,18 +8798,18 @@
         <v>597</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B377" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="C377" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>589</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
@@ -8814,7 +8820,7 @@
         <v>602</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
@@ -8825,7 +8831,7 @@
         <v>604</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
@@ -8833,43 +8839,43 @@
         <v>605</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>328</v>
+        <v>606</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>604</v>
+        <v>328</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
@@ -8877,32 +8883,32 @@
         <v>610</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B385" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B385" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="C385" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>613</v>
+        <v>328</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
@@ -8910,21 +8916,21 @@
         <v>614</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>616</v>
+        <v>313</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
@@ -8932,65 +8938,65 @@
         <v>617</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>313</v>
+        <v>618</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>597</v>
+        <v>313</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>313</v>
+        <v>599</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>313</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>609</v>
+        <v>313</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
@@ -9001,7 +9007,7 @@
         <v>625</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
@@ -9012,7 +9018,7 @@
         <v>627</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
@@ -9023,7 +9029,7 @@
         <v>629</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
@@ -9034,7 +9040,7 @@
         <v>631</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
@@ -9045,7 +9051,18 @@
         <v>633</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
+      <c r="A400" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -9220,61 +9237,61 @@
     <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F184" r:id="rId168"/>
     <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F185" r:id="rId169"/>
     <hyperlink display=" http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247 " ref="F189" r:id="rId170"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F297" r:id="rId171"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F298" r:id="rId172"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F299" r:id="rId173"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F300" r:id="rId174"/>
-    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F301" r:id="rId175"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948 " ref="F314" r:id="rId176"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F315" r:id="rId177"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/ASE-25.000MHZ-ET/535-9987-1-ND/2001610 " ref="F316" r:id="rId178"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LT3480EDD%23PBF-ND " ref="F317" r:id="rId179"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND " ref="F318" r:id="rId180"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948 " ref="F319" r:id="rId181"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F320" r:id="rId182"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F321" r:id="rId183"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F322" r:id="rId184"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F323" r:id="rId185"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=74AHC1GU04W5-7DICT-ND " ref="F324" r:id="rId186"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F325" r:id="rId187"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F326" r:id="rId188"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F327" r:id="rId189"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F328" r:id="rId190"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND " ref="F329" r:id="rId191"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F330" r:id="rId192"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=SW1026CT-ND " ref="F331" r:id="rId193"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F332" r:id="rId194"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702 " ref="F333" r:id="rId195"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F334" r:id="rId196"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F335" r:id="rId197"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702 " ref="F336" r:id="rId198"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F337" r:id="rId199"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272 " ref="F338" r:id="rId200"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235273 " ref="F339" r:id="rId201"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235274 " ref="F340" r:id="rId202"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235275 " ref="F341" r:id="rId203"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235276 " ref="F342" r:id="rId204"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235277 " ref="F343" r:id="rId205"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235278 " ref="F344" r:id="rId206"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235279 " ref="F345" r:id="rId207"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235280 " ref="F346" r:id="rId208"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235281 " ref="F347" r:id="rId209"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235282 " ref="F348" r:id="rId210"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235283 " ref="F349" r:id="rId211"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F350" r:id="rId212"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F351" r:id="rId213"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F352" r:id="rId214"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F355" r:id="rId215"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F356" r:id="rId216"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F357" r:id="rId217"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F360" r:id="rId218"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F361" r:id="rId219"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F362" r:id="rId220"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F365" r:id="rId221"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F366" r:id="rId222"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F367" r:id="rId223"/>
-    <hyperlink display=" http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K " ref="F370" r:id="rId224"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F371" r:id="rId225"/>
+    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F298" r:id="rId171"/>
+    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F299" r:id="rId172"/>
+    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F300" r:id="rId173"/>
+    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F301" r:id="rId174"/>
+    <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F302" r:id="rId175"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948 " ref="F315" r:id="rId176"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F316" r:id="rId177"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/ASE-25.000MHZ-ET/535-9987-1-ND/2001610 " ref="F317" r:id="rId178"/>
+    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LT3480EDD%23PBF-ND " ref="F318" r:id="rId179"/>
+    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND " ref="F319" r:id="rId180"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948 " ref="F320" r:id="rId181"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F321" r:id="rId182"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F322" r:id="rId183"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F323" r:id="rId184"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F324" r:id="rId185"/>
+    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=74AHC1GU04W5-7DICT-ND " ref="F325" r:id="rId186"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F326" r:id="rId187"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F327" r:id="rId188"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F328" r:id="rId189"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F329" r:id="rId190"/>
+    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND " ref="F330" r:id="rId191"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F331" r:id="rId192"/>
+    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=SW1026CT-ND " ref="F332" r:id="rId193"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F333" r:id="rId194"/>
+    <hyperlink display=" http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702 " ref="F334" r:id="rId195"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F335" r:id="rId196"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F336" r:id="rId197"/>
+    <hyperlink display=" http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702 " ref="F337" r:id="rId198"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F338" r:id="rId199"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272 " ref="F339" r:id="rId200"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235273 " ref="F340" r:id="rId201"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235274 " ref="F341" r:id="rId202"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235275 " ref="F342" r:id="rId203"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235276 " ref="F343" r:id="rId204"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235277 " ref="F344" r:id="rId205"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235278 " ref="F345" r:id="rId206"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235279 " ref="F346" r:id="rId207"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235280 " ref="F347" r:id="rId208"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235281 " ref="F348" r:id="rId209"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235282 " ref="F349" r:id="rId210"/>
+    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235283 " ref="F350" r:id="rId211"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F351" r:id="rId212"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F352" r:id="rId213"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F353" r:id="rId214"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F356" r:id="rId215"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F357" r:id="rId216"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F358" r:id="rId217"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F361" r:id="rId218"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F362" r:id="rId219"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F363" r:id="rId220"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F366" r:id="rId221"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F367" r:id="rId222"/>
+    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F368" r:id="rId223"/>
+    <hyperlink display=" http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K " ref="F371" r:id="rId224"/>
+    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F372" r:id="rId225"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
